--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>KWPCY</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -717,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4960600</v>
+        <v>5069800</v>
       </c>
       <c r="E8" s="3">
-        <v>5213300</v>
+        <v>5328000</v>
       </c>
       <c r="F8" s="3">
-        <v>5105700</v>
+        <v>5218100</v>
       </c>
       <c r="G8" s="3">
-        <v>5020500</v>
+        <v>5130900</v>
       </c>
       <c r="H8" s="3">
-        <v>4997400</v>
+        <v>5107400</v>
       </c>
       <c r="I8" s="3">
-        <v>5030400</v>
+        <v>5141100</v>
       </c>
       <c r="J8" s="3">
-        <v>4822700</v>
+        <v>4928800</v>
       </c>
       <c r="K8" s="3">
         <v>4565200</v>
@@ -750,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3751800</v>
+        <v>3834400</v>
       </c>
       <c r="E9" s="3">
-        <v>4003000</v>
+        <v>4091100</v>
       </c>
       <c r="F9" s="3">
-        <v>3933900</v>
+        <v>4020500</v>
       </c>
       <c r="G9" s="3">
-        <v>3898200</v>
+        <v>3984000</v>
       </c>
       <c r="H9" s="3">
-        <v>3931300</v>
+        <v>4017800</v>
       </c>
       <c r="I9" s="3">
-        <v>3809100</v>
+        <v>3892900</v>
       </c>
       <c r="J9" s="3">
-        <v>3656800</v>
+        <v>3737200</v>
       </c>
       <c r="K9" s="3">
         <v>3434600</v>
@@ -783,25 +780,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1208800</v>
+        <v>1235400</v>
       </c>
       <c r="E10" s="3">
-        <v>1210300</v>
+        <v>1236900</v>
       </c>
       <c r="F10" s="3">
-        <v>1171800</v>
+        <v>1197600</v>
       </c>
       <c r="G10" s="3">
-        <v>1122200</v>
+        <v>1146900</v>
       </c>
       <c r="H10" s="3">
-        <v>1066100</v>
+        <v>1089600</v>
       </c>
       <c r="I10" s="3">
-        <v>1221400</v>
+        <v>1248200</v>
       </c>
       <c r="J10" s="3">
-        <v>1165900</v>
+        <v>1191600</v>
       </c>
       <c r="K10" s="3">
         <v>1130600</v>
@@ -830,26 +827,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
+      <c r="D12" s="3">
+        <v>38600</v>
       </c>
       <c r="E12" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F12" s="3">
         <v>37700</v>
       </c>
-      <c r="F12" s="3">
-        <v>36900</v>
-      </c>
       <c r="G12" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="H12" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="I12" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="J12" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="K12" s="3">
         <v>30900</v>
@@ -897,25 +894,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3">
-        <v>47600</v>
+        <v>48700</v>
       </c>
       <c r="F14" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="G14" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="H14" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I14" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="J14" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="K14" s="3">
         <v>10700</v>
@@ -929,26 +926,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
+      <c r="D15" s="3">
+        <v>26900</v>
       </c>
       <c r="E15" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="F15" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="G15" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="H15" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="I15" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="J15" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="K15" s="3">
         <v>15500</v>
@@ -975,25 +972,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4686900</v>
+        <v>4790000</v>
       </c>
       <c r="E17" s="3">
-        <v>4960400</v>
+        <v>5069500</v>
       </c>
       <c r="F17" s="3">
-        <v>4848800</v>
+        <v>4955500</v>
       </c>
       <c r="G17" s="3">
-        <v>4764200</v>
+        <v>4869100</v>
       </c>
       <c r="H17" s="3">
-        <v>4747700</v>
+        <v>4852200</v>
       </c>
       <c r="I17" s="3">
-        <v>4819500</v>
+        <v>4925600</v>
       </c>
       <c r="J17" s="3">
-        <v>4636100</v>
+        <v>4738100</v>
       </c>
       <c r="K17" s="3">
         <v>4364600</v>
@@ -1008,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>273700</v>
+        <v>279700</v>
       </c>
       <c r="E18" s="3">
-        <v>252900</v>
+        <v>258500</v>
       </c>
       <c r="F18" s="3">
-        <v>256900</v>
+        <v>262600</v>
       </c>
       <c r="G18" s="3">
-        <v>256200</v>
+        <v>261900</v>
       </c>
       <c r="H18" s="3">
-        <v>249700</v>
+        <v>255200</v>
       </c>
       <c r="I18" s="3">
-        <v>210900</v>
+        <v>215600</v>
       </c>
       <c r="J18" s="3">
-        <v>186600</v>
+        <v>190700</v>
       </c>
       <c r="K18" s="3">
         <v>200600</v>
@@ -1056,25 +1053,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="E20" s="3">
-        <v>55400</v>
+        <v>56700</v>
       </c>
       <c r="F20" s="3">
-        <v>26300</v>
+        <v>26900</v>
       </c>
       <c r="G20" s="3">
-        <v>21900</v>
+        <v>22400</v>
       </c>
       <c r="H20" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="I20" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J20" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="K20" s="3">
         <v>12600</v>
@@ -1089,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>470100</v>
+        <v>479900</v>
       </c>
       <c r="E21" s="3">
-        <v>479000</v>
+        <v>489000</v>
       </c>
       <c r="F21" s="3">
-        <v>439900</v>
+        <v>449100</v>
       </c>
       <c r="G21" s="3">
-        <v>446500</v>
+        <v>455700</v>
       </c>
       <c r="H21" s="3">
-        <v>438600</v>
+        <v>447700</v>
       </c>
       <c r="I21" s="3">
-        <v>373200</v>
+        <v>380900</v>
       </c>
       <c r="J21" s="3">
-        <v>339200</v>
+        <v>346200</v>
       </c>
       <c r="K21" s="3">
         <v>341000</v>
@@ -1125,13 +1122,13 @@
         <v>2700</v>
       </c>
       <c r="E22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H22" s="3">
         <v>2900</v>
@@ -1155,25 +1152,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>295300</v>
+        <v>301800</v>
       </c>
       <c r="E23" s="3">
-        <v>305300</v>
+        <v>312000</v>
       </c>
       <c r="F23" s="3">
-        <v>279800</v>
+        <v>286000</v>
       </c>
       <c r="G23" s="3">
-        <v>275300</v>
+        <v>281400</v>
       </c>
       <c r="H23" s="3">
-        <v>259800</v>
+        <v>265500</v>
       </c>
       <c r="I23" s="3">
-        <v>223400</v>
+        <v>228300</v>
       </c>
       <c r="J23" s="3">
-        <v>203700</v>
+        <v>208100</v>
       </c>
       <c r="K23" s="3">
         <v>211100</v>
@@ -1188,25 +1185,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>96100</v>
+        <v>98200</v>
       </c>
       <c r="E24" s="3">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="F24" s="3">
-        <v>83800</v>
+        <v>85700</v>
       </c>
       <c r="G24" s="3">
-        <v>93200</v>
+        <v>95300</v>
       </c>
       <c r="H24" s="3">
-        <v>80700</v>
+        <v>82500</v>
       </c>
       <c r="I24" s="3">
-        <v>83000</v>
+        <v>84800</v>
       </c>
       <c r="J24" s="3">
-        <v>69600</v>
+        <v>71200</v>
       </c>
       <c r="K24" s="3">
         <v>80600</v>
@@ -1254,25 +1251,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>199200</v>
+        <v>203600</v>
       </c>
       <c r="E26" s="3">
-        <v>198700</v>
+        <v>203100</v>
       </c>
       <c r="F26" s="3">
-        <v>196000</v>
+        <v>200300</v>
       </c>
       <c r="G26" s="3">
-        <v>182100</v>
+        <v>186100</v>
       </c>
       <c r="H26" s="3">
-        <v>179100</v>
+        <v>183000</v>
       </c>
       <c r="I26" s="3">
-        <v>140400</v>
+        <v>143500</v>
       </c>
       <c r="J26" s="3">
-        <v>134000</v>
+        <v>137000</v>
       </c>
       <c r="K26" s="3">
         <v>130500</v>
@@ -1287,25 +1284,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>170000</v>
+        <v>173700</v>
       </c>
       <c r="E27" s="3">
-        <v>166500</v>
+        <v>170200</v>
       </c>
       <c r="F27" s="3">
-        <v>164500</v>
+        <v>168100</v>
       </c>
       <c r="G27" s="3">
-        <v>155400</v>
+        <v>158800</v>
       </c>
       <c r="H27" s="3">
-        <v>154300</v>
+        <v>157700</v>
       </c>
       <c r="I27" s="3">
-        <v>121500</v>
+        <v>124200</v>
       </c>
       <c r="J27" s="3">
-        <v>114200</v>
+        <v>116700</v>
       </c>
       <c r="K27" s="3">
         <v>111100</v>
@@ -1452,25 +1449,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-24300</v>
+        <v>-24800</v>
       </c>
       <c r="E32" s="3">
-        <v>-55400</v>
+        <v>-56700</v>
       </c>
       <c r="F32" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="G32" s="3">
-        <v>-21900</v>
+        <v>-22400</v>
       </c>
       <c r="H32" s="3">
-        <v>-12900</v>
+        <v>-13200</v>
       </c>
       <c r="I32" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="J32" s="3">
-        <v>-19400</v>
+        <v>-19900</v>
       </c>
       <c r="K32" s="3">
         <v>-12600</v>
@@ -1485,25 +1482,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>170000</v>
+        <v>173700</v>
       </c>
       <c r="E33" s="3">
-        <v>166500</v>
+        <v>170200</v>
       </c>
       <c r="F33" s="3">
-        <v>164500</v>
+        <v>168100</v>
       </c>
       <c r="G33" s="3">
-        <v>155400</v>
+        <v>158800</v>
       </c>
       <c r="H33" s="3">
-        <v>154300</v>
+        <v>157700</v>
       </c>
       <c r="I33" s="3">
-        <v>121500</v>
+        <v>124200</v>
       </c>
       <c r="J33" s="3">
-        <v>114200</v>
+        <v>116700</v>
       </c>
       <c r="K33" s="3">
         <v>111100</v>
@@ -1551,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>170000</v>
+        <v>173700</v>
       </c>
       <c r="E35" s="3">
-        <v>166500</v>
+        <v>170200</v>
       </c>
       <c r="F35" s="3">
-        <v>164500</v>
+        <v>168100</v>
       </c>
       <c r="G35" s="3">
-        <v>155400</v>
+        <v>158800</v>
       </c>
       <c r="H35" s="3">
-        <v>154300</v>
+        <v>157700</v>
       </c>
       <c r="I35" s="3">
-        <v>121500</v>
+        <v>124200</v>
       </c>
       <c r="J35" s="3">
-        <v>114200</v>
+        <v>116700</v>
       </c>
       <c r="K35" s="3">
         <v>111100</v>
@@ -1652,25 +1649,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>425200</v>
+        <v>434100</v>
       </c>
       <c r="E41" s="3">
-        <v>349900</v>
+        <v>357200</v>
       </c>
       <c r="F41" s="3">
-        <v>269200</v>
+        <v>274900</v>
       </c>
       <c r="G41" s="3">
-        <v>325400</v>
+        <v>332200</v>
       </c>
       <c r="H41" s="3">
-        <v>271300</v>
+        <v>277000</v>
       </c>
       <c r="I41" s="3">
-        <v>316500</v>
+        <v>323100</v>
       </c>
       <c r="J41" s="3">
-        <v>308800</v>
+        <v>315200</v>
       </c>
       <c r="K41" s="3">
         <v>301900</v>
@@ -1685,25 +1682,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="E42" s="3">
-        <v>86400</v>
+        <v>88200</v>
       </c>
       <c r="F42" s="3">
-        <v>109100</v>
+        <v>111400</v>
       </c>
       <c r="G42" s="3">
-        <v>45500</v>
+        <v>46400</v>
       </c>
       <c r="H42" s="3">
-        <v>45500</v>
+        <v>46400</v>
       </c>
       <c r="I42" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="J42" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="K42" s="3">
         <v>90400</v>
@@ -1718,25 +1715,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>756500</v>
+        <v>772300</v>
       </c>
       <c r="E43" s="3">
-        <v>696200</v>
+        <v>710700</v>
       </c>
       <c r="F43" s="3">
-        <v>708900</v>
+        <v>723700</v>
       </c>
       <c r="G43" s="3">
-        <v>681400</v>
+        <v>695600</v>
       </c>
       <c r="H43" s="3">
-        <v>708800</v>
+        <v>723600</v>
       </c>
       <c r="I43" s="3">
-        <v>739000</v>
+        <v>754400</v>
       </c>
       <c r="J43" s="3">
-        <v>701900</v>
+        <v>716600</v>
       </c>
       <c r="K43" s="3">
         <v>601400</v>
@@ -1751,25 +1748,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>262100</v>
+        <v>267600</v>
       </c>
       <c r="E44" s="3">
-        <v>256800</v>
+        <v>262200</v>
       </c>
       <c r="F44" s="3">
-        <v>260900</v>
+        <v>266400</v>
       </c>
       <c r="G44" s="3">
-        <v>235200</v>
+        <v>240100</v>
       </c>
       <c r="H44" s="3">
-        <v>258200</v>
+        <v>263600</v>
       </c>
       <c r="I44" s="3">
-        <v>208600</v>
+        <v>213000</v>
       </c>
       <c r="J44" s="3">
-        <v>175500</v>
+        <v>179200</v>
       </c>
       <c r="K44" s="3">
         <v>161900</v>
@@ -1784,25 +1781,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>54100</v>
+        <v>55200</v>
       </c>
       <c r="E45" s="3">
-        <v>78100</v>
+        <v>79700</v>
       </c>
       <c r="F45" s="3">
-        <v>72900</v>
+        <v>74400</v>
       </c>
       <c r="G45" s="3">
-        <v>77600</v>
+        <v>79200</v>
       </c>
       <c r="H45" s="3">
-        <v>90800</v>
+        <v>92700</v>
       </c>
       <c r="I45" s="3">
-        <v>50300</v>
+        <v>51400</v>
       </c>
       <c r="J45" s="3">
-        <v>54000</v>
+        <v>55200</v>
       </c>
       <c r="K45" s="3">
         <v>46900</v>
@@ -1817,25 +1814,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1588800</v>
+        <v>1622100</v>
       </c>
       <c r="E46" s="3">
-        <v>1439900</v>
+        <v>1470000</v>
       </c>
       <c r="F46" s="3">
-        <v>1421100</v>
+        <v>1450800</v>
       </c>
       <c r="G46" s="3">
-        <v>1365000</v>
+        <v>1393500</v>
       </c>
       <c r="H46" s="3">
-        <v>1350000</v>
+        <v>1378200</v>
       </c>
       <c r="I46" s="3">
-        <v>1405300</v>
+        <v>1434600</v>
       </c>
       <c r="J46" s="3">
-        <v>1331100</v>
+        <v>1358900</v>
       </c>
       <c r="K46" s="3">
         <v>1202500</v>
@@ -1850,25 +1847,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>254100</v>
+        <v>266700</v>
       </c>
       <c r="E47" s="3">
-        <v>552900</v>
+        <v>289100</v>
       </c>
       <c r="F47" s="3">
-        <v>323800</v>
+        <v>330500</v>
       </c>
       <c r="G47" s="3">
-        <v>258400</v>
+        <v>263800</v>
       </c>
       <c r="H47" s="3">
-        <v>526100</v>
+        <v>537100</v>
       </c>
       <c r="I47" s="3">
-        <v>247600</v>
+        <v>252800</v>
       </c>
       <c r="J47" s="3">
-        <v>220600</v>
+        <v>225200</v>
       </c>
       <c r="K47" s="3">
         <v>188100</v>
@@ -1883,25 +1880,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1885800</v>
+        <v>1925200</v>
       </c>
       <c r="E48" s="3">
-        <v>1850900</v>
+        <v>1845400</v>
       </c>
       <c r="F48" s="3">
-        <v>1770200</v>
+        <v>1807200</v>
       </c>
       <c r="G48" s="3">
-        <v>1666900</v>
+        <v>1701700</v>
       </c>
       <c r="H48" s="3">
-        <v>1559800</v>
+        <v>1592400</v>
       </c>
       <c r="I48" s="3">
-        <v>1395800</v>
+        <v>1424900</v>
       </c>
       <c r="J48" s="3">
-        <v>1234700</v>
+        <v>1260500</v>
       </c>
       <c r="K48" s="3">
         <v>1126200</v>
@@ -1916,25 +1913,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>90200</v>
+        <v>92100</v>
       </c>
       <c r="E49" s="3">
-        <v>96500</v>
+        <v>58400</v>
       </c>
       <c r="F49" s="3">
-        <v>76000</v>
+        <v>77600</v>
       </c>
       <c r="G49" s="3">
-        <v>51600</v>
+        <v>52700</v>
       </c>
       <c r="H49" s="3">
-        <v>80300</v>
+        <v>82000</v>
       </c>
       <c r="I49" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="J49" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="K49" s="3">
         <v>21700</v>
@@ -2015,25 +2012,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>219900</v>
+        <v>217100</v>
       </c>
       <c r="E52" s="3">
-        <v>352500</v>
+        <v>372800</v>
       </c>
       <c r="F52" s="3">
-        <v>219500</v>
+        <v>224100</v>
       </c>
       <c r="G52" s="3">
-        <v>166100</v>
+        <v>169500</v>
       </c>
       <c r="H52" s="3">
-        <v>311300</v>
+        <v>317800</v>
       </c>
       <c r="I52" s="3">
-        <v>165700</v>
+        <v>169100</v>
       </c>
       <c r="J52" s="3">
-        <v>231400</v>
+        <v>236300</v>
       </c>
       <c r="K52" s="3">
         <v>232400</v>
@@ -2081,25 +2078,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4038800</v>
+        <v>4123200</v>
       </c>
       <c r="E54" s="3">
-        <v>3815400</v>
+        <v>3895200</v>
       </c>
       <c r="F54" s="3">
-        <v>3810600</v>
+        <v>3890200</v>
       </c>
       <c r="G54" s="3">
-        <v>3508000</v>
+        <v>3581300</v>
       </c>
       <c r="H54" s="3">
-        <v>3390700</v>
+        <v>3461600</v>
       </c>
       <c r="I54" s="3">
-        <v>3245100</v>
+        <v>3312900</v>
       </c>
       <c r="J54" s="3">
-        <v>3042000</v>
+        <v>3105600</v>
       </c>
       <c r="K54" s="3">
         <v>2770900</v>
@@ -2144,25 +2141,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>484500</v>
+        <v>494600</v>
       </c>
       <c r="E57" s="3">
-        <v>404700</v>
+        <v>413100</v>
       </c>
       <c r="F57" s="3">
-        <v>436400</v>
+        <v>445500</v>
       </c>
       <c r="G57" s="3">
-        <v>427700</v>
+        <v>436600</v>
       </c>
       <c r="H57" s="3">
-        <v>410800</v>
+        <v>419400</v>
       </c>
       <c r="I57" s="3">
-        <v>488800</v>
+        <v>499000</v>
       </c>
       <c r="J57" s="3">
-        <v>461600</v>
+        <v>471300</v>
       </c>
       <c r="K57" s="3">
         <v>377100</v>
@@ -2177,25 +2174,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>66600</v>
+        <v>67900</v>
       </c>
       <c r="E58" s="3">
-        <v>263500</v>
+        <v>273700</v>
       </c>
       <c r="F58" s="3">
-        <v>73100</v>
+        <v>74600</v>
       </c>
       <c r="G58" s="3">
-        <v>75500</v>
+        <v>77000</v>
       </c>
       <c r="H58" s="3">
-        <v>178000</v>
+        <v>181700</v>
       </c>
       <c r="I58" s="3">
-        <v>83800</v>
+        <v>85500</v>
       </c>
       <c r="J58" s="3">
-        <v>85800</v>
+        <v>87600</v>
       </c>
       <c r="K58" s="3">
         <v>83000</v>
@@ -2210,25 +2207,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>348900</v>
+        <v>356200</v>
       </c>
       <c r="E59" s="3">
-        <v>575500</v>
+        <v>369600</v>
       </c>
       <c r="F59" s="3">
-        <v>315000</v>
+        <v>321600</v>
       </c>
       <c r="G59" s="3">
-        <v>426300</v>
+        <v>435200</v>
       </c>
       <c r="H59" s="3">
-        <v>672600</v>
+        <v>686700</v>
       </c>
       <c r="I59" s="3">
-        <v>391900</v>
+        <v>400000</v>
       </c>
       <c r="J59" s="3">
-        <v>324300</v>
+        <v>331100</v>
       </c>
       <c r="K59" s="3">
         <v>316300</v>
@@ -2243,25 +2240,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>900000</v>
+        <v>918800</v>
       </c>
       <c r="E60" s="3">
-        <v>917100</v>
+        <v>936200</v>
       </c>
       <c r="F60" s="3">
-        <v>824400</v>
+        <v>841700</v>
       </c>
       <c r="G60" s="3">
-        <v>929400</v>
+        <v>948800</v>
       </c>
       <c r="H60" s="3">
-        <v>862400</v>
+        <v>880400</v>
       </c>
       <c r="I60" s="3">
-        <v>964400</v>
+        <v>984600</v>
       </c>
       <c r="J60" s="3">
-        <v>871700</v>
+        <v>890000</v>
       </c>
       <c r="K60" s="3">
         <v>776400</v>
@@ -2276,25 +2273,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>520400</v>
+        <v>531300</v>
       </c>
       <c r="E61" s="3">
-        <v>333300</v>
+        <v>375500</v>
       </c>
       <c r="F61" s="3">
-        <v>458700</v>
+        <v>468300</v>
       </c>
       <c r="G61" s="3">
-        <v>238900</v>
+        <v>243900</v>
       </c>
       <c r="H61" s="3">
-        <v>148600</v>
+        <v>151700</v>
       </c>
       <c r="I61" s="3">
-        <v>180800</v>
+        <v>184600</v>
       </c>
       <c r="J61" s="3">
-        <v>149400</v>
+        <v>152600</v>
       </c>
       <c r="K61" s="3">
         <v>122100</v>
@@ -2309,25 +2306,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>102700</v>
+        <v>104900</v>
       </c>
       <c r="E62" s="3">
-        <v>216400</v>
+        <v>114000</v>
       </c>
       <c r="F62" s="3">
-        <v>132900</v>
+        <v>135600</v>
       </c>
       <c r="G62" s="3">
-        <v>104800</v>
+        <v>107000</v>
       </c>
       <c r="H62" s="3">
-        <v>227600</v>
+        <v>232400</v>
       </c>
       <c r="I62" s="3">
-        <v>96400</v>
+        <v>98400</v>
       </c>
       <c r="J62" s="3">
-        <v>109300</v>
+        <v>111600</v>
       </c>
       <c r="K62" s="3">
         <v>101200</v>
@@ -2441,25 +2438,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1897600</v>
+        <v>1937300</v>
       </c>
       <c r="E66" s="3">
-        <v>1758000</v>
+        <v>1794800</v>
       </c>
       <c r="F66" s="3">
-        <v>1752300</v>
+        <v>1788900</v>
       </c>
       <c r="G66" s="3">
-        <v>1575200</v>
+        <v>1608200</v>
       </c>
       <c r="H66" s="3">
-        <v>1455100</v>
+        <v>1485500</v>
       </c>
       <c r="I66" s="3">
-        <v>1472100</v>
+        <v>1502800</v>
       </c>
       <c r="J66" s="3">
-        <v>1367600</v>
+        <v>1396200</v>
       </c>
       <c r="K66" s="3">
         <v>1225600</v>
@@ -2621,25 +2618,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1786600</v>
+        <v>1824000</v>
       </c>
       <c r="E72" s="3">
-        <v>1667400</v>
+        <v>1702200</v>
       </c>
       <c r="F72" s="3">
-        <v>1550600</v>
+        <v>1583000</v>
       </c>
       <c r="G72" s="3">
-        <v>1515900</v>
+        <v>1547600</v>
       </c>
       <c r="H72" s="3">
-        <v>1403700</v>
+        <v>1433000</v>
       </c>
       <c r="I72" s="3">
-        <v>1295200</v>
+        <v>1322300</v>
       </c>
       <c r="J72" s="3">
-        <v>1204300</v>
+        <v>1229500</v>
       </c>
       <c r="K72" s="3">
         <v>1113200</v>
@@ -2753,25 +2750,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2141200</v>
+        <v>2185900</v>
       </c>
       <c r="E76" s="3">
-        <v>2057400</v>
+        <v>2100400</v>
       </c>
       <c r="F76" s="3">
-        <v>2058300</v>
+        <v>2101400</v>
       </c>
       <c r="G76" s="3">
-        <v>1932700</v>
+        <v>1973100</v>
       </c>
       <c r="H76" s="3">
-        <v>1935600</v>
+        <v>1976100</v>
       </c>
       <c r="I76" s="3">
-        <v>1773000</v>
+        <v>1810100</v>
       </c>
       <c r="J76" s="3">
-        <v>1674400</v>
+        <v>1709400</v>
       </c>
       <c r="K76" s="3">
         <v>1545300</v>
@@ -2857,25 +2854,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>170000</v>
+        <v>173700</v>
       </c>
       <c r="E81" s="3">
-        <v>166500</v>
+        <v>170200</v>
       </c>
       <c r="F81" s="3">
-        <v>164500</v>
+        <v>168100</v>
       </c>
       <c r="G81" s="3">
-        <v>155400</v>
+        <v>158800</v>
       </c>
       <c r="H81" s="3">
-        <v>154300</v>
+        <v>157700</v>
       </c>
       <c r="I81" s="3">
-        <v>121500</v>
+        <v>124200</v>
       </c>
       <c r="J81" s="3">
-        <v>114200</v>
+        <v>116700</v>
       </c>
       <c r="K81" s="3">
         <v>111100</v>
@@ -2905,25 +2902,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>171700</v>
+        <v>175500</v>
       </c>
       <c r="E83" s="3">
-        <v>170200</v>
+        <v>174000</v>
       </c>
       <c r="F83" s="3">
-        <v>156400</v>
+        <v>159800</v>
       </c>
       <c r="G83" s="3">
-        <v>167900</v>
+        <v>171600</v>
       </c>
       <c r="H83" s="3">
-        <v>175600</v>
+        <v>179500</v>
       </c>
       <c r="I83" s="3">
-        <v>146800</v>
+        <v>150000</v>
       </c>
       <c r="J83" s="3">
-        <v>132900</v>
+        <v>135800</v>
       </c>
       <c r="K83" s="3">
         <v>127700</v>
@@ -3103,25 +3100,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>399200</v>
+        <v>408000</v>
       </c>
       <c r="E89" s="3">
-        <v>384000</v>
+        <v>392400</v>
       </c>
       <c r="F89" s="3">
-        <v>247600</v>
+        <v>253000</v>
       </c>
       <c r="G89" s="3">
-        <v>411400</v>
+        <v>420400</v>
       </c>
       <c r="H89" s="3">
-        <v>255400</v>
+        <v>261000</v>
       </c>
       <c r="I89" s="3">
-        <v>312600</v>
+        <v>319500</v>
       </c>
       <c r="J89" s="3">
-        <v>248800</v>
+        <v>254300</v>
       </c>
       <c r="K89" s="3">
         <v>300500</v>
@@ -3151,25 +3148,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-226800</v>
+        <v>-231800</v>
       </c>
       <c r="E91" s="3">
-        <v>-265600</v>
+        <v>-271400</v>
       </c>
       <c r="F91" s="3">
-        <v>-231800</v>
+        <v>-236900</v>
       </c>
       <c r="G91" s="3">
-        <v>-283100</v>
+        <v>-289400</v>
       </c>
       <c r="H91" s="3">
-        <v>-273000</v>
+        <v>-279000</v>
       </c>
       <c r="I91" s="3">
-        <v>-256700</v>
+        <v>-262400</v>
       </c>
       <c r="J91" s="3">
-        <v>-231300</v>
+        <v>-236400</v>
       </c>
       <c r="K91" s="3">
         <v>-178500</v>
@@ -3250,25 +3247,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-270200</v>
+        <v>-276100</v>
       </c>
       <c r="E94" s="3">
-        <v>-183600</v>
+        <v>-187600</v>
       </c>
       <c r="F94" s="3">
-        <v>-285600</v>
+        <v>-291900</v>
       </c>
       <c r="G94" s="3">
-        <v>-291300</v>
+        <v>-297700</v>
       </c>
       <c r="H94" s="3">
-        <v>-283400</v>
+        <v>-289700</v>
       </c>
       <c r="I94" s="3">
-        <v>-280400</v>
+        <v>-286600</v>
       </c>
       <c r="J94" s="3">
-        <v>-199000</v>
+        <v>-203400</v>
       </c>
       <c r="K94" s="3">
         <v>-220900</v>
@@ -3298,25 +3295,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-50700</v>
+        <v>-51800</v>
       </c>
       <c r="E96" s="3">
-        <v>-50100</v>
+        <v>-51200</v>
       </c>
       <c r="F96" s="3">
-        <v>-51300</v>
+        <v>-52400</v>
       </c>
       <c r="G96" s="3">
-        <v>-43200</v>
+        <v>-44100</v>
       </c>
       <c r="H96" s="3">
-        <v>-33100</v>
+        <v>-33800</v>
       </c>
       <c r="I96" s="3">
-        <v>-30600</v>
+        <v>-31300</v>
       </c>
       <c r="J96" s="3">
-        <v>-29300</v>
+        <v>-29900</v>
       </c>
       <c r="K96" s="3">
         <v>-25000</v>
@@ -3430,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-41800</v>
+        <v>-42800</v>
       </c>
       <c r="E100" s="3">
-        <v>-139000</v>
+        <v>-142100</v>
       </c>
       <c r="F100" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="G100" s="3">
-        <v>-52800</v>
+        <v>-53900</v>
       </c>
       <c r="H100" s="3">
-        <v>-64500</v>
+        <v>-66000</v>
       </c>
       <c r="I100" s="3">
-        <v>-28600</v>
+        <v>-29300</v>
       </c>
       <c r="J100" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="K100" s="3">
         <v>63500</v>
@@ -3463,25 +3460,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="E101" s="3">
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G101" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,25 +3493,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>80000</v>
+        <v>81800</v>
       </c>
       <c r="E102" s="3">
-        <v>59600</v>
+        <v>60900</v>
       </c>
       <c r="F102" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G102" s="3">
-        <v>54100</v>
+        <v>55300</v>
       </c>
       <c r="H102" s="3">
-        <v>-90400</v>
+        <v>-92400</v>
       </c>
       <c r="I102" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J102" s="3">
-        <v>32500</v>
+        <v>33200</v>
       </c>
       <c r="K102" s="3">
         <v>143500</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5069800</v>
+        <v>5151600</v>
       </c>
       <c r="E8" s="3">
-        <v>5328000</v>
+        <v>5414100</v>
       </c>
       <c r="F8" s="3">
-        <v>5218100</v>
+        <v>5302300</v>
       </c>
       <c r="G8" s="3">
-        <v>5130900</v>
+        <v>5213800</v>
       </c>
       <c r="H8" s="3">
-        <v>5107400</v>
+        <v>5189900</v>
       </c>
       <c r="I8" s="3">
-        <v>5141100</v>
+        <v>5224100</v>
       </c>
       <c r="J8" s="3">
-        <v>4928800</v>
+        <v>5008400</v>
       </c>
       <c r="K8" s="3">
         <v>4565200</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3834400</v>
+        <v>3896300</v>
       </c>
       <c r="E9" s="3">
-        <v>4091100</v>
+        <v>4157200</v>
       </c>
       <c r="F9" s="3">
-        <v>4020500</v>
+        <v>4085400</v>
       </c>
       <c r="G9" s="3">
-        <v>3984000</v>
+        <v>4048300</v>
       </c>
       <c r="H9" s="3">
-        <v>4017800</v>
+        <v>4082700</v>
       </c>
       <c r="I9" s="3">
-        <v>3892900</v>
+        <v>3955800</v>
       </c>
       <c r="J9" s="3">
-        <v>3737200</v>
+        <v>3797600</v>
       </c>
       <c r="K9" s="3">
         <v>3434600</v>
@@ -780,25 +780,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1235400</v>
+        <v>1255400</v>
       </c>
       <c r="E10" s="3">
-        <v>1236900</v>
+        <v>1256900</v>
       </c>
       <c r="F10" s="3">
-        <v>1197600</v>
+        <v>1217000</v>
       </c>
       <c r="G10" s="3">
-        <v>1146900</v>
+        <v>1165400</v>
       </c>
       <c r="H10" s="3">
-        <v>1089600</v>
+        <v>1107200</v>
       </c>
       <c r="I10" s="3">
-        <v>1248200</v>
+        <v>1268400</v>
       </c>
       <c r="J10" s="3">
-        <v>1191600</v>
+        <v>1210800</v>
       </c>
       <c r="K10" s="3">
         <v>1130600</v>
@@ -828,25 +828,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38600</v>
+        <v>39200</v>
       </c>
       <c r="E12" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="F12" s="3">
-        <v>37700</v>
+        <v>38300</v>
       </c>
       <c r="G12" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="H12" s="3">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="I12" s="3">
-        <v>36100</v>
+        <v>36600</v>
       </c>
       <c r="J12" s="3">
-        <v>34000</v>
+        <v>34600</v>
       </c>
       <c r="K12" s="3">
         <v>30900</v>
@@ -894,25 +894,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="E14" s="3">
-        <v>48700</v>
+        <v>49500</v>
       </c>
       <c r="F14" s="3">
-        <v>27800</v>
+        <v>28300</v>
       </c>
       <c r="G14" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="H14" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="I14" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J14" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="K14" s="3">
         <v>10700</v>
@@ -927,25 +927,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="E15" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="F15" s="3">
-        <v>25700</v>
+        <v>26100</v>
       </c>
       <c r="G15" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="H15" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="I15" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="J15" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="K15" s="3">
         <v>15500</v>
@@ -972,25 +972,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4790000</v>
+        <v>4867400</v>
       </c>
       <c r="E17" s="3">
-        <v>5069500</v>
+        <v>5151400</v>
       </c>
       <c r="F17" s="3">
-        <v>4955500</v>
+        <v>5035500</v>
       </c>
       <c r="G17" s="3">
-        <v>4869100</v>
+        <v>4947700</v>
       </c>
       <c r="H17" s="3">
-        <v>4852200</v>
+        <v>4930500</v>
       </c>
       <c r="I17" s="3">
-        <v>4925600</v>
+        <v>5005100</v>
       </c>
       <c r="J17" s="3">
-        <v>4738100</v>
+        <v>4814600</v>
       </c>
       <c r="K17" s="3">
         <v>4364600</v>
@@ -1005,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>279700</v>
+        <v>284200</v>
       </c>
       <c r="E18" s="3">
-        <v>258500</v>
+        <v>262700</v>
       </c>
       <c r="F18" s="3">
-        <v>262600</v>
+        <v>266800</v>
       </c>
       <c r="G18" s="3">
-        <v>261900</v>
+        <v>266100</v>
       </c>
       <c r="H18" s="3">
-        <v>255200</v>
+        <v>259300</v>
       </c>
       <c r="I18" s="3">
-        <v>215600</v>
+        <v>219000</v>
       </c>
       <c r="J18" s="3">
-        <v>190700</v>
+        <v>193800</v>
       </c>
       <c r="K18" s="3">
         <v>200600</v>
@@ -1053,25 +1053,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="E20" s="3">
-        <v>56700</v>
+        <v>57600</v>
       </c>
       <c r="F20" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="G20" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="H20" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="I20" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="J20" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="K20" s="3">
         <v>12600</v>
@@ -1086,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>479900</v>
+        <v>487000</v>
       </c>
       <c r="E21" s="3">
-        <v>489000</v>
+        <v>496300</v>
       </c>
       <c r="F21" s="3">
-        <v>449100</v>
+        <v>455800</v>
       </c>
       <c r="G21" s="3">
-        <v>455700</v>
+        <v>462500</v>
       </c>
       <c r="H21" s="3">
-        <v>447700</v>
+        <v>454400</v>
       </c>
       <c r="I21" s="3">
-        <v>380900</v>
+        <v>386600</v>
       </c>
       <c r="J21" s="3">
-        <v>346200</v>
+        <v>351300</v>
       </c>
       <c r="K21" s="3">
         <v>341000</v>
@@ -1119,7 +1119,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
         <v>3200</v>
@@ -1131,10 +1131,10 @@
         <v>2900</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
         <v>2400</v>
@@ -1152,25 +1152,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>301800</v>
+        <v>306700</v>
       </c>
       <c r="E23" s="3">
-        <v>312000</v>
+        <v>317100</v>
       </c>
       <c r="F23" s="3">
-        <v>286000</v>
+        <v>290600</v>
       </c>
       <c r="G23" s="3">
-        <v>281400</v>
+        <v>285900</v>
       </c>
       <c r="H23" s="3">
-        <v>265500</v>
+        <v>269800</v>
       </c>
       <c r="I23" s="3">
-        <v>228300</v>
+        <v>232000</v>
       </c>
       <c r="J23" s="3">
-        <v>208100</v>
+        <v>211500</v>
       </c>
       <c r="K23" s="3">
         <v>211100</v>
@@ -1185,25 +1185,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>98200</v>
+        <v>99800</v>
       </c>
       <c r="E24" s="3">
-        <v>108900</v>
+        <v>110700</v>
       </c>
       <c r="F24" s="3">
-        <v>85700</v>
+        <v>87100</v>
       </c>
       <c r="G24" s="3">
-        <v>95300</v>
+        <v>96800</v>
       </c>
       <c r="H24" s="3">
-        <v>82500</v>
+        <v>83800</v>
       </c>
       <c r="I24" s="3">
-        <v>84800</v>
+        <v>86200</v>
       </c>
       <c r="J24" s="3">
-        <v>71200</v>
+        <v>72300</v>
       </c>
       <c r="K24" s="3">
         <v>80600</v>
@@ -1251,25 +1251,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>203600</v>
+        <v>206900</v>
       </c>
       <c r="E26" s="3">
-        <v>203100</v>
+        <v>206400</v>
       </c>
       <c r="F26" s="3">
-        <v>200300</v>
+        <v>203500</v>
       </c>
       <c r="G26" s="3">
-        <v>186100</v>
+        <v>189100</v>
       </c>
       <c r="H26" s="3">
-        <v>183000</v>
+        <v>185900</v>
       </c>
       <c r="I26" s="3">
-        <v>143500</v>
+        <v>145800</v>
       </c>
       <c r="J26" s="3">
-        <v>137000</v>
+        <v>139200</v>
       </c>
       <c r="K26" s="3">
         <v>130500</v>
@@ -1284,25 +1284,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>173700</v>
+        <v>176500</v>
       </c>
       <c r="E27" s="3">
-        <v>170200</v>
+        <v>172900</v>
       </c>
       <c r="F27" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="G27" s="3">
-        <v>158800</v>
+        <v>161400</v>
       </c>
       <c r="H27" s="3">
-        <v>157700</v>
+        <v>160200</v>
       </c>
       <c r="I27" s="3">
-        <v>124200</v>
+        <v>126200</v>
       </c>
       <c r="J27" s="3">
-        <v>116700</v>
+        <v>118600</v>
       </c>
       <c r="K27" s="3">
         <v>111100</v>
@@ -1449,25 +1449,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-24800</v>
+        <v>-25200</v>
       </c>
       <c r="E32" s="3">
-        <v>-56700</v>
+        <v>-57600</v>
       </c>
       <c r="F32" s="3">
-        <v>-26900</v>
+        <v>-27300</v>
       </c>
       <c r="G32" s="3">
-        <v>-22400</v>
+        <v>-22800</v>
       </c>
       <c r="H32" s="3">
-        <v>-13200</v>
+        <v>-13400</v>
       </c>
       <c r="I32" s="3">
-        <v>-15500</v>
+        <v>-15700</v>
       </c>
       <c r="J32" s="3">
-        <v>-19900</v>
+        <v>-20200</v>
       </c>
       <c r="K32" s="3">
         <v>-12600</v>
@@ -1482,25 +1482,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>173700</v>
+        <v>176500</v>
       </c>
       <c r="E33" s="3">
-        <v>170200</v>
+        <v>172900</v>
       </c>
       <c r="F33" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="G33" s="3">
-        <v>158800</v>
+        <v>161400</v>
       </c>
       <c r="H33" s="3">
-        <v>157700</v>
+        <v>160200</v>
       </c>
       <c r="I33" s="3">
-        <v>124200</v>
+        <v>126200</v>
       </c>
       <c r="J33" s="3">
-        <v>116700</v>
+        <v>118600</v>
       </c>
       <c r="K33" s="3">
         <v>111100</v>
@@ -1548,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>173700</v>
+        <v>176500</v>
       </c>
       <c r="E35" s="3">
-        <v>170200</v>
+        <v>172900</v>
       </c>
       <c r="F35" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="G35" s="3">
-        <v>158800</v>
+        <v>161400</v>
       </c>
       <c r="H35" s="3">
-        <v>157700</v>
+        <v>160200</v>
       </c>
       <c r="I35" s="3">
-        <v>124200</v>
+        <v>126200</v>
       </c>
       <c r="J35" s="3">
-        <v>116700</v>
+        <v>118600</v>
       </c>
       <c r="K35" s="3">
         <v>111100</v>
@@ -1649,25 +1649,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>434100</v>
+        <v>441600</v>
       </c>
       <c r="E41" s="3">
-        <v>357200</v>
+        <v>363400</v>
       </c>
       <c r="F41" s="3">
-        <v>274900</v>
+        <v>279600</v>
       </c>
       <c r="G41" s="3">
-        <v>332200</v>
+        <v>337900</v>
       </c>
       <c r="H41" s="3">
-        <v>277000</v>
+        <v>281700</v>
       </c>
       <c r="I41" s="3">
-        <v>323100</v>
+        <v>328700</v>
       </c>
       <c r="J41" s="3">
-        <v>315200</v>
+        <v>320600</v>
       </c>
       <c r="K41" s="3">
         <v>301900</v>
@@ -1682,25 +1682,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>92800</v>
+        <v>94400</v>
       </c>
       <c r="E42" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="F42" s="3">
-        <v>111400</v>
+        <v>113300</v>
       </c>
       <c r="G42" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="H42" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="I42" s="3">
-        <v>92800</v>
+        <v>94400</v>
       </c>
       <c r="J42" s="3">
-        <v>92800</v>
+        <v>94400</v>
       </c>
       <c r="K42" s="3">
         <v>90400</v>
@@ -1715,25 +1715,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>772300</v>
+        <v>785600</v>
       </c>
       <c r="E43" s="3">
-        <v>710700</v>
+        <v>723000</v>
       </c>
       <c r="F43" s="3">
-        <v>723700</v>
+        <v>736200</v>
       </c>
       <c r="G43" s="3">
-        <v>695600</v>
+        <v>707600</v>
       </c>
       <c r="H43" s="3">
-        <v>723600</v>
+        <v>736100</v>
       </c>
       <c r="I43" s="3">
-        <v>754400</v>
+        <v>767400</v>
       </c>
       <c r="J43" s="3">
-        <v>716600</v>
+        <v>728900</v>
       </c>
       <c r="K43" s="3">
         <v>601400</v>
@@ -1748,25 +1748,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>267600</v>
+        <v>272200</v>
       </c>
       <c r="E44" s="3">
-        <v>262200</v>
+        <v>266700</v>
       </c>
       <c r="F44" s="3">
-        <v>266400</v>
+        <v>271000</v>
       </c>
       <c r="G44" s="3">
-        <v>240100</v>
+        <v>244200</v>
       </c>
       <c r="H44" s="3">
-        <v>263600</v>
+        <v>268100</v>
       </c>
       <c r="I44" s="3">
-        <v>213000</v>
+        <v>216600</v>
       </c>
       <c r="J44" s="3">
-        <v>179200</v>
+        <v>182200</v>
       </c>
       <c r="K44" s="3">
         <v>161900</v>
@@ -1781,25 +1781,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>55200</v>
+        <v>56200</v>
       </c>
       <c r="E45" s="3">
-        <v>79700</v>
+        <v>81100</v>
       </c>
       <c r="F45" s="3">
-        <v>74400</v>
+        <v>75700</v>
       </c>
       <c r="G45" s="3">
-        <v>79200</v>
+        <v>80600</v>
       </c>
       <c r="H45" s="3">
-        <v>92700</v>
+        <v>94300</v>
       </c>
       <c r="I45" s="3">
-        <v>51400</v>
+        <v>52300</v>
       </c>
       <c r="J45" s="3">
-        <v>55200</v>
+        <v>56100</v>
       </c>
       <c r="K45" s="3">
         <v>46900</v>
@@ -1814,25 +1814,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1622100</v>
+        <v>1650000</v>
       </c>
       <c r="E46" s="3">
-        <v>1470000</v>
+        <v>1495300</v>
       </c>
       <c r="F46" s="3">
-        <v>1450800</v>
+        <v>1475800</v>
       </c>
       <c r="G46" s="3">
-        <v>1393500</v>
+        <v>1417500</v>
       </c>
       <c r="H46" s="3">
-        <v>1378200</v>
+        <v>1402000</v>
       </c>
       <c r="I46" s="3">
-        <v>1434600</v>
+        <v>1459400</v>
       </c>
       <c r="J46" s="3">
-        <v>1358900</v>
+        <v>1382300</v>
       </c>
       <c r="K46" s="3">
         <v>1202500</v>
@@ -1847,25 +1847,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>266700</v>
+        <v>271300</v>
       </c>
       <c r="E47" s="3">
-        <v>289100</v>
+        <v>294100</v>
       </c>
       <c r="F47" s="3">
-        <v>330500</v>
+        <v>336200</v>
       </c>
       <c r="G47" s="3">
-        <v>263800</v>
+        <v>268400</v>
       </c>
       <c r="H47" s="3">
-        <v>537100</v>
+        <v>546300</v>
       </c>
       <c r="I47" s="3">
-        <v>252800</v>
+        <v>257100</v>
       </c>
       <c r="J47" s="3">
-        <v>225200</v>
+        <v>229000</v>
       </c>
       <c r="K47" s="3">
         <v>188100</v>
@@ -1880,25 +1880,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1925200</v>
+        <v>1958400</v>
       </c>
       <c r="E48" s="3">
-        <v>1845400</v>
+        <v>1877200</v>
       </c>
       <c r="F48" s="3">
-        <v>1807200</v>
+        <v>1838400</v>
       </c>
       <c r="G48" s="3">
-        <v>1701700</v>
+        <v>1731100</v>
       </c>
       <c r="H48" s="3">
-        <v>1592400</v>
+        <v>1619900</v>
       </c>
       <c r="I48" s="3">
-        <v>1424900</v>
+        <v>1449500</v>
       </c>
       <c r="J48" s="3">
-        <v>1260500</v>
+        <v>1282200</v>
       </c>
       <c r="K48" s="3">
         <v>1126200</v>
@@ -1913,25 +1913,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>92100</v>
+        <v>93700</v>
       </c>
       <c r="E49" s="3">
-        <v>58400</v>
+        <v>59400</v>
       </c>
       <c r="F49" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="G49" s="3">
-        <v>52700</v>
+        <v>53600</v>
       </c>
       <c r="H49" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="I49" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="J49" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="K49" s="3">
         <v>21700</v>
@@ -2012,25 +2012,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>217100</v>
+        <v>220900</v>
       </c>
       <c r="E52" s="3">
-        <v>372800</v>
+        <v>379200</v>
       </c>
       <c r="F52" s="3">
-        <v>224100</v>
+        <v>228000</v>
       </c>
       <c r="G52" s="3">
-        <v>169500</v>
+        <v>172500</v>
       </c>
       <c r="H52" s="3">
-        <v>317800</v>
+        <v>323300</v>
       </c>
       <c r="I52" s="3">
-        <v>169100</v>
+        <v>172000</v>
       </c>
       <c r="J52" s="3">
-        <v>236300</v>
+        <v>240400</v>
       </c>
       <c r="K52" s="3">
         <v>232400</v>
@@ -2078,25 +2078,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4123200</v>
+        <v>4194300</v>
       </c>
       <c r="E54" s="3">
-        <v>3895200</v>
+        <v>3962300</v>
       </c>
       <c r="F54" s="3">
-        <v>3890200</v>
+        <v>3957300</v>
       </c>
       <c r="G54" s="3">
-        <v>3581300</v>
+        <v>3643000</v>
       </c>
       <c r="H54" s="3">
-        <v>3461600</v>
+        <v>3521300</v>
       </c>
       <c r="I54" s="3">
-        <v>3312900</v>
+        <v>3370000</v>
       </c>
       <c r="J54" s="3">
-        <v>3105600</v>
+        <v>3159100</v>
       </c>
       <c r="K54" s="3">
         <v>2770900</v>
@@ -2141,25 +2141,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>494600</v>
+        <v>503100</v>
       </c>
       <c r="E57" s="3">
-        <v>413100</v>
+        <v>420200</v>
       </c>
       <c r="F57" s="3">
-        <v>445500</v>
+        <v>453200</v>
       </c>
       <c r="G57" s="3">
-        <v>436600</v>
+        <v>444200</v>
       </c>
       <c r="H57" s="3">
-        <v>419400</v>
+        <v>426600</v>
       </c>
       <c r="I57" s="3">
-        <v>499000</v>
+        <v>507600</v>
       </c>
       <c r="J57" s="3">
-        <v>471300</v>
+        <v>479400</v>
       </c>
       <c r="K57" s="3">
         <v>377100</v>
@@ -2174,25 +2174,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>67900</v>
+        <v>69100</v>
       </c>
       <c r="E58" s="3">
-        <v>273700</v>
+        <v>278500</v>
       </c>
       <c r="F58" s="3">
-        <v>74600</v>
+        <v>75900</v>
       </c>
       <c r="G58" s="3">
-        <v>77000</v>
+        <v>78400</v>
       </c>
       <c r="H58" s="3">
-        <v>181700</v>
+        <v>184900</v>
       </c>
       <c r="I58" s="3">
-        <v>85500</v>
+        <v>87000</v>
       </c>
       <c r="J58" s="3">
-        <v>87600</v>
+        <v>89100</v>
       </c>
       <c r="K58" s="3">
         <v>83000</v>
@@ -2207,25 +2207,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>356200</v>
+        <v>362400</v>
       </c>
       <c r="E59" s="3">
-        <v>369600</v>
+        <v>376000</v>
       </c>
       <c r="F59" s="3">
-        <v>321600</v>
+        <v>327100</v>
       </c>
       <c r="G59" s="3">
-        <v>435200</v>
+        <v>442700</v>
       </c>
       <c r="H59" s="3">
-        <v>686700</v>
+        <v>698500</v>
       </c>
       <c r="I59" s="3">
-        <v>400000</v>
+        <v>406900</v>
       </c>
       <c r="J59" s="3">
-        <v>331100</v>
+        <v>336800</v>
       </c>
       <c r="K59" s="3">
         <v>316300</v>
@@ -2240,25 +2240,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>918800</v>
+        <v>934600</v>
       </c>
       <c r="E60" s="3">
-        <v>936200</v>
+        <v>952400</v>
       </c>
       <c r="F60" s="3">
-        <v>841700</v>
+        <v>856200</v>
       </c>
       <c r="G60" s="3">
-        <v>948800</v>
+        <v>965200</v>
       </c>
       <c r="H60" s="3">
-        <v>880400</v>
+        <v>895600</v>
       </c>
       <c r="I60" s="3">
-        <v>984600</v>
+        <v>1001600</v>
       </c>
       <c r="J60" s="3">
-        <v>890000</v>
+        <v>905300</v>
       </c>
       <c r="K60" s="3">
         <v>776400</v>
@@ -2273,25 +2273,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>531300</v>
+        <v>540400</v>
       </c>
       <c r="E61" s="3">
-        <v>375500</v>
+        <v>382000</v>
       </c>
       <c r="F61" s="3">
-        <v>468300</v>
+        <v>476400</v>
       </c>
       <c r="G61" s="3">
-        <v>243900</v>
+        <v>248100</v>
       </c>
       <c r="H61" s="3">
-        <v>151700</v>
+        <v>154300</v>
       </c>
       <c r="I61" s="3">
-        <v>184600</v>
+        <v>187800</v>
       </c>
       <c r="J61" s="3">
-        <v>152600</v>
+        <v>155200</v>
       </c>
       <c r="K61" s="3">
         <v>122100</v>
@@ -2306,25 +2306,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>104900</v>
+        <v>106700</v>
       </c>
       <c r="E62" s="3">
-        <v>114000</v>
+        <v>115900</v>
       </c>
       <c r="F62" s="3">
-        <v>135600</v>
+        <v>138000</v>
       </c>
       <c r="G62" s="3">
-        <v>107000</v>
+        <v>108800</v>
       </c>
       <c r="H62" s="3">
-        <v>232400</v>
+        <v>236400</v>
       </c>
       <c r="I62" s="3">
-        <v>98400</v>
+        <v>100100</v>
       </c>
       <c r="J62" s="3">
-        <v>111600</v>
+        <v>113600</v>
       </c>
       <c r="K62" s="3">
         <v>101200</v>
@@ -2438,25 +2438,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1937300</v>
+        <v>1970700</v>
       </c>
       <c r="E66" s="3">
-        <v>1794800</v>
+        <v>1825700</v>
       </c>
       <c r="F66" s="3">
-        <v>1788900</v>
+        <v>1819700</v>
       </c>
       <c r="G66" s="3">
-        <v>1608200</v>
+        <v>1635900</v>
       </c>
       <c r="H66" s="3">
-        <v>1485500</v>
+        <v>1511200</v>
       </c>
       <c r="I66" s="3">
-        <v>1502800</v>
+        <v>1528700</v>
       </c>
       <c r="J66" s="3">
-        <v>1396200</v>
+        <v>1420200</v>
       </c>
       <c r="K66" s="3">
         <v>1225600</v>
@@ -2618,25 +2618,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1824000</v>
+        <v>1855400</v>
       </c>
       <c r="E72" s="3">
-        <v>1702200</v>
+        <v>1731600</v>
       </c>
       <c r="F72" s="3">
-        <v>1583000</v>
+        <v>1610300</v>
       </c>
       <c r="G72" s="3">
-        <v>1547600</v>
+        <v>1574300</v>
       </c>
       <c r="H72" s="3">
-        <v>1433000</v>
+        <v>1457700</v>
       </c>
       <c r="I72" s="3">
-        <v>1322300</v>
+        <v>1345100</v>
       </c>
       <c r="J72" s="3">
-        <v>1229500</v>
+        <v>1250700</v>
       </c>
       <c r="K72" s="3">
         <v>1113200</v>
@@ -2750,25 +2750,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2185900</v>
+        <v>2223600</v>
       </c>
       <c r="E76" s="3">
-        <v>2100400</v>
+        <v>2136600</v>
       </c>
       <c r="F76" s="3">
-        <v>2101400</v>
+        <v>2137600</v>
       </c>
       <c r="G76" s="3">
-        <v>1973100</v>
+        <v>2007100</v>
       </c>
       <c r="H76" s="3">
-        <v>1976100</v>
+        <v>2010100</v>
       </c>
       <c r="I76" s="3">
-        <v>1810100</v>
+        <v>1841300</v>
       </c>
       <c r="J76" s="3">
-        <v>1709400</v>
+        <v>1738900</v>
       </c>
       <c r="K76" s="3">
         <v>1545300</v>
@@ -2854,25 +2854,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>173700</v>
+        <v>176500</v>
       </c>
       <c r="E81" s="3">
-        <v>170200</v>
+        <v>172900</v>
       </c>
       <c r="F81" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="G81" s="3">
-        <v>158800</v>
+        <v>161400</v>
       </c>
       <c r="H81" s="3">
-        <v>157700</v>
+        <v>160200</v>
       </c>
       <c r="I81" s="3">
-        <v>124200</v>
+        <v>126200</v>
       </c>
       <c r="J81" s="3">
-        <v>116700</v>
+        <v>118600</v>
       </c>
       <c r="K81" s="3">
         <v>111100</v>
@@ -2902,25 +2902,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>175500</v>
+        <v>178300</v>
       </c>
       <c r="E83" s="3">
-        <v>174000</v>
+        <v>176800</v>
       </c>
       <c r="F83" s="3">
-        <v>159800</v>
+        <v>162400</v>
       </c>
       <c r="G83" s="3">
-        <v>171600</v>
+        <v>174400</v>
       </c>
       <c r="H83" s="3">
-        <v>179500</v>
+        <v>182400</v>
       </c>
       <c r="I83" s="3">
-        <v>150000</v>
+        <v>152400</v>
       </c>
       <c r="J83" s="3">
-        <v>135800</v>
+        <v>138000</v>
       </c>
       <c r="K83" s="3">
         <v>127700</v>
@@ -3100,25 +3100,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>408000</v>
+        <v>414500</v>
       </c>
       <c r="E89" s="3">
-        <v>392400</v>
+        <v>398800</v>
       </c>
       <c r="F89" s="3">
-        <v>253000</v>
+        <v>257100</v>
       </c>
       <c r="G89" s="3">
-        <v>420400</v>
+        <v>427200</v>
       </c>
       <c r="H89" s="3">
-        <v>261000</v>
+        <v>265300</v>
       </c>
       <c r="I89" s="3">
-        <v>319500</v>
+        <v>324700</v>
       </c>
       <c r="J89" s="3">
-        <v>254300</v>
+        <v>258400</v>
       </c>
       <c r="K89" s="3">
         <v>300500</v>
@@ -3148,25 +3148,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-231800</v>
+        <v>-235500</v>
       </c>
       <c r="E91" s="3">
-        <v>-271400</v>
+        <v>-275800</v>
       </c>
       <c r="F91" s="3">
-        <v>-236900</v>
+        <v>-240700</v>
       </c>
       <c r="G91" s="3">
-        <v>-289400</v>
+        <v>-294000</v>
       </c>
       <c r="H91" s="3">
-        <v>-279000</v>
+        <v>-283500</v>
       </c>
       <c r="I91" s="3">
-        <v>-262400</v>
+        <v>-266600</v>
       </c>
       <c r="J91" s="3">
-        <v>-236400</v>
+        <v>-240200</v>
       </c>
       <c r="K91" s="3">
         <v>-178500</v>
@@ -3247,25 +3247,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-276100</v>
+        <v>-280600</v>
       </c>
       <c r="E94" s="3">
-        <v>-187600</v>
+        <v>-190700</v>
       </c>
       <c r="F94" s="3">
-        <v>-291900</v>
+        <v>-296600</v>
       </c>
       <c r="G94" s="3">
-        <v>-297700</v>
+        <v>-302500</v>
       </c>
       <c r="H94" s="3">
-        <v>-289700</v>
+        <v>-294300</v>
       </c>
       <c r="I94" s="3">
-        <v>-286600</v>
+        <v>-291200</v>
       </c>
       <c r="J94" s="3">
-        <v>-203400</v>
+        <v>-206700</v>
       </c>
       <c r="K94" s="3">
         <v>-220900</v>
@@ -3295,25 +3295,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-51800</v>
+        <v>-52700</v>
       </c>
       <c r="E96" s="3">
-        <v>-51200</v>
+        <v>-52100</v>
       </c>
       <c r="F96" s="3">
-        <v>-52400</v>
+        <v>-53200</v>
       </c>
       <c r="G96" s="3">
-        <v>-44100</v>
+        <v>-44800</v>
       </c>
       <c r="H96" s="3">
-        <v>-33800</v>
+        <v>-34400</v>
       </c>
       <c r="I96" s="3">
-        <v>-31300</v>
+        <v>-31800</v>
       </c>
       <c r="J96" s="3">
-        <v>-29900</v>
+        <v>-30400</v>
       </c>
       <c r="K96" s="3">
         <v>-25000</v>
@@ -3427,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-42800</v>
+        <v>-43400</v>
       </c>
       <c r="E100" s="3">
-        <v>-142100</v>
+        <v>-144400</v>
       </c>
       <c r="F100" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="G100" s="3">
-        <v>-53900</v>
+        <v>-54800</v>
       </c>
       <c r="H100" s="3">
-        <v>-66000</v>
+        <v>-67000</v>
       </c>
       <c r="I100" s="3">
-        <v>-29300</v>
+        <v>-29700</v>
       </c>
       <c r="J100" s="3">
-        <v>-21400</v>
+        <v>-21800</v>
       </c>
       <c r="K100" s="3">
         <v>63500</v>
@@ -3460,16 +3460,16 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="E101" s="3">
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="H101" s="3">
         <v>2200</v>
@@ -3478,7 +3478,7 @@
         <v>4000</v>
       </c>
       <c r="J101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3493,25 +3493,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>81800</v>
+        <v>83100</v>
       </c>
       <c r="E102" s="3">
-        <v>60900</v>
+        <v>61900</v>
       </c>
       <c r="F102" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G102" s="3">
-        <v>55300</v>
+        <v>56200</v>
       </c>
       <c r="H102" s="3">
-        <v>-92400</v>
+        <v>-93900</v>
       </c>
       <c r="I102" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J102" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="K102" s="3">
         <v>143500</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5151600</v>
+        <v>5244400</v>
       </c>
       <c r="E8" s="3">
-        <v>5414100</v>
+        <v>5511600</v>
       </c>
       <c r="F8" s="3">
-        <v>5302300</v>
+        <v>5397800</v>
       </c>
       <c r="G8" s="3">
-        <v>5213800</v>
+        <v>5307700</v>
       </c>
       <c r="H8" s="3">
-        <v>5189900</v>
+        <v>5283300</v>
       </c>
       <c r="I8" s="3">
-        <v>5224100</v>
+        <v>5318200</v>
       </c>
       <c r="J8" s="3">
-        <v>5008400</v>
+        <v>5098600</v>
       </c>
       <c r="K8" s="3">
         <v>4565200</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3896300</v>
+        <v>3966400</v>
       </c>
       <c r="E9" s="3">
-        <v>4157200</v>
+        <v>4232000</v>
       </c>
       <c r="F9" s="3">
-        <v>4085400</v>
+        <v>4158900</v>
       </c>
       <c r="G9" s="3">
-        <v>4048300</v>
+        <v>4121200</v>
       </c>
       <c r="H9" s="3">
-        <v>4082700</v>
+        <v>4156200</v>
       </c>
       <c r="I9" s="3">
-        <v>3955800</v>
+        <v>4027000</v>
       </c>
       <c r="J9" s="3">
-        <v>3797600</v>
+        <v>3865900</v>
       </c>
       <c r="K9" s="3">
         <v>3434600</v>
@@ -780,25 +780,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1255400</v>
+        <v>1278000</v>
       </c>
       <c r="E10" s="3">
-        <v>1256900</v>
+        <v>1279500</v>
       </c>
       <c r="F10" s="3">
-        <v>1217000</v>
+        <v>1238900</v>
       </c>
       <c r="G10" s="3">
-        <v>1165400</v>
+        <v>1186400</v>
       </c>
       <c r="H10" s="3">
-        <v>1107200</v>
+        <v>1127100</v>
       </c>
       <c r="I10" s="3">
-        <v>1268400</v>
+        <v>1291200</v>
       </c>
       <c r="J10" s="3">
-        <v>1210800</v>
+        <v>1232600</v>
       </c>
       <c r="K10" s="3">
         <v>1130600</v>
@@ -828,25 +828,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="E12" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="F12" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="G12" s="3">
-        <v>38000</v>
+        <v>38700</v>
       </c>
       <c r="H12" s="3">
-        <v>39700</v>
+        <v>40400</v>
       </c>
       <c r="I12" s="3">
-        <v>36600</v>
+        <v>37300</v>
       </c>
       <c r="J12" s="3">
-        <v>34600</v>
+        <v>35200</v>
       </c>
       <c r="K12" s="3">
         <v>30900</v>
@@ -894,25 +894,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="E14" s="3">
-        <v>49500</v>
+        <v>50400</v>
       </c>
       <c r="F14" s="3">
-        <v>28300</v>
+        <v>28800</v>
       </c>
       <c r="G14" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H14" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="I14" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="J14" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="K14" s="3">
         <v>10700</v>
@@ -927,25 +927,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>27300</v>
+        <v>27800</v>
       </c>
       <c r="E15" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="F15" s="3">
-        <v>26100</v>
+        <v>26600</v>
       </c>
       <c r="G15" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="H15" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="I15" s="3">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="J15" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="K15" s="3">
         <v>15500</v>
@@ -972,25 +972,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4867400</v>
+        <v>4955000</v>
       </c>
       <c r="E17" s="3">
-        <v>5151400</v>
+        <v>5244200</v>
       </c>
       <c r="F17" s="3">
-        <v>5035500</v>
+        <v>5126200</v>
       </c>
       <c r="G17" s="3">
-        <v>4947700</v>
+        <v>5036800</v>
       </c>
       <c r="H17" s="3">
-        <v>4930500</v>
+        <v>5019300</v>
       </c>
       <c r="I17" s="3">
-        <v>5005100</v>
+        <v>5095200</v>
       </c>
       <c r="J17" s="3">
-        <v>4814600</v>
+        <v>4901300</v>
       </c>
       <c r="K17" s="3">
         <v>4364600</v>
@@ -1005,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>284200</v>
+        <v>289400</v>
       </c>
       <c r="E18" s="3">
-        <v>262700</v>
+        <v>267400</v>
       </c>
       <c r="F18" s="3">
-        <v>266800</v>
+        <v>271600</v>
       </c>
       <c r="G18" s="3">
-        <v>266100</v>
+        <v>270900</v>
       </c>
       <c r="H18" s="3">
-        <v>259300</v>
+        <v>264000</v>
       </c>
       <c r="I18" s="3">
-        <v>219000</v>
+        <v>223000</v>
       </c>
       <c r="J18" s="3">
-        <v>193800</v>
+        <v>197200</v>
       </c>
       <c r="K18" s="3">
         <v>200600</v>
@@ -1053,25 +1053,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="E20" s="3">
-        <v>57600</v>
+        <v>58600</v>
       </c>
       <c r="F20" s="3">
-        <v>27300</v>
+        <v>27800</v>
       </c>
       <c r="G20" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="H20" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="I20" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="J20" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="K20" s="3">
         <v>12600</v>
@@ -1086,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>487000</v>
+        <v>496200</v>
       </c>
       <c r="E21" s="3">
-        <v>496300</v>
+        <v>505600</v>
       </c>
       <c r="F21" s="3">
-        <v>455800</v>
+        <v>464400</v>
       </c>
       <c r="G21" s="3">
-        <v>462500</v>
+        <v>471300</v>
       </c>
       <c r="H21" s="3">
-        <v>454400</v>
+        <v>462900</v>
       </c>
       <c r="I21" s="3">
-        <v>386600</v>
+        <v>393900</v>
       </c>
       <c r="J21" s="3">
-        <v>351300</v>
+        <v>358000</v>
       </c>
       <c r="K21" s="3">
         <v>341000</v>
@@ -1122,13 +1122,13 @@
         <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H22" s="3">
         <v>3000</v>
@@ -1137,7 +1137,7 @@
         <v>2800</v>
       </c>
       <c r="J22" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1152,25 +1152,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>306700</v>
+        <v>312200</v>
       </c>
       <c r="E23" s="3">
-        <v>317100</v>
+        <v>322800</v>
       </c>
       <c r="F23" s="3">
-        <v>290600</v>
+        <v>295800</v>
       </c>
       <c r="G23" s="3">
-        <v>285900</v>
+        <v>291100</v>
       </c>
       <c r="H23" s="3">
-        <v>269800</v>
+        <v>274600</v>
       </c>
       <c r="I23" s="3">
-        <v>232000</v>
+        <v>236200</v>
       </c>
       <c r="J23" s="3">
-        <v>211500</v>
+        <v>215300</v>
       </c>
       <c r="K23" s="3">
         <v>211100</v>
@@ -1185,25 +1185,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>99800</v>
+        <v>101600</v>
       </c>
       <c r="E24" s="3">
-        <v>110700</v>
+        <v>112600</v>
       </c>
       <c r="F24" s="3">
-        <v>87100</v>
+        <v>88600</v>
       </c>
       <c r="G24" s="3">
-        <v>96800</v>
+        <v>98600</v>
       </c>
       <c r="H24" s="3">
-        <v>83800</v>
+        <v>85300</v>
       </c>
       <c r="I24" s="3">
-        <v>86200</v>
+        <v>87700</v>
       </c>
       <c r="J24" s="3">
-        <v>72300</v>
+        <v>73600</v>
       </c>
       <c r="K24" s="3">
         <v>80600</v>
@@ -1251,25 +1251,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>206900</v>
+        <v>210600</v>
       </c>
       <c r="E26" s="3">
-        <v>206400</v>
+        <v>210100</v>
       </c>
       <c r="F26" s="3">
-        <v>203500</v>
+        <v>207200</v>
       </c>
       <c r="G26" s="3">
-        <v>189100</v>
+        <v>192500</v>
       </c>
       <c r="H26" s="3">
-        <v>185900</v>
+        <v>189300</v>
       </c>
       <c r="I26" s="3">
-        <v>145800</v>
+        <v>148400</v>
       </c>
       <c r="J26" s="3">
-        <v>139200</v>
+        <v>141700</v>
       </c>
       <c r="K26" s="3">
         <v>130500</v>
@@ -1284,25 +1284,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>176500</v>
+        <v>179700</v>
       </c>
       <c r="E27" s="3">
-        <v>172900</v>
+        <v>176100</v>
       </c>
       <c r="F27" s="3">
-        <v>170900</v>
+        <v>173900</v>
       </c>
       <c r="G27" s="3">
-        <v>161400</v>
+        <v>164300</v>
       </c>
       <c r="H27" s="3">
-        <v>160200</v>
+        <v>163100</v>
       </c>
       <c r="I27" s="3">
-        <v>126200</v>
+        <v>128400</v>
       </c>
       <c r="J27" s="3">
-        <v>118600</v>
+        <v>120800</v>
       </c>
       <c r="K27" s="3">
         <v>111100</v>
@@ -1449,25 +1449,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="E32" s="3">
-        <v>-57600</v>
+        <v>-58600</v>
       </c>
       <c r="F32" s="3">
-        <v>-27300</v>
+        <v>-27800</v>
       </c>
       <c r="G32" s="3">
-        <v>-22800</v>
+        <v>-23200</v>
       </c>
       <c r="H32" s="3">
-        <v>-13400</v>
+        <v>-13600</v>
       </c>
       <c r="I32" s="3">
-        <v>-15700</v>
+        <v>-16000</v>
       </c>
       <c r="J32" s="3">
-        <v>-20200</v>
+        <v>-20600</v>
       </c>
       <c r="K32" s="3">
         <v>-12600</v>
@@ -1482,25 +1482,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>176500</v>
+        <v>179700</v>
       </c>
       <c r="E33" s="3">
-        <v>172900</v>
+        <v>176100</v>
       </c>
       <c r="F33" s="3">
-        <v>170900</v>
+        <v>173900</v>
       </c>
       <c r="G33" s="3">
-        <v>161400</v>
+        <v>164300</v>
       </c>
       <c r="H33" s="3">
-        <v>160200</v>
+        <v>163100</v>
       </c>
       <c r="I33" s="3">
-        <v>126200</v>
+        <v>128400</v>
       </c>
       <c r="J33" s="3">
-        <v>118600</v>
+        <v>120800</v>
       </c>
       <c r="K33" s="3">
         <v>111100</v>
@@ -1548,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>176500</v>
+        <v>179700</v>
       </c>
       <c r="E35" s="3">
-        <v>172900</v>
+        <v>176100</v>
       </c>
       <c r="F35" s="3">
-        <v>170900</v>
+        <v>173900</v>
       </c>
       <c r="G35" s="3">
-        <v>161400</v>
+        <v>164300</v>
       </c>
       <c r="H35" s="3">
-        <v>160200</v>
+        <v>163100</v>
       </c>
       <c r="I35" s="3">
-        <v>126200</v>
+        <v>128400</v>
       </c>
       <c r="J35" s="3">
-        <v>118600</v>
+        <v>120800</v>
       </c>
       <c r="K35" s="3">
         <v>111100</v>
@@ -1649,25 +1649,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>441600</v>
+        <v>449500</v>
       </c>
       <c r="E41" s="3">
-        <v>363400</v>
+        <v>369900</v>
       </c>
       <c r="F41" s="3">
-        <v>279600</v>
+        <v>284600</v>
       </c>
       <c r="G41" s="3">
-        <v>337900</v>
+        <v>344000</v>
       </c>
       <c r="H41" s="3">
-        <v>281700</v>
+        <v>286800</v>
       </c>
       <c r="I41" s="3">
-        <v>328700</v>
+        <v>334600</v>
       </c>
       <c r="J41" s="3">
-        <v>320600</v>
+        <v>326400</v>
       </c>
       <c r="K41" s="3">
         <v>301900</v>
@@ -1682,25 +1682,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="E42" s="3">
-        <v>89700</v>
+        <v>91300</v>
       </c>
       <c r="F42" s="3">
-        <v>113300</v>
+        <v>115300</v>
       </c>
       <c r="G42" s="3">
-        <v>47200</v>
+        <v>48100</v>
       </c>
       <c r="H42" s="3">
-        <v>47200</v>
+        <v>48100</v>
       </c>
       <c r="I42" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="J42" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="K42" s="3">
         <v>90400</v>
@@ -1715,25 +1715,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>785600</v>
+        <v>799800</v>
       </c>
       <c r="E43" s="3">
-        <v>723000</v>
+        <v>736000</v>
       </c>
       <c r="F43" s="3">
-        <v>736200</v>
+        <v>749500</v>
       </c>
       <c r="G43" s="3">
-        <v>707600</v>
+        <v>720400</v>
       </c>
       <c r="H43" s="3">
-        <v>736100</v>
+        <v>749300</v>
       </c>
       <c r="I43" s="3">
-        <v>767400</v>
+        <v>781200</v>
       </c>
       <c r="J43" s="3">
-        <v>728900</v>
+        <v>742100</v>
       </c>
       <c r="K43" s="3">
         <v>601400</v>
@@ -1748,25 +1748,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>272200</v>
+        <v>277100</v>
       </c>
       <c r="E44" s="3">
-        <v>266700</v>
+        <v>271500</v>
       </c>
       <c r="F44" s="3">
-        <v>271000</v>
+        <v>275800</v>
       </c>
       <c r="G44" s="3">
-        <v>244200</v>
+        <v>248600</v>
       </c>
       <c r="H44" s="3">
-        <v>268100</v>
+        <v>273000</v>
       </c>
       <c r="I44" s="3">
-        <v>216600</v>
+        <v>220500</v>
       </c>
       <c r="J44" s="3">
-        <v>182200</v>
+        <v>185500</v>
       </c>
       <c r="K44" s="3">
         <v>161900</v>
@@ -1781,25 +1781,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="E45" s="3">
-        <v>81100</v>
+        <v>82600</v>
       </c>
       <c r="F45" s="3">
-        <v>75700</v>
+        <v>77100</v>
       </c>
       <c r="G45" s="3">
-        <v>80600</v>
+        <v>82000</v>
       </c>
       <c r="H45" s="3">
-        <v>94300</v>
+        <v>96000</v>
       </c>
       <c r="I45" s="3">
-        <v>52300</v>
+        <v>53200</v>
       </c>
       <c r="J45" s="3">
-        <v>56100</v>
+        <v>57100</v>
       </c>
       <c r="K45" s="3">
         <v>46900</v>
@@ -1814,25 +1814,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1650000</v>
+        <v>1679700</v>
       </c>
       <c r="E46" s="3">
-        <v>1495300</v>
+        <v>1522200</v>
       </c>
       <c r="F46" s="3">
-        <v>1475800</v>
+        <v>1502400</v>
       </c>
       <c r="G46" s="3">
-        <v>1417500</v>
+        <v>1443000</v>
       </c>
       <c r="H46" s="3">
-        <v>1402000</v>
+        <v>1427300</v>
       </c>
       <c r="I46" s="3">
-        <v>1459400</v>
+        <v>1485600</v>
       </c>
       <c r="J46" s="3">
-        <v>1382300</v>
+        <v>1407200</v>
       </c>
       <c r="K46" s="3">
         <v>1202500</v>
@@ -1847,25 +1847,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>271300</v>
+        <v>276200</v>
       </c>
       <c r="E47" s="3">
-        <v>294100</v>
+        <v>299400</v>
       </c>
       <c r="F47" s="3">
-        <v>336200</v>
+        <v>342300</v>
       </c>
       <c r="G47" s="3">
-        <v>268400</v>
+        <v>273200</v>
       </c>
       <c r="H47" s="3">
-        <v>546300</v>
+        <v>556200</v>
       </c>
       <c r="I47" s="3">
-        <v>257100</v>
+        <v>261800</v>
       </c>
       <c r="J47" s="3">
-        <v>229000</v>
+        <v>233200</v>
       </c>
       <c r="K47" s="3">
         <v>188100</v>
@@ -1880,25 +1880,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1958400</v>
+        <v>1993700</v>
       </c>
       <c r="E48" s="3">
-        <v>1877200</v>
+        <v>1911000</v>
       </c>
       <c r="F48" s="3">
-        <v>1838400</v>
+        <v>1871500</v>
       </c>
       <c r="G48" s="3">
-        <v>1731100</v>
+        <v>1762300</v>
       </c>
       <c r="H48" s="3">
-        <v>1619900</v>
+        <v>1649100</v>
       </c>
       <c r="I48" s="3">
-        <v>1449500</v>
+        <v>1475600</v>
       </c>
       <c r="J48" s="3">
-        <v>1282200</v>
+        <v>1305300</v>
       </c>
       <c r="K48" s="3">
         <v>1126200</v>
@@ -1913,25 +1913,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>93700</v>
+        <v>95300</v>
       </c>
       <c r="E49" s="3">
-        <v>59400</v>
+        <v>60500</v>
       </c>
       <c r="F49" s="3">
-        <v>78900</v>
+        <v>80300</v>
       </c>
       <c r="G49" s="3">
-        <v>53600</v>
+        <v>54500</v>
       </c>
       <c r="H49" s="3">
-        <v>83400</v>
+        <v>84900</v>
       </c>
       <c r="I49" s="3">
-        <v>32000</v>
+        <v>32600</v>
       </c>
       <c r="J49" s="3">
-        <v>25200</v>
+        <v>25600</v>
       </c>
       <c r="K49" s="3">
         <v>21700</v>
@@ -2012,25 +2012,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>220900</v>
+        <v>224900</v>
       </c>
       <c r="E52" s="3">
-        <v>379200</v>
+        <v>386000</v>
       </c>
       <c r="F52" s="3">
-        <v>228000</v>
+        <v>232100</v>
       </c>
       <c r="G52" s="3">
-        <v>172500</v>
+        <v>175600</v>
       </c>
       <c r="H52" s="3">
-        <v>323300</v>
+        <v>329100</v>
       </c>
       <c r="I52" s="3">
-        <v>172000</v>
+        <v>175100</v>
       </c>
       <c r="J52" s="3">
-        <v>240400</v>
+        <v>244700</v>
       </c>
       <c r="K52" s="3">
         <v>232400</v>
@@ -2078,25 +2078,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4194300</v>
+        <v>4269800</v>
       </c>
       <c r="E54" s="3">
-        <v>3962300</v>
+        <v>4033700</v>
       </c>
       <c r="F54" s="3">
-        <v>3957300</v>
+        <v>4028600</v>
       </c>
       <c r="G54" s="3">
-        <v>3643000</v>
+        <v>3708600</v>
       </c>
       <c r="H54" s="3">
-        <v>3521300</v>
+        <v>3584700</v>
       </c>
       <c r="I54" s="3">
-        <v>3370000</v>
+        <v>3430700</v>
       </c>
       <c r="J54" s="3">
-        <v>3159100</v>
+        <v>3216000</v>
       </c>
       <c r="K54" s="3">
         <v>2770900</v>
@@ -2141,25 +2141,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>503100</v>
+        <v>512200</v>
       </c>
       <c r="E57" s="3">
-        <v>420200</v>
+        <v>427800</v>
       </c>
       <c r="F57" s="3">
-        <v>453200</v>
+        <v>461400</v>
       </c>
       <c r="G57" s="3">
-        <v>444200</v>
+        <v>452200</v>
       </c>
       <c r="H57" s="3">
-        <v>426600</v>
+        <v>434300</v>
       </c>
       <c r="I57" s="3">
-        <v>507600</v>
+        <v>516800</v>
       </c>
       <c r="J57" s="3">
-        <v>479400</v>
+        <v>488100</v>
       </c>
       <c r="K57" s="3">
         <v>377100</v>
@@ -2174,25 +2174,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>69100</v>
+        <v>70400</v>
       </c>
       <c r="E58" s="3">
-        <v>278500</v>
+        <v>283500</v>
       </c>
       <c r="F58" s="3">
-        <v>75900</v>
+        <v>77200</v>
       </c>
       <c r="G58" s="3">
-        <v>78400</v>
+        <v>79800</v>
       </c>
       <c r="H58" s="3">
-        <v>184900</v>
+        <v>188200</v>
       </c>
       <c r="I58" s="3">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="J58" s="3">
-        <v>89100</v>
+        <v>90700</v>
       </c>
       <c r="K58" s="3">
         <v>83000</v>
@@ -2207,25 +2207,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>362400</v>
+        <v>368900</v>
       </c>
       <c r="E59" s="3">
-        <v>376000</v>
+        <v>382700</v>
       </c>
       <c r="F59" s="3">
-        <v>327100</v>
+        <v>333000</v>
       </c>
       <c r="G59" s="3">
-        <v>442700</v>
+        <v>450700</v>
       </c>
       <c r="H59" s="3">
-        <v>698500</v>
+        <v>711100</v>
       </c>
       <c r="I59" s="3">
-        <v>406900</v>
+        <v>414300</v>
       </c>
       <c r="J59" s="3">
-        <v>336800</v>
+        <v>342800</v>
       </c>
       <c r="K59" s="3">
         <v>316300</v>
@@ -2240,25 +2240,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>934600</v>
+        <v>951400</v>
       </c>
       <c r="E60" s="3">
-        <v>952400</v>
+        <v>969500</v>
       </c>
       <c r="F60" s="3">
-        <v>856200</v>
+        <v>871600</v>
       </c>
       <c r="G60" s="3">
-        <v>965200</v>
+        <v>982600</v>
       </c>
       <c r="H60" s="3">
-        <v>895600</v>
+        <v>911700</v>
       </c>
       <c r="I60" s="3">
-        <v>1001600</v>
+        <v>1019600</v>
       </c>
       <c r="J60" s="3">
-        <v>905300</v>
+        <v>921600</v>
       </c>
       <c r="K60" s="3">
         <v>776400</v>
@@ -2273,25 +2273,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>540400</v>
+        <v>550100</v>
       </c>
       <c r="E61" s="3">
-        <v>382000</v>
+        <v>388900</v>
       </c>
       <c r="F61" s="3">
-        <v>476400</v>
+        <v>484900</v>
       </c>
       <c r="G61" s="3">
-        <v>248100</v>
+        <v>252600</v>
       </c>
       <c r="H61" s="3">
-        <v>154300</v>
+        <v>157100</v>
       </c>
       <c r="I61" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="J61" s="3">
-        <v>155200</v>
+        <v>158000</v>
       </c>
       <c r="K61" s="3">
         <v>122100</v>
@@ -2306,25 +2306,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>106700</v>
+        <v>108600</v>
       </c>
       <c r="E62" s="3">
-        <v>115900</v>
+        <v>118000</v>
       </c>
       <c r="F62" s="3">
-        <v>138000</v>
+        <v>140500</v>
       </c>
       <c r="G62" s="3">
-        <v>108800</v>
+        <v>110800</v>
       </c>
       <c r="H62" s="3">
-        <v>236400</v>
+        <v>240700</v>
       </c>
       <c r="I62" s="3">
-        <v>100100</v>
+        <v>101900</v>
       </c>
       <c r="J62" s="3">
-        <v>113600</v>
+        <v>115600</v>
       </c>
       <c r="K62" s="3">
         <v>101200</v>
@@ -2438,25 +2438,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1970700</v>
+        <v>2006200</v>
       </c>
       <c r="E66" s="3">
-        <v>1825700</v>
+        <v>1858600</v>
       </c>
       <c r="F66" s="3">
-        <v>1819700</v>
+        <v>1852500</v>
       </c>
       <c r="G66" s="3">
-        <v>1635900</v>
+        <v>1665300</v>
       </c>
       <c r="H66" s="3">
-        <v>1511200</v>
+        <v>1538400</v>
       </c>
       <c r="I66" s="3">
-        <v>1528700</v>
+        <v>1556300</v>
       </c>
       <c r="J66" s="3">
-        <v>1420200</v>
+        <v>1445800</v>
       </c>
       <c r="K66" s="3">
         <v>1225600</v>
@@ -2618,25 +2618,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1855400</v>
+        <v>1888900</v>
       </c>
       <c r="E72" s="3">
-        <v>1731600</v>
+        <v>1762800</v>
       </c>
       <c r="F72" s="3">
-        <v>1610300</v>
+        <v>1639300</v>
       </c>
       <c r="G72" s="3">
-        <v>1574300</v>
+        <v>1602600</v>
       </c>
       <c r="H72" s="3">
-        <v>1457700</v>
+        <v>1484000</v>
       </c>
       <c r="I72" s="3">
-        <v>1345100</v>
+        <v>1369300</v>
       </c>
       <c r="J72" s="3">
-        <v>1250700</v>
+        <v>1273200</v>
       </c>
       <c r="K72" s="3">
         <v>1113200</v>
@@ -2750,25 +2750,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2223600</v>
+        <v>2263700</v>
       </c>
       <c r="E76" s="3">
-        <v>2136600</v>
+        <v>2175100</v>
       </c>
       <c r="F76" s="3">
-        <v>2137600</v>
+        <v>2176100</v>
       </c>
       <c r="G76" s="3">
-        <v>2007100</v>
+        <v>2043300</v>
       </c>
       <c r="H76" s="3">
-        <v>2010100</v>
+        <v>2046300</v>
       </c>
       <c r="I76" s="3">
-        <v>1841300</v>
+        <v>1874400</v>
       </c>
       <c r="J76" s="3">
-        <v>1738900</v>
+        <v>1770200</v>
       </c>
       <c r="K76" s="3">
         <v>1545300</v>
@@ -2854,25 +2854,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>176500</v>
+        <v>179700</v>
       </c>
       <c r="E81" s="3">
-        <v>172900</v>
+        <v>176100</v>
       </c>
       <c r="F81" s="3">
-        <v>170900</v>
+        <v>173900</v>
       </c>
       <c r="G81" s="3">
-        <v>161400</v>
+        <v>164300</v>
       </c>
       <c r="H81" s="3">
-        <v>160200</v>
+        <v>163100</v>
       </c>
       <c r="I81" s="3">
-        <v>126200</v>
+        <v>128400</v>
       </c>
       <c r="J81" s="3">
-        <v>118600</v>
+        <v>120800</v>
       </c>
       <c r="K81" s="3">
         <v>111100</v>
@@ -2902,25 +2902,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>178300</v>
+        <v>181600</v>
       </c>
       <c r="E83" s="3">
-        <v>176800</v>
+        <v>180000</v>
       </c>
       <c r="F83" s="3">
-        <v>162400</v>
+        <v>165300</v>
       </c>
       <c r="G83" s="3">
-        <v>174400</v>
+        <v>177500</v>
       </c>
       <c r="H83" s="3">
-        <v>182400</v>
+        <v>185700</v>
       </c>
       <c r="I83" s="3">
-        <v>152400</v>
+        <v>155200</v>
       </c>
       <c r="J83" s="3">
-        <v>138000</v>
+        <v>140500</v>
       </c>
       <c r="K83" s="3">
         <v>127700</v>
@@ -3100,25 +3100,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>414500</v>
+        <v>422000</v>
       </c>
       <c r="E89" s="3">
-        <v>398800</v>
+        <v>406000</v>
       </c>
       <c r="F89" s="3">
-        <v>257100</v>
+        <v>261700</v>
       </c>
       <c r="G89" s="3">
-        <v>427200</v>
+        <v>434900</v>
       </c>
       <c r="H89" s="3">
-        <v>265300</v>
+        <v>270000</v>
       </c>
       <c r="I89" s="3">
-        <v>324700</v>
+        <v>330500</v>
       </c>
       <c r="J89" s="3">
-        <v>258400</v>
+        <v>263000</v>
       </c>
       <c r="K89" s="3">
         <v>300500</v>
@@ -3148,25 +3148,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-235500</v>
+        <v>-239800</v>
       </c>
       <c r="E91" s="3">
-        <v>-275800</v>
+        <v>-280800</v>
       </c>
       <c r="F91" s="3">
-        <v>-240700</v>
+        <v>-245000</v>
       </c>
       <c r="G91" s="3">
-        <v>-294000</v>
+        <v>-299300</v>
       </c>
       <c r="H91" s="3">
-        <v>-283500</v>
+        <v>-288600</v>
       </c>
       <c r="I91" s="3">
-        <v>-266600</v>
+        <v>-271400</v>
       </c>
       <c r="J91" s="3">
-        <v>-240200</v>
+        <v>-244600</v>
       </c>
       <c r="K91" s="3">
         <v>-178500</v>
@@ -3247,25 +3247,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-280600</v>
+        <v>-285600</v>
       </c>
       <c r="E94" s="3">
-        <v>-190700</v>
+        <v>-194100</v>
       </c>
       <c r="F94" s="3">
-        <v>-296600</v>
+        <v>-302000</v>
       </c>
       <c r="G94" s="3">
-        <v>-302500</v>
+        <v>-308000</v>
       </c>
       <c r="H94" s="3">
-        <v>-294300</v>
+        <v>-299600</v>
       </c>
       <c r="I94" s="3">
-        <v>-291200</v>
+        <v>-296400</v>
       </c>
       <c r="J94" s="3">
-        <v>-206700</v>
+        <v>-210400</v>
       </c>
       <c r="K94" s="3">
         <v>-220900</v>
@@ -3295,25 +3295,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-52700</v>
+        <v>-53600</v>
       </c>
       <c r="E96" s="3">
-        <v>-52100</v>
+        <v>-53000</v>
       </c>
       <c r="F96" s="3">
-        <v>-53200</v>
+        <v>-54200</v>
       </c>
       <c r="G96" s="3">
-        <v>-44800</v>
+        <v>-45600</v>
       </c>
       <c r="H96" s="3">
-        <v>-34400</v>
+        <v>-35000</v>
       </c>
       <c r="I96" s="3">
-        <v>-31800</v>
+        <v>-32400</v>
       </c>
       <c r="J96" s="3">
-        <v>-30400</v>
+        <v>-30900</v>
       </c>
       <c r="K96" s="3">
         <v>-25000</v>
@@ -3427,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-43400</v>
+        <v>-44200</v>
       </c>
       <c r="E100" s="3">
-        <v>-144400</v>
+        <v>-147000</v>
       </c>
       <c r="F100" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="G100" s="3">
-        <v>-54800</v>
+        <v>-55800</v>
       </c>
       <c r="H100" s="3">
-        <v>-67000</v>
+        <v>-68200</v>
       </c>
       <c r="I100" s="3">
-        <v>-29700</v>
+        <v>-30300</v>
       </c>
       <c r="J100" s="3">
-        <v>-21800</v>
+        <v>-22200</v>
       </c>
       <c r="K100" s="3">
         <v>63500</v>
@@ -3460,22 +3460,22 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F101" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G101" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="H101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J101" s="3">
         <v>3900</v>
@@ -3493,25 +3493,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>83100</v>
+        <v>84600</v>
       </c>
       <c r="E102" s="3">
-        <v>61900</v>
+        <v>63000</v>
       </c>
       <c r="F102" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G102" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="H102" s="3">
-        <v>-93900</v>
+        <v>-95600</v>
       </c>
       <c r="I102" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J102" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="K102" s="3">
         <v>143500</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,153 +662,165 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43434</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43069</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42704</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42338</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41973</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41608</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41243</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40877</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5244400</v>
+        <v>4864900</v>
       </c>
       <c r="E8" s="3">
-        <v>5511600</v>
+        <v>4998800</v>
       </c>
       <c r="F8" s="3">
-        <v>5397800</v>
+        <v>5253500</v>
       </c>
       <c r="G8" s="3">
-        <v>5307700</v>
+        <v>5145100</v>
       </c>
       <c r="H8" s="3">
-        <v>5283300</v>
+        <v>5059100</v>
       </c>
       <c r="I8" s="3">
-        <v>5318200</v>
+        <v>5035900</v>
       </c>
       <c r="J8" s="3">
+        <v>5069200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5098600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4565200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4314700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3966400</v>
+        <v>3717000</v>
       </c>
       <c r="E9" s="3">
-        <v>4232000</v>
+        <v>3780700</v>
       </c>
       <c r="F9" s="3">
-        <v>4158900</v>
+        <v>4033900</v>
       </c>
       <c r="G9" s="3">
-        <v>4121200</v>
+        <v>3964200</v>
       </c>
       <c r="H9" s="3">
-        <v>4156200</v>
+        <v>3928200</v>
       </c>
       <c r="I9" s="3">
-        <v>4027000</v>
+        <v>3961600</v>
       </c>
       <c r="J9" s="3">
+        <v>3838400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3865900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3434600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3276100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1278000</v>
+        <v>1147900</v>
       </c>
       <c r="E10" s="3">
-        <v>1279500</v>
+        <v>1218100</v>
       </c>
       <c r="F10" s="3">
-        <v>1238900</v>
+        <v>1219600</v>
       </c>
       <c r="G10" s="3">
-        <v>1186400</v>
+        <v>1180900</v>
       </c>
       <c r="H10" s="3">
-        <v>1127100</v>
+        <v>1130900</v>
       </c>
       <c r="I10" s="3">
-        <v>1291200</v>
+        <v>1074300</v>
       </c>
       <c r="J10" s="3">
+        <v>1230800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1232600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1130600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1038600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,41 +834,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>39900</v>
+        <v>36300</v>
       </c>
       <c r="E12" s="3">
-        <v>39800</v>
+        <v>38100</v>
       </c>
       <c r="F12" s="3">
-        <v>39000</v>
+        <v>37900</v>
       </c>
       <c r="G12" s="3">
-        <v>38700</v>
+        <v>37200</v>
       </c>
       <c r="H12" s="3">
-        <v>40400</v>
+        <v>36900</v>
       </c>
       <c r="I12" s="3">
-        <v>37300</v>
+        <v>38500</v>
       </c>
       <c r="J12" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K12" s="3">
         <v>35200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,75 +903,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18600</v>
+        <v>40700</v>
       </c>
       <c r="E14" s="3">
-        <v>50400</v>
+        <v>17700</v>
       </c>
       <c r="F14" s="3">
-        <v>28800</v>
+        <v>48000</v>
       </c>
       <c r="G14" s="3">
-        <v>15700</v>
+        <v>27400</v>
       </c>
       <c r="H14" s="3">
-        <v>-14700</v>
+        <v>14900</v>
       </c>
       <c r="I14" s="3">
-        <v>10900</v>
+        <v>-14100</v>
       </c>
       <c r="J14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="E15" s="3">
-        <v>28000</v>
+        <v>26500</v>
       </c>
       <c r="F15" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="G15" s="3">
-        <v>26700</v>
+        <v>25300</v>
       </c>
       <c r="H15" s="3">
-        <v>25100</v>
+        <v>25400</v>
       </c>
       <c r="I15" s="3">
-        <v>20300</v>
+        <v>23900</v>
       </c>
       <c r="J15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K15" s="3">
         <v>17200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,74 +991,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4955000</v>
+        <v>4646400</v>
       </c>
       <c r="E17" s="3">
-        <v>5244200</v>
+        <v>4723000</v>
       </c>
       <c r="F17" s="3">
-        <v>5126200</v>
+        <v>4998600</v>
       </c>
       <c r="G17" s="3">
-        <v>5036800</v>
+        <v>4886100</v>
       </c>
       <c r="H17" s="3">
-        <v>5019300</v>
+        <v>4800900</v>
       </c>
       <c r="I17" s="3">
-        <v>5095200</v>
+        <v>4784300</v>
       </c>
       <c r="J17" s="3">
+        <v>4856600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4901300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4364600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4168600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>289400</v>
+        <v>218500</v>
       </c>
       <c r="E18" s="3">
-        <v>267400</v>
+        <v>275800</v>
       </c>
       <c r="F18" s="3">
-        <v>271600</v>
+        <v>254900</v>
       </c>
       <c r="G18" s="3">
-        <v>270900</v>
+        <v>258900</v>
       </c>
       <c r="H18" s="3">
-        <v>264000</v>
+        <v>258200</v>
       </c>
       <c r="I18" s="3">
-        <v>223000</v>
+        <v>251600</v>
       </c>
       <c r="J18" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K18" s="3">
         <v>197200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>146100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,173 +1079,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>25700</v>
+        <v>-6300</v>
       </c>
       <c r="E20" s="3">
-        <v>58600</v>
+        <v>24500</v>
       </c>
       <c r="F20" s="3">
-        <v>27800</v>
+        <v>55900</v>
       </c>
       <c r="G20" s="3">
-        <v>23200</v>
+        <v>26500</v>
       </c>
       <c r="H20" s="3">
-        <v>13600</v>
+        <v>22100</v>
       </c>
       <c r="I20" s="3">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="J20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>496200</v>
+        <v>398800</v>
       </c>
       <c r="E21" s="3">
-        <v>505600</v>
+        <v>474100</v>
       </c>
       <c r="F21" s="3">
-        <v>464400</v>
+        <v>483100</v>
       </c>
       <c r="G21" s="3">
-        <v>471300</v>
+        <v>443700</v>
       </c>
       <c r="H21" s="3">
-        <v>462900</v>
+        <v>450300</v>
       </c>
       <c r="I21" s="3">
-        <v>393900</v>
+        <v>442400</v>
       </c>
       <c r="J21" s="3">
+        <v>376400</v>
+      </c>
+      <c r="K21" s="3">
         <v>358000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>341000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>278700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3000</v>
-      </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>312200</v>
+        <v>209100</v>
       </c>
       <c r="E23" s="3">
-        <v>322800</v>
+        <v>297600</v>
       </c>
       <c r="F23" s="3">
-        <v>295800</v>
+        <v>307600</v>
       </c>
       <c r="G23" s="3">
-        <v>291100</v>
+        <v>282000</v>
       </c>
       <c r="H23" s="3">
-        <v>274600</v>
+        <v>277500</v>
       </c>
       <c r="I23" s="3">
-        <v>236200</v>
+        <v>261800</v>
       </c>
       <c r="J23" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K23" s="3">
         <v>215300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>211100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>156300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>101600</v>
+        <v>80800</v>
       </c>
       <c r="E24" s="3">
-        <v>112600</v>
+        <v>96800</v>
       </c>
       <c r="F24" s="3">
-        <v>88600</v>
+        <v>107400</v>
       </c>
       <c r="G24" s="3">
-        <v>98600</v>
+        <v>84500</v>
       </c>
       <c r="H24" s="3">
-        <v>85300</v>
+        <v>93900</v>
       </c>
       <c r="I24" s="3">
-        <v>87700</v>
+        <v>81300</v>
       </c>
       <c r="J24" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K24" s="3">
         <v>73600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>80600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1244,75 +1292,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>210600</v>
+        <v>128200</v>
       </c>
       <c r="E26" s="3">
-        <v>210100</v>
+        <v>200700</v>
       </c>
       <c r="F26" s="3">
-        <v>207200</v>
+        <v>200300</v>
       </c>
       <c r="G26" s="3">
-        <v>192500</v>
+        <v>197500</v>
       </c>
       <c r="H26" s="3">
-        <v>189300</v>
+        <v>183500</v>
       </c>
       <c r="I26" s="3">
-        <v>148400</v>
+        <v>180400</v>
       </c>
       <c r="J26" s="3">
+        <v>141500</v>
+      </c>
+      <c r="K26" s="3">
         <v>141700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>130500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>92200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>179700</v>
+        <v>104200</v>
       </c>
       <c r="E27" s="3">
-        <v>176100</v>
+        <v>171300</v>
       </c>
       <c r="F27" s="3">
-        <v>173900</v>
+        <v>167800</v>
       </c>
       <c r="G27" s="3">
-        <v>164300</v>
+        <v>165800</v>
       </c>
       <c r="H27" s="3">
-        <v>163100</v>
+        <v>156600</v>
       </c>
       <c r="I27" s="3">
-        <v>128400</v>
+        <v>155500</v>
       </c>
       <c r="J27" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K27" s="3">
         <v>120800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1343,9 +1400,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1376,9 +1436,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1409,9 +1472,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1442,75 +1508,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-25700</v>
+        <v>6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-58600</v>
+        <v>-24500</v>
       </c>
       <c r="F32" s="3">
-        <v>-27800</v>
+        <v>-55900</v>
       </c>
       <c r="G32" s="3">
-        <v>-23200</v>
+        <v>-26500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13600</v>
+        <v>-22100</v>
       </c>
       <c r="I32" s="3">
-        <v>-16000</v>
+        <v>-13000</v>
       </c>
       <c r="J32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>179700</v>
+        <v>104200</v>
       </c>
       <c r="E33" s="3">
-        <v>176100</v>
+        <v>171300</v>
       </c>
       <c r="F33" s="3">
-        <v>173900</v>
+        <v>167800</v>
       </c>
       <c r="G33" s="3">
-        <v>164300</v>
+        <v>165800</v>
       </c>
       <c r="H33" s="3">
-        <v>163100</v>
+        <v>156600</v>
       </c>
       <c r="I33" s="3">
-        <v>128400</v>
+        <v>155500</v>
       </c>
       <c r="J33" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K33" s="3">
         <v>120800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,80 +1616,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>179700</v>
+        <v>104200</v>
       </c>
       <c r="E35" s="3">
-        <v>176100</v>
+        <v>171300</v>
       </c>
       <c r="F35" s="3">
-        <v>173900</v>
+        <v>167800</v>
       </c>
       <c r="G35" s="3">
-        <v>164300</v>
+        <v>165800</v>
       </c>
       <c r="H35" s="3">
-        <v>163100</v>
+        <v>156600</v>
       </c>
       <c r="I35" s="3">
-        <v>128400</v>
+        <v>155500</v>
       </c>
       <c r="J35" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K35" s="3">
         <v>120800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43434</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43069</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42704</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42338</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41973</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41608</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41243</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40877</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1628,8 +1712,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,305 +1728,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>449500</v>
+        <v>520600</v>
       </c>
       <c r="E41" s="3">
-        <v>369900</v>
+        <v>428500</v>
       </c>
       <c r="F41" s="3">
-        <v>284600</v>
+        <v>352600</v>
       </c>
       <c r="G41" s="3">
-        <v>344000</v>
+        <v>271300</v>
       </c>
       <c r="H41" s="3">
-        <v>286800</v>
+        <v>327900</v>
       </c>
       <c r="I41" s="3">
-        <v>334600</v>
+        <v>273400</v>
       </c>
       <c r="J41" s="3">
+        <v>318900</v>
+      </c>
+      <c r="K41" s="3">
         <v>326400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>301900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>91600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>87000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>109900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K42" s="3">
         <v>96100</v>
       </c>
-      <c r="E42" s="3">
-        <v>91300</v>
-      </c>
-      <c r="F42" s="3">
-        <v>115300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>48100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>48100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>96100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>96100</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>90400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>799800</v>
+        <v>671100</v>
       </c>
       <c r="E43" s="3">
-        <v>736000</v>
+        <v>762300</v>
       </c>
       <c r="F43" s="3">
-        <v>749500</v>
+        <v>701500</v>
       </c>
       <c r="G43" s="3">
-        <v>720400</v>
+        <v>714400</v>
       </c>
       <c r="H43" s="3">
-        <v>749300</v>
+        <v>686600</v>
       </c>
       <c r="I43" s="3">
-        <v>781200</v>
+        <v>714300</v>
       </c>
       <c r="J43" s="3">
+        <v>744700</v>
+      </c>
+      <c r="K43" s="3">
         <v>742100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>601400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>573100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>277100</v>
+        <v>249300</v>
       </c>
       <c r="E44" s="3">
-        <v>271500</v>
+        <v>264100</v>
       </c>
       <c r="F44" s="3">
-        <v>275800</v>
+        <v>258800</v>
       </c>
       <c r="G44" s="3">
-        <v>248600</v>
+        <v>262900</v>
       </c>
       <c r="H44" s="3">
-        <v>273000</v>
+        <v>237000</v>
       </c>
       <c r="I44" s="3">
-        <v>220500</v>
+        <v>260200</v>
       </c>
       <c r="J44" s="3">
+        <v>210200</v>
+      </c>
+      <c r="K44" s="3">
         <v>185500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>161900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>149700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>57200</v>
+        <v>61300</v>
       </c>
       <c r="E45" s="3">
-        <v>82600</v>
+        <v>54500</v>
       </c>
       <c r="F45" s="3">
-        <v>77100</v>
+        <v>78700</v>
       </c>
       <c r="G45" s="3">
-        <v>82000</v>
+        <v>73500</v>
       </c>
       <c r="H45" s="3">
-        <v>96000</v>
+        <v>78200</v>
       </c>
       <c r="I45" s="3">
-        <v>53200</v>
+        <v>91500</v>
       </c>
       <c r="J45" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K45" s="3">
         <v>57100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1679700</v>
+        <v>1593900</v>
       </c>
       <c r="E46" s="3">
-        <v>1522200</v>
+        <v>1601100</v>
       </c>
       <c r="F46" s="3">
-        <v>1502400</v>
+        <v>1451000</v>
       </c>
       <c r="G46" s="3">
-        <v>1443000</v>
+        <v>1432000</v>
       </c>
       <c r="H46" s="3">
-        <v>1427300</v>
+        <v>1375500</v>
       </c>
       <c r="I46" s="3">
-        <v>1485600</v>
+        <v>1360400</v>
       </c>
       <c r="J46" s="3">
+        <v>1416100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1407200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1202500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>985500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>276200</v>
+        <v>267600</v>
       </c>
       <c r="E47" s="3">
-        <v>299400</v>
+        <v>263300</v>
       </c>
       <c r="F47" s="3">
-        <v>342300</v>
+        <v>285400</v>
       </c>
       <c r="G47" s="3">
-        <v>273200</v>
+        <v>326300</v>
       </c>
       <c r="H47" s="3">
-        <v>556200</v>
+        <v>260400</v>
       </c>
       <c r="I47" s="3">
-        <v>261800</v>
+        <v>530100</v>
       </c>
       <c r="J47" s="3">
+        <v>249500</v>
+      </c>
+      <c r="K47" s="3">
         <v>233200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>188100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>182200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1993700</v>
+        <v>1940100</v>
       </c>
       <c r="E48" s="3">
-        <v>1911000</v>
+        <v>1900300</v>
       </c>
       <c r="F48" s="3">
-        <v>1871500</v>
+        <v>1821500</v>
       </c>
       <c r="G48" s="3">
-        <v>1762300</v>
+        <v>1783900</v>
       </c>
       <c r="H48" s="3">
-        <v>1649100</v>
+        <v>1679700</v>
       </c>
       <c r="I48" s="3">
-        <v>1475600</v>
+        <v>1571800</v>
       </c>
       <c r="J48" s="3">
+        <v>1406500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1305300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1126200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1029500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>95300</v>
+        <v>123800</v>
       </c>
       <c r="E49" s="3">
-        <v>60500</v>
+        <v>90900</v>
       </c>
       <c r="F49" s="3">
-        <v>80300</v>
+        <v>57600</v>
       </c>
       <c r="G49" s="3">
-        <v>54500</v>
+        <v>76600</v>
       </c>
       <c r="H49" s="3">
-        <v>84900</v>
+        <v>52000</v>
       </c>
       <c r="I49" s="3">
-        <v>32600</v>
+        <v>80900</v>
       </c>
       <c r="J49" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K49" s="3">
         <v>25600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1972,9 +2085,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2005,42 +2121,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>224900</v>
+        <v>212400</v>
       </c>
       <c r="E52" s="3">
-        <v>386000</v>
+        <v>214300</v>
       </c>
       <c r="F52" s="3">
-        <v>232100</v>
+        <v>368000</v>
       </c>
       <c r="G52" s="3">
-        <v>175600</v>
+        <v>221200</v>
       </c>
       <c r="H52" s="3">
-        <v>329100</v>
+        <v>167400</v>
       </c>
       <c r="I52" s="3">
-        <v>175100</v>
+        <v>313700</v>
       </c>
       <c r="J52" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K52" s="3">
         <v>244700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>228500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2071,42 +2193,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4269800</v>
+        <v>4137800</v>
       </c>
       <c r="E54" s="3">
-        <v>4033700</v>
+        <v>4069900</v>
       </c>
       <c r="F54" s="3">
-        <v>4028600</v>
+        <v>3844800</v>
       </c>
       <c r="G54" s="3">
-        <v>3708600</v>
+        <v>3839900</v>
       </c>
       <c r="H54" s="3">
-        <v>3584700</v>
+        <v>3535000</v>
       </c>
       <c r="I54" s="3">
-        <v>3430700</v>
+        <v>3416800</v>
       </c>
       <c r="J54" s="3">
+        <v>3270100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3216000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2770900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2446200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2120,8 +2248,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2135,206 +2264,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>512200</v>
+        <v>383100</v>
       </c>
       <c r="E57" s="3">
-        <v>427800</v>
+        <v>488200</v>
       </c>
       <c r="F57" s="3">
-        <v>461400</v>
+        <v>407800</v>
       </c>
       <c r="G57" s="3">
-        <v>452200</v>
+        <v>439800</v>
       </c>
       <c r="H57" s="3">
-        <v>434300</v>
+        <v>431000</v>
       </c>
       <c r="I57" s="3">
-        <v>516800</v>
+        <v>414000</v>
       </c>
       <c r="J57" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K57" s="3">
         <v>488100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>377100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>348200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>70400</v>
+        <v>128700</v>
       </c>
       <c r="E58" s="3">
-        <v>283500</v>
+        <v>67100</v>
       </c>
       <c r="F58" s="3">
-        <v>77200</v>
+        <v>270200</v>
       </c>
       <c r="G58" s="3">
-        <v>79800</v>
+        <v>73600</v>
       </c>
       <c r="H58" s="3">
-        <v>188200</v>
+        <v>76000</v>
       </c>
       <c r="I58" s="3">
-        <v>88500</v>
+        <v>179400</v>
       </c>
       <c r="J58" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K58" s="3">
         <v>90700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>368900</v>
+        <v>279300</v>
       </c>
       <c r="E59" s="3">
-        <v>382700</v>
+        <v>351600</v>
       </c>
       <c r="F59" s="3">
-        <v>333000</v>
+        <v>364800</v>
       </c>
       <c r="G59" s="3">
-        <v>450700</v>
+        <v>317400</v>
       </c>
       <c r="H59" s="3">
-        <v>711100</v>
+        <v>429500</v>
       </c>
       <c r="I59" s="3">
-        <v>414300</v>
+        <v>677800</v>
       </c>
       <c r="J59" s="3">
+        <v>394900</v>
+      </c>
+      <c r="K59" s="3">
         <v>342800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>316300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>261800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>951400</v>
+        <v>791200</v>
       </c>
       <c r="E60" s="3">
-        <v>969500</v>
+        <v>906900</v>
       </c>
       <c r="F60" s="3">
-        <v>871600</v>
+        <v>924100</v>
       </c>
       <c r="G60" s="3">
-        <v>982600</v>
+        <v>830800</v>
       </c>
       <c r="H60" s="3">
-        <v>911700</v>
+        <v>936600</v>
       </c>
       <c r="I60" s="3">
-        <v>1019600</v>
+        <v>869000</v>
       </c>
       <c r="J60" s="3">
+        <v>971800</v>
+      </c>
+      <c r="K60" s="3">
         <v>921600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>776400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>674300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>550100</v>
+        <v>622400</v>
       </c>
       <c r="E61" s="3">
-        <v>388900</v>
+        <v>524400</v>
       </c>
       <c r="F61" s="3">
-        <v>484900</v>
+        <v>370700</v>
       </c>
       <c r="G61" s="3">
-        <v>252600</v>
+        <v>462200</v>
       </c>
       <c r="H61" s="3">
-        <v>157100</v>
+        <v>240700</v>
       </c>
       <c r="I61" s="3">
-        <v>191200</v>
+        <v>149700</v>
       </c>
       <c r="J61" s="3">
+        <v>182200</v>
+      </c>
+      <c r="K61" s="3">
         <v>158000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>122100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>108600</v>
+        <v>110200</v>
       </c>
       <c r="E62" s="3">
-        <v>118000</v>
+        <v>103500</v>
       </c>
       <c r="F62" s="3">
-        <v>140500</v>
+        <v>112500</v>
       </c>
       <c r="G62" s="3">
-        <v>110800</v>
+        <v>133900</v>
       </c>
       <c r="H62" s="3">
-        <v>240700</v>
+        <v>105600</v>
       </c>
       <c r="I62" s="3">
-        <v>101900</v>
+        <v>229400</v>
       </c>
       <c r="J62" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K62" s="3">
         <v>115600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>118100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2365,9 +2513,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2398,9 +2549,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2431,42 +2585,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2006200</v>
+        <v>1943700</v>
       </c>
       <c r="E66" s="3">
-        <v>1858600</v>
+        <v>1912200</v>
       </c>
       <c r="F66" s="3">
-        <v>1852500</v>
+        <v>1771600</v>
       </c>
       <c r="G66" s="3">
-        <v>1665300</v>
+        <v>1765700</v>
       </c>
       <c r="H66" s="3">
-        <v>1538400</v>
+        <v>1587400</v>
       </c>
       <c r="I66" s="3">
-        <v>1556300</v>
+        <v>1466300</v>
       </c>
       <c r="J66" s="3">
+        <v>1483400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1445800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1225600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1026900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2480,8 +2640,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2512,9 +2673,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2545,9 +2709,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2578,9 +2745,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2611,42 +2781,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1888900</v>
+        <v>1845700</v>
       </c>
       <c r="E72" s="3">
-        <v>1762800</v>
+        <v>1800400</v>
       </c>
       <c r="F72" s="3">
-        <v>1639300</v>
+        <v>1680200</v>
       </c>
       <c r="G72" s="3">
-        <v>1602600</v>
+        <v>1562500</v>
       </c>
       <c r="H72" s="3">
-        <v>1484000</v>
+        <v>1527600</v>
       </c>
       <c r="I72" s="3">
-        <v>1369300</v>
+        <v>1414500</v>
       </c>
       <c r="J72" s="3">
+        <v>1305200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1273200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1113200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1007800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2677,9 +2853,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2710,9 +2889,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2743,42 +2925,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2263700</v>
+        <v>2194100</v>
       </c>
       <c r="E76" s="3">
-        <v>2175100</v>
+        <v>2157700</v>
       </c>
       <c r="F76" s="3">
-        <v>2176100</v>
+        <v>2073200</v>
       </c>
       <c r="G76" s="3">
-        <v>2043300</v>
+        <v>2074200</v>
       </c>
       <c r="H76" s="3">
-        <v>2046300</v>
+        <v>1947600</v>
       </c>
       <c r="I76" s="3">
-        <v>1874400</v>
+        <v>1950500</v>
       </c>
       <c r="J76" s="3">
+        <v>1786700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1770200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1545300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1419300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2809,80 +2997,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43434</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43069</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42704</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42338</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41973</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41608</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41243</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40877</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>179700</v>
+        <v>104200</v>
       </c>
       <c r="E81" s="3">
-        <v>176100</v>
+        <v>171300</v>
       </c>
       <c r="F81" s="3">
-        <v>173900</v>
+        <v>167800</v>
       </c>
       <c r="G81" s="3">
-        <v>164300</v>
+        <v>165800</v>
       </c>
       <c r="H81" s="3">
-        <v>163100</v>
+        <v>156600</v>
       </c>
       <c r="I81" s="3">
-        <v>128400</v>
+        <v>155500</v>
       </c>
       <c r="J81" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K81" s="3">
         <v>120800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2896,41 +3093,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>181600</v>
+        <v>185900</v>
       </c>
       <c r="E83" s="3">
-        <v>180000</v>
+        <v>173100</v>
       </c>
       <c r="F83" s="3">
-        <v>165300</v>
+        <v>171600</v>
       </c>
       <c r="G83" s="3">
-        <v>177500</v>
+        <v>157600</v>
       </c>
       <c r="H83" s="3">
-        <v>185700</v>
+        <v>169200</v>
       </c>
       <c r="I83" s="3">
-        <v>155200</v>
+        <v>177000</v>
       </c>
       <c r="J83" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K83" s="3">
         <v>140500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>127700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>121000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2961,9 +3162,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2994,9 +3198,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3027,9 +3234,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3060,9 +3270,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3093,42 +3306,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>422000</v>
+        <v>320200</v>
       </c>
       <c r="E89" s="3">
-        <v>406000</v>
+        <v>402200</v>
       </c>
       <c r="F89" s="3">
-        <v>261700</v>
+        <v>387000</v>
       </c>
       <c r="G89" s="3">
-        <v>434900</v>
+        <v>249500</v>
       </c>
       <c r="H89" s="3">
-        <v>270000</v>
+        <v>414600</v>
       </c>
       <c r="I89" s="3">
-        <v>330500</v>
+        <v>257400</v>
       </c>
       <c r="J89" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K89" s="3">
         <v>263000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>207600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3142,41 +3361,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-239800</v>
+        <v>-189700</v>
       </c>
       <c r="E91" s="3">
-        <v>-280800</v>
+        <v>-228600</v>
       </c>
       <c r="F91" s="3">
-        <v>-245000</v>
+        <v>-267600</v>
       </c>
       <c r="G91" s="3">
-        <v>-299300</v>
+        <v>-233600</v>
       </c>
       <c r="H91" s="3">
-        <v>-288600</v>
+        <v>-285300</v>
       </c>
       <c r="I91" s="3">
-        <v>-271400</v>
+        <v>-275100</v>
       </c>
       <c r="J91" s="3">
+        <v>-258700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-244600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-178500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-115500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3207,9 +3430,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3240,42 +3466,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-272200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-287800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-293500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-285600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-194100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-302000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-308000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-299600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-296400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-282600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-210400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-220900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-107900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3289,41 +3521,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-53600</v>
+        <v>-59000</v>
       </c>
       <c r="E96" s="3">
-        <v>-53000</v>
+        <v>-51100</v>
       </c>
       <c r="F96" s="3">
-        <v>-54200</v>
+        <v>-50500</v>
       </c>
       <c r="G96" s="3">
-        <v>-45600</v>
+        <v>-51700</v>
       </c>
       <c r="H96" s="3">
-        <v>-35000</v>
+        <v>-43500</v>
       </c>
       <c r="I96" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J96" s="3">
         <v>-30900</v>
       </c>
       <c r="K96" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="L96" s="3">
         <v>-25000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3354,9 +3590,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3387,9 +3626,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3420,106 +3662,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-44200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-147000</v>
+        <v>-42200</v>
       </c>
       <c r="F100" s="3">
-        <v>38500</v>
+        <v>-140100</v>
       </c>
       <c r="G100" s="3">
-        <v>-55800</v>
+        <v>36700</v>
       </c>
       <c r="H100" s="3">
-        <v>-68200</v>
+        <v>-53200</v>
       </c>
       <c r="I100" s="3">
-        <v>-30300</v>
+        <v>-65000</v>
       </c>
       <c r="J100" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>63500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-173700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-7500</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1900</v>
+        <v>-7200</v>
       </c>
       <c r="F101" s="3">
-        <v>7700</v>
+        <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>-14000</v>
+        <v>7300</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>-13400</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
         <v>3900</v>
       </c>
       <c r="K101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>84600</v>
+        <v>82400</v>
       </c>
       <c r="E102" s="3">
-        <v>63000</v>
+        <v>80700</v>
       </c>
       <c r="F102" s="3">
-        <v>6000</v>
+        <v>60100</v>
       </c>
       <c r="G102" s="3">
-        <v>57200</v>
+        <v>5700</v>
       </c>
       <c r="H102" s="3">
-        <v>-95600</v>
+        <v>54500</v>
       </c>
       <c r="I102" s="3">
-        <v>7900</v>
+        <v>-91100</v>
       </c>
       <c r="J102" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K102" s="3">
         <v>34400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>143500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-76500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4864900</v>
+        <v>4880800</v>
       </c>
       <c r="E8" s="3">
-        <v>4998800</v>
+        <v>5015200</v>
       </c>
       <c r="F8" s="3">
-        <v>5253500</v>
+        <v>5270700</v>
       </c>
       <c r="G8" s="3">
-        <v>5145100</v>
+        <v>5161900</v>
       </c>
       <c r="H8" s="3">
-        <v>5059100</v>
+        <v>5075700</v>
       </c>
       <c r="I8" s="3">
-        <v>5035900</v>
+        <v>5052400</v>
       </c>
       <c r="J8" s="3">
-        <v>5069200</v>
+        <v>5085800</v>
       </c>
       <c r="K8" s="3">
         <v>5098600</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3717000</v>
+        <v>3729200</v>
       </c>
       <c r="E9" s="3">
-        <v>3780700</v>
+        <v>3793100</v>
       </c>
       <c r="F9" s="3">
-        <v>4033900</v>
+        <v>4047100</v>
       </c>
       <c r="G9" s="3">
-        <v>3964200</v>
+        <v>3977200</v>
       </c>
       <c r="H9" s="3">
-        <v>3928200</v>
+        <v>3941100</v>
       </c>
       <c r="I9" s="3">
-        <v>3961600</v>
+        <v>3974600</v>
       </c>
       <c r="J9" s="3">
-        <v>3838400</v>
+        <v>3851000</v>
       </c>
       <c r="K9" s="3">
         <v>3865900</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1147900</v>
+        <v>1151600</v>
       </c>
       <c r="E10" s="3">
-        <v>1218100</v>
+        <v>1222100</v>
       </c>
       <c r="F10" s="3">
-        <v>1219600</v>
+        <v>1223600</v>
       </c>
       <c r="G10" s="3">
-        <v>1180900</v>
+        <v>1184700</v>
       </c>
       <c r="H10" s="3">
-        <v>1130900</v>
+        <v>1134600</v>
       </c>
       <c r="I10" s="3">
-        <v>1074300</v>
+        <v>1077800</v>
       </c>
       <c r="J10" s="3">
-        <v>1230800</v>
+        <v>1234800</v>
       </c>
       <c r="K10" s="3">
         <v>1232600</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="E12" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F12" s="3">
         <v>38100</v>
       </c>
-      <c r="F12" s="3">
-        <v>37900</v>
-      </c>
       <c r="G12" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H12" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="I12" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="J12" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="K12" s="3">
         <v>35200</v>
@@ -913,25 +913,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40700</v>
+        <v>40900</v>
       </c>
       <c r="E14" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="F14" s="3">
-        <v>48000</v>
+        <v>48200</v>
       </c>
       <c r="G14" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="H14" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="3">
         <v>-14100</v>
       </c>
       <c r="J14" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="K14" s="3">
         <v>18000</v>
@@ -949,22 +949,22 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="E15" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="F15" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="G15" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="H15" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="I15" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="J15" s="3">
         <v>19400</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4646400</v>
+        <v>4661600</v>
       </c>
       <c r="E17" s="3">
-        <v>4723000</v>
+        <v>4738500</v>
       </c>
       <c r="F17" s="3">
-        <v>4998600</v>
+        <v>5015000</v>
       </c>
       <c r="G17" s="3">
-        <v>4886100</v>
+        <v>4902100</v>
       </c>
       <c r="H17" s="3">
-        <v>4800900</v>
+        <v>4816600</v>
       </c>
       <c r="I17" s="3">
-        <v>4784300</v>
+        <v>4800000</v>
       </c>
       <c r="J17" s="3">
-        <v>4856600</v>
+        <v>4872500</v>
       </c>
       <c r="K17" s="3">
         <v>4901300</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>218500</v>
+        <v>219200</v>
       </c>
       <c r="E18" s="3">
-        <v>275800</v>
+        <v>276700</v>
       </c>
       <c r="F18" s="3">
-        <v>254900</v>
+        <v>255700</v>
       </c>
       <c r="G18" s="3">
-        <v>258900</v>
+        <v>259800</v>
       </c>
       <c r="H18" s="3">
-        <v>258200</v>
+        <v>259000</v>
       </c>
       <c r="I18" s="3">
-        <v>251600</v>
+        <v>252500</v>
       </c>
       <c r="J18" s="3">
-        <v>212500</v>
+        <v>213200</v>
       </c>
       <c r="K18" s="3">
         <v>197200</v>
@@ -1086,19 +1086,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="E20" s="3">
         <v>24500</v>
       </c>
       <c r="F20" s="3">
-        <v>55900</v>
+        <v>56100</v>
       </c>
       <c r="G20" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="H20" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="I20" s="3">
         <v>13000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>398800</v>
+        <v>399500</v>
       </c>
       <c r="E21" s="3">
-        <v>474100</v>
+        <v>475100</v>
       </c>
       <c r="F21" s="3">
-        <v>483100</v>
+        <v>484100</v>
       </c>
       <c r="G21" s="3">
-        <v>443700</v>
+        <v>444600</v>
       </c>
       <c r="H21" s="3">
-        <v>450300</v>
+        <v>451200</v>
       </c>
       <c r="I21" s="3">
-        <v>442400</v>
+        <v>443300</v>
       </c>
       <c r="J21" s="3">
-        <v>376400</v>
+        <v>377100</v>
       </c>
       <c r="K21" s="3">
         <v>358000</v>
@@ -1167,10 +1167,10 @@
         <v>3100</v>
       </c>
       <c r="G22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
         <v>2900</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>209100</v>
+        <v>209800</v>
       </c>
       <c r="E23" s="3">
-        <v>297600</v>
+        <v>298600</v>
       </c>
       <c r="F23" s="3">
-        <v>307600</v>
+        <v>308700</v>
       </c>
       <c r="G23" s="3">
-        <v>282000</v>
+        <v>282900</v>
       </c>
       <c r="H23" s="3">
-        <v>277500</v>
+        <v>278400</v>
       </c>
       <c r="I23" s="3">
-        <v>261800</v>
+        <v>262600</v>
       </c>
       <c r="J23" s="3">
-        <v>225100</v>
+        <v>225800</v>
       </c>
       <c r="K23" s="3">
         <v>215300</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>80800</v>
+        <v>81100</v>
       </c>
       <c r="E24" s="3">
-        <v>96800</v>
+        <v>97200</v>
       </c>
       <c r="F24" s="3">
-        <v>107400</v>
+        <v>107700</v>
       </c>
       <c r="G24" s="3">
-        <v>84500</v>
+        <v>84800</v>
       </c>
       <c r="H24" s="3">
-        <v>93900</v>
+        <v>94200</v>
       </c>
       <c r="I24" s="3">
-        <v>81300</v>
+        <v>81600</v>
       </c>
       <c r="J24" s="3">
-        <v>83600</v>
+        <v>83900</v>
       </c>
       <c r="K24" s="3">
         <v>73600</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>128200</v>
+        <v>128700</v>
       </c>
       <c r="E26" s="3">
-        <v>200700</v>
+        <v>201400</v>
       </c>
       <c r="F26" s="3">
-        <v>200300</v>
+        <v>200900</v>
       </c>
       <c r="G26" s="3">
-        <v>197500</v>
+        <v>198100</v>
       </c>
       <c r="H26" s="3">
-        <v>183500</v>
+        <v>184100</v>
       </c>
       <c r="I26" s="3">
-        <v>180400</v>
+        <v>181000</v>
       </c>
       <c r="J26" s="3">
-        <v>141500</v>
+        <v>141900</v>
       </c>
       <c r="K26" s="3">
         <v>141700</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>104200</v>
+        <v>104600</v>
       </c>
       <c r="E27" s="3">
-        <v>171300</v>
+        <v>171800</v>
       </c>
       <c r="F27" s="3">
-        <v>167800</v>
+        <v>168400</v>
       </c>
       <c r="G27" s="3">
-        <v>165800</v>
+        <v>166300</v>
       </c>
       <c r="H27" s="3">
-        <v>156600</v>
+        <v>157100</v>
       </c>
       <c r="I27" s="3">
-        <v>155500</v>
+        <v>156000</v>
       </c>
       <c r="J27" s="3">
-        <v>122400</v>
+        <v>122800</v>
       </c>
       <c r="K27" s="3">
         <v>120800</v>
@@ -1518,19 +1518,19 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E32" s="3">
         <v>-24500</v>
       </c>
       <c r="F32" s="3">
-        <v>-55900</v>
+        <v>-56100</v>
       </c>
       <c r="G32" s="3">
-        <v>-26500</v>
+        <v>-26600</v>
       </c>
       <c r="H32" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="I32" s="3">
         <v>-13000</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>104200</v>
+        <v>104600</v>
       </c>
       <c r="E33" s="3">
-        <v>171300</v>
+        <v>171800</v>
       </c>
       <c r="F33" s="3">
-        <v>167800</v>
+        <v>168400</v>
       </c>
       <c r="G33" s="3">
-        <v>165800</v>
+        <v>166300</v>
       </c>
       <c r="H33" s="3">
-        <v>156600</v>
+        <v>157100</v>
       </c>
       <c r="I33" s="3">
-        <v>155500</v>
+        <v>156000</v>
       </c>
       <c r="J33" s="3">
-        <v>122400</v>
+        <v>122800</v>
       </c>
       <c r="K33" s="3">
         <v>120800</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>104200</v>
+        <v>104600</v>
       </c>
       <c r="E35" s="3">
-        <v>171300</v>
+        <v>171800</v>
       </c>
       <c r="F35" s="3">
-        <v>167800</v>
+        <v>168400</v>
       </c>
       <c r="G35" s="3">
-        <v>165800</v>
+        <v>166300</v>
       </c>
       <c r="H35" s="3">
-        <v>156600</v>
+        <v>157100</v>
       </c>
       <c r="I35" s="3">
-        <v>155500</v>
+        <v>156000</v>
       </c>
       <c r="J35" s="3">
-        <v>122400</v>
+        <v>122800</v>
       </c>
       <c r="K35" s="3">
         <v>120800</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>520600</v>
+        <v>522300</v>
       </c>
       <c r="E41" s="3">
-        <v>428500</v>
+        <v>429900</v>
       </c>
       <c r="F41" s="3">
-        <v>352600</v>
+        <v>353800</v>
       </c>
       <c r="G41" s="3">
-        <v>271300</v>
+        <v>272200</v>
       </c>
       <c r="H41" s="3">
-        <v>327900</v>
+        <v>328900</v>
       </c>
       <c r="I41" s="3">
-        <v>273400</v>
+        <v>274300</v>
       </c>
       <c r="J41" s="3">
-        <v>318900</v>
+        <v>319900</v>
       </c>
       <c r="K41" s="3">
         <v>326400</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>91600</v>
+        <v>91900</v>
       </c>
       <c r="E42" s="3">
-        <v>91600</v>
+        <v>91900</v>
       </c>
       <c r="F42" s="3">
-        <v>87000</v>
+        <v>87300</v>
       </c>
       <c r="G42" s="3">
-        <v>109900</v>
+        <v>110300</v>
       </c>
       <c r="H42" s="3">
-        <v>45800</v>
+        <v>46000</v>
       </c>
       <c r="I42" s="3">
-        <v>45800</v>
+        <v>46000</v>
       </c>
       <c r="J42" s="3">
-        <v>91600</v>
+        <v>91900</v>
       </c>
       <c r="K42" s="3">
         <v>96100</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>671100</v>
+        <v>673300</v>
       </c>
       <c r="E43" s="3">
-        <v>762300</v>
+        <v>764800</v>
       </c>
       <c r="F43" s="3">
-        <v>701500</v>
+        <v>703800</v>
       </c>
       <c r="G43" s="3">
-        <v>714400</v>
+        <v>716700</v>
       </c>
       <c r="H43" s="3">
-        <v>686600</v>
+        <v>688900</v>
       </c>
       <c r="I43" s="3">
-        <v>714300</v>
+        <v>716600</v>
       </c>
       <c r="J43" s="3">
-        <v>744700</v>
+        <v>747100</v>
       </c>
       <c r="K43" s="3">
         <v>742100</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>249300</v>
+        <v>250200</v>
       </c>
       <c r="E44" s="3">
-        <v>264100</v>
+        <v>265000</v>
       </c>
       <c r="F44" s="3">
-        <v>258800</v>
+        <v>259600</v>
       </c>
       <c r="G44" s="3">
-        <v>262900</v>
+        <v>263800</v>
       </c>
       <c r="H44" s="3">
-        <v>237000</v>
+        <v>237700</v>
       </c>
       <c r="I44" s="3">
-        <v>260200</v>
+        <v>261000</v>
       </c>
       <c r="J44" s="3">
-        <v>210200</v>
+        <v>210900</v>
       </c>
       <c r="K44" s="3">
         <v>185500</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>61300</v>
+        <v>61500</v>
       </c>
       <c r="E45" s="3">
-        <v>54500</v>
+        <v>54700</v>
       </c>
       <c r="F45" s="3">
-        <v>78700</v>
+        <v>79000</v>
       </c>
       <c r="G45" s="3">
-        <v>73500</v>
+        <v>73700</v>
       </c>
       <c r="H45" s="3">
-        <v>78200</v>
+        <v>78400</v>
       </c>
       <c r="I45" s="3">
-        <v>91500</v>
+        <v>91800</v>
       </c>
       <c r="J45" s="3">
-        <v>50700</v>
+        <v>50900</v>
       </c>
       <c r="K45" s="3">
         <v>57100</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1593900</v>
+        <v>1599200</v>
       </c>
       <c r="E46" s="3">
-        <v>1601100</v>
+        <v>1606300</v>
       </c>
       <c r="F46" s="3">
-        <v>1451000</v>
+        <v>1455700</v>
       </c>
       <c r="G46" s="3">
-        <v>1432000</v>
+        <v>1436700</v>
       </c>
       <c r="H46" s="3">
-        <v>1375500</v>
+        <v>1380000</v>
       </c>
       <c r="I46" s="3">
-        <v>1360400</v>
+        <v>1364900</v>
       </c>
       <c r="J46" s="3">
-        <v>1416100</v>
+        <v>1420700</v>
       </c>
       <c r="K46" s="3">
         <v>1407200</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>267600</v>
+        <v>268400</v>
       </c>
       <c r="E47" s="3">
-        <v>263300</v>
+        <v>264100</v>
       </c>
       <c r="F47" s="3">
-        <v>285400</v>
+        <v>286300</v>
       </c>
       <c r="G47" s="3">
-        <v>326300</v>
+        <v>327300</v>
       </c>
       <c r="H47" s="3">
-        <v>260400</v>
+        <v>261300</v>
       </c>
       <c r="I47" s="3">
-        <v>530100</v>
+        <v>531900</v>
       </c>
       <c r="J47" s="3">
-        <v>249500</v>
+        <v>250300</v>
       </c>
       <c r="K47" s="3">
         <v>233200</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1940100</v>
+        <v>1946500</v>
       </c>
       <c r="E48" s="3">
-        <v>1900300</v>
+        <v>1906500</v>
       </c>
       <c r="F48" s="3">
-        <v>1821500</v>
+        <v>1827500</v>
       </c>
       <c r="G48" s="3">
-        <v>1783900</v>
+        <v>1789700</v>
       </c>
       <c r="H48" s="3">
-        <v>1679700</v>
+        <v>1685200</v>
       </c>
       <c r="I48" s="3">
-        <v>1571800</v>
+        <v>1577000</v>
       </c>
       <c r="J48" s="3">
-        <v>1406500</v>
+        <v>1411100</v>
       </c>
       <c r="K48" s="3">
         <v>1305300</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>123800</v>
+        <v>124200</v>
       </c>
       <c r="E49" s="3">
-        <v>90900</v>
+        <v>91200</v>
       </c>
       <c r="F49" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="G49" s="3">
-        <v>76600</v>
+        <v>76800</v>
       </c>
       <c r="H49" s="3">
-        <v>52000</v>
+        <v>52200</v>
       </c>
       <c r="I49" s="3">
-        <v>80900</v>
+        <v>81200</v>
       </c>
       <c r="J49" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="K49" s="3">
         <v>25600</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>212400</v>
+        <v>213100</v>
       </c>
       <c r="E52" s="3">
-        <v>214300</v>
+        <v>215000</v>
       </c>
       <c r="F52" s="3">
-        <v>368000</v>
+        <v>369200</v>
       </c>
       <c r="G52" s="3">
-        <v>221200</v>
+        <v>222000</v>
       </c>
       <c r="H52" s="3">
-        <v>167400</v>
+        <v>167900</v>
       </c>
       <c r="I52" s="3">
-        <v>313700</v>
+        <v>314700</v>
       </c>
       <c r="J52" s="3">
-        <v>166900</v>
+        <v>167500</v>
       </c>
       <c r="K52" s="3">
         <v>244700</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4137800</v>
+        <v>4151300</v>
       </c>
       <c r="E54" s="3">
-        <v>4069900</v>
+        <v>4083200</v>
       </c>
       <c r="F54" s="3">
-        <v>3844800</v>
+        <v>3857400</v>
       </c>
       <c r="G54" s="3">
-        <v>3839900</v>
+        <v>3852500</v>
       </c>
       <c r="H54" s="3">
-        <v>3535000</v>
+        <v>3546500</v>
       </c>
       <c r="I54" s="3">
-        <v>3416800</v>
+        <v>3428000</v>
       </c>
       <c r="J54" s="3">
-        <v>3270100</v>
+        <v>3280800</v>
       </c>
       <c r="K54" s="3">
         <v>3216000</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>383100</v>
+        <v>384400</v>
       </c>
       <c r="E57" s="3">
-        <v>488200</v>
+        <v>489800</v>
       </c>
       <c r="F57" s="3">
-        <v>407800</v>
+        <v>409100</v>
       </c>
       <c r="G57" s="3">
-        <v>439800</v>
+        <v>441200</v>
       </c>
       <c r="H57" s="3">
-        <v>431000</v>
+        <v>432400</v>
       </c>
       <c r="I57" s="3">
-        <v>414000</v>
+        <v>415300</v>
       </c>
       <c r="J57" s="3">
-        <v>492600</v>
+        <v>494200</v>
       </c>
       <c r="K57" s="3">
         <v>488100</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>128700</v>
+        <v>129100</v>
       </c>
       <c r="E58" s="3">
-        <v>67100</v>
+        <v>67300</v>
       </c>
       <c r="F58" s="3">
-        <v>270200</v>
+        <v>271100</v>
       </c>
       <c r="G58" s="3">
-        <v>73600</v>
+        <v>73900</v>
       </c>
       <c r="H58" s="3">
-        <v>76000</v>
+        <v>76300</v>
       </c>
       <c r="I58" s="3">
-        <v>179400</v>
+        <v>180000</v>
       </c>
       <c r="J58" s="3">
-        <v>84400</v>
+        <v>84700</v>
       </c>
       <c r="K58" s="3">
         <v>90700</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>279300</v>
+        <v>280200</v>
       </c>
       <c r="E59" s="3">
-        <v>351600</v>
+        <v>352800</v>
       </c>
       <c r="F59" s="3">
-        <v>364800</v>
+        <v>366000</v>
       </c>
       <c r="G59" s="3">
-        <v>317400</v>
+        <v>318500</v>
       </c>
       <c r="H59" s="3">
-        <v>429500</v>
+        <v>431000</v>
       </c>
       <c r="I59" s="3">
-        <v>677800</v>
+        <v>680000</v>
       </c>
       <c r="J59" s="3">
-        <v>394900</v>
+        <v>396200</v>
       </c>
       <c r="K59" s="3">
         <v>342800</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>791200</v>
+        <v>793800</v>
       </c>
       <c r="E60" s="3">
-        <v>906900</v>
+        <v>909900</v>
       </c>
       <c r="F60" s="3">
-        <v>924100</v>
+        <v>927200</v>
       </c>
       <c r="G60" s="3">
-        <v>830800</v>
+        <v>833500</v>
       </c>
       <c r="H60" s="3">
-        <v>936600</v>
+        <v>939600</v>
       </c>
       <c r="I60" s="3">
-        <v>869000</v>
+        <v>871900</v>
       </c>
       <c r="J60" s="3">
-        <v>971800</v>
+        <v>975000</v>
       </c>
       <c r="K60" s="3">
         <v>921600</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>622400</v>
+        <v>624400</v>
       </c>
       <c r="E61" s="3">
-        <v>524400</v>
+        <v>526100</v>
       </c>
       <c r="F61" s="3">
-        <v>370700</v>
+        <v>371900</v>
       </c>
       <c r="G61" s="3">
-        <v>462200</v>
+        <v>463700</v>
       </c>
       <c r="H61" s="3">
-        <v>240700</v>
+        <v>241500</v>
       </c>
       <c r="I61" s="3">
-        <v>149700</v>
+        <v>150200</v>
       </c>
       <c r="J61" s="3">
-        <v>182200</v>
+        <v>182800</v>
       </c>
       <c r="K61" s="3">
         <v>158000</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>110200</v>
+        <v>110500</v>
       </c>
       <c r="E62" s="3">
-        <v>103500</v>
+        <v>103900</v>
       </c>
       <c r="F62" s="3">
-        <v>112500</v>
+        <v>112900</v>
       </c>
       <c r="G62" s="3">
-        <v>133900</v>
+        <v>134300</v>
       </c>
       <c r="H62" s="3">
-        <v>105600</v>
+        <v>105900</v>
       </c>
       <c r="I62" s="3">
-        <v>229400</v>
+        <v>230100</v>
       </c>
       <c r="J62" s="3">
-        <v>97200</v>
+        <v>97500</v>
       </c>
       <c r="K62" s="3">
         <v>115600</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1943700</v>
+        <v>1950000</v>
       </c>
       <c r="E66" s="3">
-        <v>1912200</v>
+        <v>1918500</v>
       </c>
       <c r="F66" s="3">
-        <v>1771600</v>
+        <v>1777400</v>
       </c>
       <c r="G66" s="3">
-        <v>1765700</v>
+        <v>1771500</v>
       </c>
       <c r="H66" s="3">
-        <v>1587400</v>
+        <v>1592600</v>
       </c>
       <c r="I66" s="3">
-        <v>1466300</v>
+        <v>1471100</v>
       </c>
       <c r="J66" s="3">
-        <v>1483400</v>
+        <v>1488300</v>
       </c>
       <c r="K66" s="3">
         <v>1445800</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1845700</v>
+        <v>1851700</v>
       </c>
       <c r="E72" s="3">
-        <v>1800400</v>
+        <v>1806300</v>
       </c>
       <c r="F72" s="3">
-        <v>1680200</v>
+        <v>1685700</v>
       </c>
       <c r="G72" s="3">
-        <v>1562500</v>
+        <v>1567700</v>
       </c>
       <c r="H72" s="3">
-        <v>1527600</v>
+        <v>1532600</v>
       </c>
       <c r="I72" s="3">
-        <v>1414500</v>
+        <v>1419100</v>
       </c>
       <c r="J72" s="3">
-        <v>1305200</v>
+        <v>1309500</v>
       </c>
       <c r="K72" s="3">
         <v>1273200</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2194100</v>
+        <v>2201300</v>
       </c>
       <c r="E76" s="3">
-        <v>2157700</v>
+        <v>2164700</v>
       </c>
       <c r="F76" s="3">
-        <v>2073200</v>
+        <v>2080000</v>
       </c>
       <c r="G76" s="3">
-        <v>2074200</v>
+        <v>2081000</v>
       </c>
       <c r="H76" s="3">
-        <v>1947600</v>
+        <v>1954000</v>
       </c>
       <c r="I76" s="3">
-        <v>1950500</v>
+        <v>1956900</v>
       </c>
       <c r="J76" s="3">
-        <v>1786700</v>
+        <v>1792500</v>
       </c>
       <c r="K76" s="3">
         <v>1770200</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>104200</v>
+        <v>104600</v>
       </c>
       <c r="E81" s="3">
-        <v>171300</v>
+        <v>171800</v>
       </c>
       <c r="F81" s="3">
-        <v>167800</v>
+        <v>168400</v>
       </c>
       <c r="G81" s="3">
-        <v>165800</v>
+        <v>166300</v>
       </c>
       <c r="H81" s="3">
-        <v>156600</v>
+        <v>157100</v>
       </c>
       <c r="I81" s="3">
-        <v>155500</v>
+        <v>156000</v>
       </c>
       <c r="J81" s="3">
-        <v>122400</v>
+        <v>122800</v>
       </c>
       <c r="K81" s="3">
         <v>120800</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>185900</v>
+        <v>186500</v>
       </c>
       <c r="E83" s="3">
-        <v>173100</v>
+        <v>173600</v>
       </c>
       <c r="F83" s="3">
-        <v>171600</v>
+        <v>172100</v>
       </c>
       <c r="G83" s="3">
-        <v>157600</v>
+        <v>158100</v>
       </c>
       <c r="H83" s="3">
-        <v>169200</v>
+        <v>169800</v>
       </c>
       <c r="I83" s="3">
-        <v>177000</v>
+        <v>177600</v>
       </c>
       <c r="J83" s="3">
-        <v>147900</v>
+        <v>148400</v>
       </c>
       <c r="K83" s="3">
         <v>140500</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>320200</v>
+        <v>321200</v>
       </c>
       <c r="E89" s="3">
-        <v>402200</v>
+        <v>403600</v>
       </c>
       <c r="F89" s="3">
-        <v>387000</v>
+        <v>388200</v>
       </c>
       <c r="G89" s="3">
-        <v>249500</v>
+        <v>250300</v>
       </c>
       <c r="H89" s="3">
-        <v>414600</v>
+        <v>415900</v>
       </c>
       <c r="I89" s="3">
-        <v>257400</v>
+        <v>258200</v>
       </c>
       <c r="J89" s="3">
-        <v>315000</v>
+        <v>316100</v>
       </c>
       <c r="K89" s="3">
         <v>263000</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-189700</v>
+        <v>-190300</v>
       </c>
       <c r="E91" s="3">
-        <v>-228600</v>
+        <v>-229300</v>
       </c>
       <c r="F91" s="3">
-        <v>-267600</v>
+        <v>-268500</v>
       </c>
       <c r="G91" s="3">
-        <v>-233600</v>
+        <v>-234300</v>
       </c>
       <c r="H91" s="3">
-        <v>-285300</v>
+        <v>-286300</v>
       </c>
       <c r="I91" s="3">
-        <v>-275100</v>
+        <v>-276000</v>
       </c>
       <c r="J91" s="3">
-        <v>-258700</v>
+        <v>-259600</v>
       </c>
       <c r="K91" s="3">
         <v>-244600</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-238500</v>
+        <v>-239300</v>
       </c>
       <c r="E94" s="3">
-        <v>-272200</v>
+        <v>-273100</v>
       </c>
       <c r="F94" s="3">
-        <v>-185000</v>
+        <v>-185600</v>
       </c>
       <c r="G94" s="3">
-        <v>-287800</v>
+        <v>-288800</v>
       </c>
       <c r="H94" s="3">
-        <v>-293500</v>
+        <v>-294500</v>
       </c>
       <c r="I94" s="3">
-        <v>-285600</v>
+        <v>-286600</v>
       </c>
       <c r="J94" s="3">
-        <v>-282600</v>
+        <v>-283500</v>
       </c>
       <c r="K94" s="3">
         <v>-210400</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-59000</v>
+        <v>-59100</v>
       </c>
       <c r="E96" s="3">
-        <v>-51100</v>
+        <v>-51300</v>
       </c>
       <c r="F96" s="3">
-        <v>-50500</v>
+        <v>-50700</v>
       </c>
       <c r="G96" s="3">
-        <v>-51700</v>
+        <v>-51800</v>
       </c>
       <c r="H96" s="3">
-        <v>-43500</v>
+        <v>-43600</v>
       </c>
       <c r="I96" s="3">
-        <v>-33400</v>
+        <v>-33500</v>
       </c>
       <c r="J96" s="3">
-        <v>-30900</v>
+        <v>-31000</v>
       </c>
       <c r="K96" s="3">
         <v>-30900</v>
@@ -3675,22 +3675,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-42200</v>
+        <v>-42300</v>
       </c>
       <c r="F100" s="3">
-        <v>-140100</v>
+        <v>-140500</v>
       </c>
       <c r="G100" s="3">
-        <v>36700</v>
+        <v>36900</v>
       </c>
       <c r="H100" s="3">
-        <v>-53200</v>
+        <v>-53300</v>
       </c>
       <c r="I100" s="3">
-        <v>-65000</v>
+        <v>-65300</v>
       </c>
       <c r="J100" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="K100" s="3">
         <v>-22200</v>
@@ -3744,22 +3744,22 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>82400</v>
+        <v>82700</v>
       </c>
       <c r="E102" s="3">
-        <v>80700</v>
+        <v>80900</v>
       </c>
       <c r="F102" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="G102" s="3">
         <v>5700</v>
       </c>
       <c r="H102" s="3">
-        <v>54500</v>
+        <v>54700</v>
       </c>
       <c r="I102" s="3">
-        <v>-91100</v>
+        <v>-91400</v>
       </c>
       <c r="J102" s="3">
         <v>7600</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4880800</v>
+        <v>4838300</v>
       </c>
       <c r="E8" s="3">
-        <v>5015200</v>
+        <v>4971500</v>
       </c>
       <c r="F8" s="3">
-        <v>5270700</v>
+        <v>5224800</v>
       </c>
       <c r="G8" s="3">
-        <v>5161900</v>
+        <v>5117000</v>
       </c>
       <c r="H8" s="3">
-        <v>5075700</v>
+        <v>5031500</v>
       </c>
       <c r="I8" s="3">
-        <v>5052400</v>
+        <v>5008400</v>
       </c>
       <c r="J8" s="3">
-        <v>5085800</v>
+        <v>5041500</v>
       </c>
       <c r="K8" s="3">
         <v>5098600</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3729200</v>
+        <v>3696700</v>
       </c>
       <c r="E9" s="3">
-        <v>3793100</v>
+        <v>3760100</v>
       </c>
       <c r="F9" s="3">
-        <v>4047100</v>
+        <v>4011800</v>
       </c>
       <c r="G9" s="3">
-        <v>3977200</v>
+        <v>3942600</v>
       </c>
       <c r="H9" s="3">
-        <v>3941100</v>
+        <v>3906800</v>
       </c>
       <c r="I9" s="3">
-        <v>3974600</v>
+        <v>3940000</v>
       </c>
       <c r="J9" s="3">
-        <v>3851000</v>
+        <v>3817500</v>
       </c>
       <c r="K9" s="3">
         <v>3865900</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1151600</v>
+        <v>1141600</v>
       </c>
       <c r="E10" s="3">
-        <v>1222100</v>
+        <v>1211500</v>
       </c>
       <c r="F10" s="3">
-        <v>1223600</v>
+        <v>1213000</v>
       </c>
       <c r="G10" s="3">
-        <v>1184700</v>
+        <v>1174400</v>
       </c>
       <c r="H10" s="3">
-        <v>1134600</v>
+        <v>1124700</v>
       </c>
       <c r="I10" s="3">
-        <v>1077800</v>
+        <v>1068500</v>
       </c>
       <c r="J10" s="3">
-        <v>1234800</v>
+        <v>1224000</v>
       </c>
       <c r="K10" s="3">
         <v>1232600</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36400</v>
+        <v>36100</v>
       </c>
       <c r="E12" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="F12" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="G12" s="3">
-        <v>37300</v>
+        <v>37000</v>
       </c>
       <c r="H12" s="3">
-        <v>37000</v>
+        <v>36700</v>
       </c>
       <c r="I12" s="3">
-        <v>38600</v>
+        <v>38300</v>
       </c>
       <c r="J12" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="K12" s="3">
         <v>35200</v>
@@ -913,25 +913,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="E14" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="F14" s="3">
-        <v>48200</v>
+        <v>47700</v>
       </c>
       <c r="G14" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="I14" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="J14" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K14" s="3">
         <v>18000</v>
@@ -949,25 +949,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="E15" s="3">
-        <v>26600</v>
+        <v>26400</v>
       </c>
       <c r="F15" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="G15" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="H15" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="I15" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="J15" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4661600</v>
+        <v>4621000</v>
       </c>
       <c r="E17" s="3">
-        <v>4738500</v>
+        <v>4697200</v>
       </c>
       <c r="F17" s="3">
-        <v>5015000</v>
+        <v>4971300</v>
       </c>
       <c r="G17" s="3">
-        <v>4902100</v>
+        <v>4859500</v>
       </c>
       <c r="H17" s="3">
-        <v>4816600</v>
+        <v>4774700</v>
       </c>
       <c r="I17" s="3">
-        <v>4800000</v>
+        <v>4758200</v>
       </c>
       <c r="J17" s="3">
-        <v>4872500</v>
+        <v>4830100</v>
       </c>
       <c r="K17" s="3">
         <v>4901300</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>219200</v>
+        <v>217300</v>
       </c>
       <c r="E18" s="3">
-        <v>276700</v>
+        <v>274300</v>
       </c>
       <c r="F18" s="3">
-        <v>255700</v>
+        <v>253500</v>
       </c>
       <c r="G18" s="3">
-        <v>259800</v>
+        <v>257500</v>
       </c>
       <c r="H18" s="3">
-        <v>259000</v>
+        <v>256800</v>
       </c>
       <c r="I18" s="3">
-        <v>252500</v>
+        <v>250300</v>
       </c>
       <c r="J18" s="3">
-        <v>213200</v>
+        <v>211400</v>
       </c>
       <c r="K18" s="3">
         <v>197200</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="E20" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="F20" s="3">
-        <v>56100</v>
+        <v>55600</v>
       </c>
       <c r="G20" s="3">
-        <v>26600</v>
+        <v>26400</v>
       </c>
       <c r="H20" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="I20" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J20" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="K20" s="3">
         <v>20600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>399500</v>
+        <v>395900</v>
       </c>
       <c r="E21" s="3">
-        <v>475100</v>
+        <v>470800</v>
       </c>
       <c r="F21" s="3">
-        <v>484100</v>
+        <v>479700</v>
       </c>
       <c r="G21" s="3">
-        <v>444600</v>
+        <v>440600</v>
       </c>
       <c r="H21" s="3">
-        <v>451200</v>
+        <v>447100</v>
       </c>
       <c r="I21" s="3">
-        <v>443300</v>
+        <v>439200</v>
       </c>
       <c r="J21" s="3">
-        <v>377100</v>
+        <v>373700</v>
       </c>
       <c r="K21" s="3">
         <v>358000</v>
@@ -1167,10 +1167,10 @@
         <v>3100</v>
       </c>
       <c r="G22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I22" s="3">
         <v>2900</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>209800</v>
+        <v>207900</v>
       </c>
       <c r="E23" s="3">
-        <v>298600</v>
+        <v>296000</v>
       </c>
       <c r="F23" s="3">
-        <v>308700</v>
+        <v>306000</v>
       </c>
       <c r="G23" s="3">
-        <v>282900</v>
+        <v>280400</v>
       </c>
       <c r="H23" s="3">
-        <v>278400</v>
+        <v>275900</v>
       </c>
       <c r="I23" s="3">
-        <v>262600</v>
+        <v>260300</v>
       </c>
       <c r="J23" s="3">
-        <v>225800</v>
+        <v>223900</v>
       </c>
       <c r="K23" s="3">
         <v>215300</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>81100</v>
+        <v>80400</v>
       </c>
       <c r="E24" s="3">
-        <v>97200</v>
+        <v>96300</v>
       </c>
       <c r="F24" s="3">
-        <v>107700</v>
+        <v>106800</v>
       </c>
       <c r="G24" s="3">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="H24" s="3">
-        <v>94200</v>
+        <v>93400</v>
       </c>
       <c r="I24" s="3">
-        <v>81600</v>
+        <v>80900</v>
       </c>
       <c r="J24" s="3">
-        <v>83900</v>
+        <v>83200</v>
       </c>
       <c r="K24" s="3">
         <v>73600</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>128700</v>
+        <v>127500</v>
       </c>
       <c r="E26" s="3">
-        <v>201400</v>
+        <v>199600</v>
       </c>
       <c r="F26" s="3">
-        <v>200900</v>
+        <v>199200</v>
       </c>
       <c r="G26" s="3">
-        <v>198100</v>
+        <v>196400</v>
       </c>
       <c r="H26" s="3">
-        <v>184100</v>
+        <v>182500</v>
       </c>
       <c r="I26" s="3">
-        <v>181000</v>
+        <v>179400</v>
       </c>
       <c r="J26" s="3">
-        <v>141900</v>
+        <v>140700</v>
       </c>
       <c r="K26" s="3">
         <v>141700</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>104600</v>
+        <v>103700</v>
       </c>
       <c r="E27" s="3">
-        <v>171800</v>
+        <v>170300</v>
       </c>
       <c r="F27" s="3">
-        <v>168400</v>
+        <v>166900</v>
       </c>
       <c r="G27" s="3">
-        <v>166300</v>
+        <v>164900</v>
       </c>
       <c r="H27" s="3">
-        <v>157100</v>
+        <v>155700</v>
       </c>
       <c r="I27" s="3">
-        <v>156000</v>
+        <v>154600</v>
       </c>
       <c r="J27" s="3">
-        <v>122800</v>
+        <v>121800</v>
       </c>
       <c r="K27" s="3">
         <v>120800</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-24500</v>
+        <v>-24300</v>
       </c>
       <c r="F32" s="3">
-        <v>-56100</v>
+        <v>-55600</v>
       </c>
       <c r="G32" s="3">
-        <v>-26600</v>
+        <v>-26400</v>
       </c>
       <c r="H32" s="3">
-        <v>-22200</v>
+        <v>-22000</v>
       </c>
       <c r="I32" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="J32" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="K32" s="3">
         <v>-20600</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>104600</v>
+        <v>103700</v>
       </c>
       <c r="E33" s="3">
-        <v>171800</v>
+        <v>170300</v>
       </c>
       <c r="F33" s="3">
-        <v>168400</v>
+        <v>166900</v>
       </c>
       <c r="G33" s="3">
-        <v>166300</v>
+        <v>164900</v>
       </c>
       <c r="H33" s="3">
-        <v>157100</v>
+        <v>155700</v>
       </c>
       <c r="I33" s="3">
-        <v>156000</v>
+        <v>154600</v>
       </c>
       <c r="J33" s="3">
-        <v>122800</v>
+        <v>121800</v>
       </c>
       <c r="K33" s="3">
         <v>120800</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>104600</v>
+        <v>103700</v>
       </c>
       <c r="E35" s="3">
-        <v>171800</v>
+        <v>170300</v>
       </c>
       <c r="F35" s="3">
-        <v>168400</v>
+        <v>166900</v>
       </c>
       <c r="G35" s="3">
-        <v>166300</v>
+        <v>164900</v>
       </c>
       <c r="H35" s="3">
-        <v>157100</v>
+        <v>155700</v>
       </c>
       <c r="I35" s="3">
-        <v>156000</v>
+        <v>154600</v>
       </c>
       <c r="J35" s="3">
-        <v>122800</v>
+        <v>121800</v>
       </c>
       <c r="K35" s="3">
         <v>120800</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>522300</v>
+        <v>517800</v>
       </c>
       <c r="E41" s="3">
-        <v>429900</v>
+        <v>426100</v>
       </c>
       <c r="F41" s="3">
-        <v>353800</v>
+        <v>350700</v>
       </c>
       <c r="G41" s="3">
-        <v>272200</v>
+        <v>269800</v>
       </c>
       <c r="H41" s="3">
-        <v>328900</v>
+        <v>326100</v>
       </c>
       <c r="I41" s="3">
-        <v>274300</v>
+        <v>271900</v>
       </c>
       <c r="J41" s="3">
-        <v>319900</v>
+        <v>317200</v>
       </c>
       <c r="K41" s="3">
         <v>326400</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="E42" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="F42" s="3">
-        <v>87300</v>
+        <v>86500</v>
       </c>
       <c r="G42" s="3">
-        <v>110300</v>
+        <v>109300</v>
       </c>
       <c r="H42" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="I42" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="J42" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="K42" s="3">
         <v>96100</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>673300</v>
+        <v>667400</v>
       </c>
       <c r="E43" s="3">
-        <v>764800</v>
+        <v>758200</v>
       </c>
       <c r="F43" s="3">
-        <v>703800</v>
+        <v>697700</v>
       </c>
       <c r="G43" s="3">
-        <v>716700</v>
+        <v>710500</v>
       </c>
       <c r="H43" s="3">
-        <v>688900</v>
+        <v>682900</v>
       </c>
       <c r="I43" s="3">
-        <v>716600</v>
+        <v>710400</v>
       </c>
       <c r="J43" s="3">
-        <v>747100</v>
+        <v>740600</v>
       </c>
       <c r="K43" s="3">
         <v>742100</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>250200</v>
+        <v>248000</v>
       </c>
       <c r="E44" s="3">
-        <v>265000</v>
+        <v>262700</v>
       </c>
       <c r="F44" s="3">
-        <v>259600</v>
+        <v>257400</v>
       </c>
       <c r="G44" s="3">
-        <v>263800</v>
+        <v>261500</v>
       </c>
       <c r="H44" s="3">
-        <v>237700</v>
+        <v>235700</v>
       </c>
       <c r="I44" s="3">
-        <v>261000</v>
+        <v>258800</v>
       </c>
       <c r="J44" s="3">
-        <v>210900</v>
+        <v>209100</v>
       </c>
       <c r="K44" s="3">
         <v>185500</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="E45" s="3">
-        <v>54700</v>
+        <v>54200</v>
       </c>
       <c r="F45" s="3">
-        <v>79000</v>
+        <v>78300</v>
       </c>
       <c r="G45" s="3">
-        <v>73700</v>
+        <v>73100</v>
       </c>
       <c r="H45" s="3">
-        <v>78400</v>
+        <v>77800</v>
       </c>
       <c r="I45" s="3">
-        <v>91800</v>
+        <v>91000</v>
       </c>
       <c r="J45" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="K45" s="3">
         <v>57100</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1599200</v>
+        <v>1585200</v>
       </c>
       <c r="E46" s="3">
-        <v>1606300</v>
+        <v>1592300</v>
       </c>
       <c r="F46" s="3">
-        <v>1455700</v>
+        <v>1443000</v>
       </c>
       <c r="G46" s="3">
-        <v>1436700</v>
+        <v>1424200</v>
       </c>
       <c r="H46" s="3">
-        <v>1380000</v>
+        <v>1368000</v>
       </c>
       <c r="I46" s="3">
-        <v>1364900</v>
+        <v>1353000</v>
       </c>
       <c r="J46" s="3">
-        <v>1420700</v>
+        <v>1408300</v>
       </c>
       <c r="K46" s="3">
         <v>1407200</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>268400</v>
+        <v>266100</v>
       </c>
       <c r="E47" s="3">
-        <v>264100</v>
+        <v>261800</v>
       </c>
       <c r="F47" s="3">
-        <v>286300</v>
+        <v>283800</v>
       </c>
       <c r="G47" s="3">
-        <v>327300</v>
+        <v>324500</v>
       </c>
       <c r="H47" s="3">
-        <v>261300</v>
+        <v>259000</v>
       </c>
       <c r="I47" s="3">
-        <v>531900</v>
+        <v>527200</v>
       </c>
       <c r="J47" s="3">
-        <v>250300</v>
+        <v>248100</v>
       </c>
       <c r="K47" s="3">
         <v>233200</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1946500</v>
+        <v>1929500</v>
       </c>
       <c r="E48" s="3">
-        <v>1906500</v>
+        <v>1889900</v>
       </c>
       <c r="F48" s="3">
-        <v>1827500</v>
+        <v>1811600</v>
       </c>
       <c r="G48" s="3">
-        <v>1789700</v>
+        <v>1774100</v>
       </c>
       <c r="H48" s="3">
-        <v>1685200</v>
+        <v>1670600</v>
       </c>
       <c r="I48" s="3">
-        <v>1577000</v>
+        <v>1563300</v>
       </c>
       <c r="J48" s="3">
-        <v>1411100</v>
+        <v>1398800</v>
       </c>
       <c r="K48" s="3">
         <v>1305300</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>124200</v>
+        <v>123100</v>
       </c>
       <c r="E49" s="3">
-        <v>91200</v>
+        <v>90400</v>
       </c>
       <c r="F49" s="3">
-        <v>57800</v>
+        <v>57300</v>
       </c>
       <c r="G49" s="3">
-        <v>76800</v>
+        <v>76200</v>
       </c>
       <c r="H49" s="3">
-        <v>52200</v>
+        <v>51700</v>
       </c>
       <c r="I49" s="3">
-        <v>81200</v>
+        <v>80500</v>
       </c>
       <c r="J49" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="K49" s="3">
         <v>25600</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>213100</v>
+        <v>211200</v>
       </c>
       <c r="E52" s="3">
-        <v>215000</v>
+        <v>213200</v>
       </c>
       <c r="F52" s="3">
-        <v>369200</v>
+        <v>365900</v>
       </c>
       <c r="G52" s="3">
-        <v>222000</v>
+        <v>220000</v>
       </c>
       <c r="H52" s="3">
-        <v>167900</v>
+        <v>166400</v>
       </c>
       <c r="I52" s="3">
-        <v>314700</v>
+        <v>312000</v>
       </c>
       <c r="J52" s="3">
-        <v>167500</v>
+        <v>166000</v>
       </c>
       <c r="K52" s="3">
         <v>244700</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4151300</v>
+        <v>4115200</v>
       </c>
       <c r="E54" s="3">
-        <v>4083200</v>
+        <v>4047700</v>
       </c>
       <c r="F54" s="3">
-        <v>3857400</v>
+        <v>3823800</v>
       </c>
       <c r="G54" s="3">
-        <v>3852500</v>
+        <v>3819000</v>
       </c>
       <c r="H54" s="3">
-        <v>3546500</v>
+        <v>3515700</v>
       </c>
       <c r="I54" s="3">
-        <v>3428000</v>
+        <v>3398200</v>
       </c>
       <c r="J54" s="3">
-        <v>3280800</v>
+        <v>3252200</v>
       </c>
       <c r="K54" s="3">
         <v>3216000</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>384400</v>
+        <v>381100</v>
       </c>
       <c r="E57" s="3">
-        <v>489800</v>
+        <v>485600</v>
       </c>
       <c r="F57" s="3">
-        <v>409100</v>
+        <v>405600</v>
       </c>
       <c r="G57" s="3">
-        <v>441200</v>
+        <v>437400</v>
       </c>
       <c r="H57" s="3">
-        <v>432400</v>
+        <v>428600</v>
       </c>
       <c r="I57" s="3">
-        <v>415300</v>
+        <v>411700</v>
       </c>
       <c r="J57" s="3">
-        <v>494200</v>
+        <v>489900</v>
       </c>
       <c r="K57" s="3">
         <v>488100</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>129100</v>
+        <v>128000</v>
       </c>
       <c r="E58" s="3">
-        <v>67300</v>
+        <v>66700</v>
       </c>
       <c r="F58" s="3">
-        <v>271100</v>
+        <v>268700</v>
       </c>
       <c r="G58" s="3">
-        <v>73900</v>
+        <v>73200</v>
       </c>
       <c r="H58" s="3">
-        <v>76300</v>
+        <v>75600</v>
       </c>
       <c r="I58" s="3">
-        <v>180000</v>
+        <v>178400</v>
       </c>
       <c r="J58" s="3">
-        <v>84700</v>
+        <v>83900</v>
       </c>
       <c r="K58" s="3">
         <v>90700</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>280200</v>
+        <v>277800</v>
       </c>
       <c r="E59" s="3">
-        <v>352800</v>
+        <v>349700</v>
       </c>
       <c r="F59" s="3">
-        <v>366000</v>
+        <v>362800</v>
       </c>
       <c r="G59" s="3">
-        <v>318500</v>
+        <v>315700</v>
       </c>
       <c r="H59" s="3">
-        <v>431000</v>
+        <v>427200</v>
       </c>
       <c r="I59" s="3">
-        <v>680000</v>
+        <v>674100</v>
       </c>
       <c r="J59" s="3">
-        <v>396200</v>
+        <v>392700</v>
       </c>
       <c r="K59" s="3">
         <v>342800</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>793800</v>
+        <v>786900</v>
       </c>
       <c r="E60" s="3">
-        <v>909900</v>
+        <v>901900</v>
       </c>
       <c r="F60" s="3">
-        <v>927200</v>
+        <v>919100</v>
       </c>
       <c r="G60" s="3">
-        <v>833500</v>
+        <v>826200</v>
       </c>
       <c r="H60" s="3">
-        <v>939600</v>
+        <v>931500</v>
       </c>
       <c r="I60" s="3">
-        <v>871900</v>
+        <v>864300</v>
       </c>
       <c r="J60" s="3">
-        <v>975000</v>
+        <v>966500</v>
       </c>
       <c r="K60" s="3">
         <v>921600</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>624400</v>
+        <v>619000</v>
       </c>
       <c r="E61" s="3">
-        <v>526100</v>
+        <v>521500</v>
       </c>
       <c r="F61" s="3">
-        <v>371900</v>
+        <v>368700</v>
       </c>
       <c r="G61" s="3">
-        <v>463700</v>
+        <v>459700</v>
       </c>
       <c r="H61" s="3">
-        <v>241500</v>
+        <v>239400</v>
       </c>
       <c r="I61" s="3">
-        <v>150200</v>
+        <v>148900</v>
       </c>
       <c r="J61" s="3">
-        <v>182800</v>
+        <v>181200</v>
       </c>
       <c r="K61" s="3">
         <v>158000</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>110500</v>
+        <v>109600</v>
       </c>
       <c r="E62" s="3">
-        <v>103900</v>
+        <v>103000</v>
       </c>
       <c r="F62" s="3">
-        <v>112900</v>
+        <v>111900</v>
       </c>
       <c r="G62" s="3">
-        <v>134300</v>
+        <v>133200</v>
       </c>
       <c r="H62" s="3">
-        <v>105900</v>
+        <v>105000</v>
       </c>
       <c r="I62" s="3">
-        <v>230100</v>
+        <v>228100</v>
       </c>
       <c r="J62" s="3">
-        <v>97500</v>
+        <v>96600</v>
       </c>
       <c r="K62" s="3">
         <v>115600</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1950000</v>
+        <v>1933100</v>
       </c>
       <c r="E66" s="3">
-        <v>1918500</v>
+        <v>1901800</v>
       </c>
       <c r="F66" s="3">
-        <v>1777400</v>
+        <v>1761900</v>
       </c>
       <c r="G66" s="3">
-        <v>1771500</v>
+        <v>1756100</v>
       </c>
       <c r="H66" s="3">
-        <v>1592600</v>
+        <v>1578700</v>
       </c>
       <c r="I66" s="3">
-        <v>1471100</v>
+        <v>1458300</v>
       </c>
       <c r="J66" s="3">
-        <v>1488300</v>
+        <v>1475300</v>
       </c>
       <c r="K66" s="3">
         <v>1445800</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1851700</v>
+        <v>1835600</v>
       </c>
       <c r="E72" s="3">
-        <v>1806300</v>
+        <v>1790600</v>
       </c>
       <c r="F72" s="3">
-        <v>1685700</v>
+        <v>1671100</v>
       </c>
       <c r="G72" s="3">
-        <v>1567700</v>
+        <v>1554000</v>
       </c>
       <c r="H72" s="3">
-        <v>1532600</v>
+        <v>1519200</v>
       </c>
       <c r="I72" s="3">
-        <v>1419100</v>
+        <v>1406800</v>
       </c>
       <c r="J72" s="3">
-        <v>1309500</v>
+        <v>1298100</v>
       </c>
       <c r="K72" s="3">
         <v>1273200</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2201300</v>
+        <v>2182100</v>
       </c>
       <c r="E76" s="3">
-        <v>2164700</v>
+        <v>2145900</v>
       </c>
       <c r="F76" s="3">
-        <v>2080000</v>
+        <v>2061900</v>
       </c>
       <c r="G76" s="3">
-        <v>2081000</v>
+        <v>2062900</v>
       </c>
       <c r="H76" s="3">
-        <v>1954000</v>
+        <v>1937000</v>
       </c>
       <c r="I76" s="3">
-        <v>1956900</v>
+        <v>1939900</v>
       </c>
       <c r="J76" s="3">
-        <v>1792500</v>
+        <v>1776900</v>
       </c>
       <c r="K76" s="3">
         <v>1770200</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>104600</v>
+        <v>103700</v>
       </c>
       <c r="E81" s="3">
-        <v>171800</v>
+        <v>170300</v>
       </c>
       <c r="F81" s="3">
-        <v>168400</v>
+        <v>166900</v>
       </c>
       <c r="G81" s="3">
-        <v>166300</v>
+        <v>164900</v>
       </c>
       <c r="H81" s="3">
-        <v>157100</v>
+        <v>155700</v>
       </c>
       <c r="I81" s="3">
-        <v>156000</v>
+        <v>154600</v>
       </c>
       <c r="J81" s="3">
-        <v>122800</v>
+        <v>121800</v>
       </c>
       <c r="K81" s="3">
         <v>120800</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>186500</v>
+        <v>184900</v>
       </c>
       <c r="E83" s="3">
-        <v>173600</v>
+        <v>172100</v>
       </c>
       <c r="F83" s="3">
-        <v>172100</v>
+        <v>170600</v>
       </c>
       <c r="G83" s="3">
-        <v>158100</v>
+        <v>156700</v>
       </c>
       <c r="H83" s="3">
-        <v>169800</v>
+        <v>168300</v>
       </c>
       <c r="I83" s="3">
-        <v>177600</v>
+        <v>176000</v>
       </c>
       <c r="J83" s="3">
-        <v>148400</v>
+        <v>147100</v>
       </c>
       <c r="K83" s="3">
         <v>140500</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>321200</v>
+        <v>318400</v>
       </c>
       <c r="E89" s="3">
-        <v>403600</v>
+        <v>400000</v>
       </c>
       <c r="F89" s="3">
-        <v>388200</v>
+        <v>384800</v>
       </c>
       <c r="G89" s="3">
-        <v>250300</v>
+        <v>248100</v>
       </c>
       <c r="H89" s="3">
-        <v>415900</v>
+        <v>412300</v>
       </c>
       <c r="I89" s="3">
-        <v>258200</v>
+        <v>256000</v>
       </c>
       <c r="J89" s="3">
-        <v>316100</v>
+        <v>313300</v>
       </c>
       <c r="K89" s="3">
         <v>263000</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-190300</v>
+        <v>-188600</v>
       </c>
       <c r="E91" s="3">
-        <v>-229300</v>
+        <v>-227300</v>
       </c>
       <c r="F91" s="3">
-        <v>-268500</v>
+        <v>-266200</v>
       </c>
       <c r="G91" s="3">
-        <v>-234300</v>
+        <v>-232300</v>
       </c>
       <c r="H91" s="3">
-        <v>-286300</v>
+        <v>-283800</v>
       </c>
       <c r="I91" s="3">
-        <v>-276000</v>
+        <v>-273600</v>
       </c>
       <c r="J91" s="3">
-        <v>-259600</v>
+        <v>-257300</v>
       </c>
       <c r="K91" s="3">
         <v>-244600</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-239300</v>
+        <v>-237200</v>
       </c>
       <c r="E94" s="3">
-        <v>-273100</v>
+        <v>-270700</v>
       </c>
       <c r="F94" s="3">
-        <v>-185600</v>
+        <v>-184000</v>
       </c>
       <c r="G94" s="3">
-        <v>-288800</v>
+        <v>-286200</v>
       </c>
       <c r="H94" s="3">
-        <v>-294500</v>
+        <v>-291900</v>
       </c>
       <c r="I94" s="3">
-        <v>-286600</v>
+        <v>-284100</v>
       </c>
       <c r="J94" s="3">
-        <v>-283500</v>
+        <v>-281000</v>
       </c>
       <c r="K94" s="3">
         <v>-210400</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-59100</v>
+        <v>-58600</v>
       </c>
       <c r="E96" s="3">
-        <v>-51300</v>
+        <v>-50800</v>
       </c>
       <c r="F96" s="3">
-        <v>-50700</v>
+        <v>-50200</v>
       </c>
       <c r="G96" s="3">
-        <v>-51800</v>
+        <v>-51400</v>
       </c>
       <c r="H96" s="3">
-        <v>-43600</v>
+        <v>-43300</v>
       </c>
       <c r="I96" s="3">
-        <v>-33500</v>
+        <v>-33200</v>
       </c>
       <c r="J96" s="3">
-        <v>-31000</v>
+        <v>-30700</v>
       </c>
       <c r="K96" s="3">
         <v>-30900</v>
@@ -3675,22 +3675,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-42300</v>
+        <v>-41900</v>
       </c>
       <c r="F100" s="3">
-        <v>-140500</v>
+        <v>-139300</v>
       </c>
       <c r="G100" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="H100" s="3">
-        <v>-53300</v>
+        <v>-52900</v>
       </c>
       <c r="I100" s="3">
-        <v>-65300</v>
+        <v>-64700</v>
       </c>
       <c r="J100" s="3">
-        <v>-28900</v>
+        <v>-28700</v>
       </c>
       <c r="K100" s="3">
         <v>-22200</v>
@@ -3720,10 +3720,10 @@
         <v>7300</v>
       </c>
       <c r="H101" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3">
         <v>3900</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>82700</v>
+        <v>82000</v>
       </c>
       <c r="E102" s="3">
-        <v>80900</v>
+        <v>80200</v>
       </c>
       <c r="F102" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="G102" s="3">
         <v>5700</v>
       </c>
       <c r="H102" s="3">
-        <v>54700</v>
+        <v>54200</v>
       </c>
       <c r="I102" s="3">
-        <v>-91400</v>
+        <v>-90600</v>
       </c>
       <c r="J102" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K102" s="3">
         <v>34400</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4838300</v>
+        <v>4679000</v>
       </c>
       <c r="E8" s="3">
-        <v>4971500</v>
+        <v>4807800</v>
       </c>
       <c r="F8" s="3">
-        <v>5224800</v>
+        <v>5052800</v>
       </c>
       <c r="G8" s="3">
-        <v>5117000</v>
+        <v>4948500</v>
       </c>
       <c r="H8" s="3">
-        <v>5031500</v>
+        <v>4865800</v>
       </c>
       <c r="I8" s="3">
-        <v>5008400</v>
+        <v>4843500</v>
       </c>
       <c r="J8" s="3">
-        <v>5041500</v>
+        <v>4875500</v>
       </c>
       <c r="K8" s="3">
         <v>5098600</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3696700</v>
+        <v>3575000</v>
       </c>
       <c r="E9" s="3">
-        <v>3760100</v>
+        <v>3636200</v>
       </c>
       <c r="F9" s="3">
-        <v>4011800</v>
+        <v>3879700</v>
       </c>
       <c r="G9" s="3">
-        <v>3942600</v>
+        <v>3812700</v>
       </c>
       <c r="H9" s="3">
-        <v>3906800</v>
+        <v>3778200</v>
       </c>
       <c r="I9" s="3">
-        <v>3940000</v>
+        <v>3810200</v>
       </c>
       <c r="J9" s="3">
-        <v>3817500</v>
+        <v>3691800</v>
       </c>
       <c r="K9" s="3">
         <v>3865900</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1141600</v>
+        <v>1104000</v>
       </c>
       <c r="E10" s="3">
-        <v>1211500</v>
+        <v>1171600</v>
       </c>
       <c r="F10" s="3">
-        <v>1213000</v>
+        <v>1173000</v>
       </c>
       <c r="G10" s="3">
-        <v>1174400</v>
+        <v>1135700</v>
       </c>
       <c r="H10" s="3">
-        <v>1124700</v>
+        <v>1087700</v>
       </c>
       <c r="I10" s="3">
-        <v>1068500</v>
+        <v>1033300</v>
       </c>
       <c r="J10" s="3">
-        <v>1224000</v>
+        <v>1183700</v>
       </c>
       <c r="K10" s="3">
         <v>1232600</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="E12" s="3">
-        <v>37900</v>
+        <v>36600</v>
       </c>
       <c r="F12" s="3">
-        <v>37700</v>
+        <v>36500</v>
       </c>
       <c r="G12" s="3">
+        <v>35800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>35500</v>
+      </c>
+      <c r="I12" s="3">
         <v>37000</v>
       </c>
-      <c r="H12" s="3">
-        <v>36700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>38300</v>
-      </c>
       <c r="J12" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="K12" s="3">
         <v>35200</v>
@@ -913,25 +913,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40500</v>
+        <v>39200</v>
       </c>
       <c r="E14" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="F14" s="3">
-        <v>47700</v>
+        <v>46200</v>
       </c>
       <c r="G14" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="H14" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="I14" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="J14" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="K14" s="3">
         <v>18000</v>
@@ -949,25 +949,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="E15" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="F15" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="G15" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="H15" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="I15" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="J15" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4621000</v>
+        <v>4468900</v>
       </c>
       <c r="E17" s="3">
-        <v>4697200</v>
+        <v>4542500</v>
       </c>
       <c r="F17" s="3">
-        <v>4971300</v>
+        <v>4807600</v>
       </c>
       <c r="G17" s="3">
-        <v>4859500</v>
+        <v>4699400</v>
       </c>
       <c r="H17" s="3">
-        <v>4774700</v>
+        <v>4617500</v>
       </c>
       <c r="I17" s="3">
-        <v>4758200</v>
+        <v>4601500</v>
       </c>
       <c r="J17" s="3">
-        <v>4830100</v>
+        <v>4671100</v>
       </c>
       <c r="K17" s="3">
         <v>4901300</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>217300</v>
+        <v>210200</v>
       </c>
       <c r="E18" s="3">
-        <v>274300</v>
+        <v>265300</v>
       </c>
       <c r="F18" s="3">
-        <v>253500</v>
+        <v>245200</v>
       </c>
       <c r="G18" s="3">
-        <v>257500</v>
+        <v>249000</v>
       </c>
       <c r="H18" s="3">
-        <v>256800</v>
+        <v>248300</v>
       </c>
       <c r="I18" s="3">
-        <v>250300</v>
+        <v>242000</v>
       </c>
       <c r="J18" s="3">
-        <v>211400</v>
+        <v>204400</v>
       </c>
       <c r="K18" s="3">
         <v>197200</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="E20" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="F20" s="3">
-        <v>55600</v>
+        <v>53700</v>
       </c>
       <c r="G20" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="H20" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="J20" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="K20" s="3">
         <v>20600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>395900</v>
+        <v>383200</v>
       </c>
       <c r="E21" s="3">
-        <v>470800</v>
+        <v>455600</v>
       </c>
       <c r="F21" s="3">
-        <v>479700</v>
+        <v>464300</v>
       </c>
       <c r="G21" s="3">
-        <v>440600</v>
+        <v>426400</v>
       </c>
       <c r="H21" s="3">
-        <v>447100</v>
+        <v>432700</v>
       </c>
       <c r="I21" s="3">
-        <v>439200</v>
+        <v>425100</v>
       </c>
       <c r="J21" s="3">
-        <v>373700</v>
+        <v>361700</v>
       </c>
       <c r="K21" s="3">
         <v>358000</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
-        <v>2900</v>
-      </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K22" s="3">
         <v>2500</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>207900</v>
+        <v>201100</v>
       </c>
       <c r="E23" s="3">
-        <v>296000</v>
+        <v>286200</v>
       </c>
       <c r="F23" s="3">
-        <v>306000</v>
+        <v>295900</v>
       </c>
       <c r="G23" s="3">
-        <v>280400</v>
+        <v>271200</v>
       </c>
       <c r="H23" s="3">
-        <v>275900</v>
+        <v>266900</v>
       </c>
       <c r="I23" s="3">
-        <v>260300</v>
+        <v>251800</v>
       </c>
       <c r="J23" s="3">
-        <v>223900</v>
+        <v>216500</v>
       </c>
       <c r="K23" s="3">
         <v>215300</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>93100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>103300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>81300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>90300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>78200</v>
+      </c>
+      <c r="J24" s="3">
         <v>80400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>96300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>106800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>84000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>93400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>80900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>83200</v>
       </c>
       <c r="K24" s="3">
         <v>73600</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>127500</v>
+        <v>123300</v>
       </c>
       <c r="E26" s="3">
-        <v>199600</v>
+        <v>193100</v>
       </c>
       <c r="F26" s="3">
-        <v>199200</v>
+        <v>192600</v>
       </c>
       <c r="G26" s="3">
-        <v>196400</v>
+        <v>189900</v>
       </c>
       <c r="H26" s="3">
-        <v>182500</v>
+        <v>176500</v>
       </c>
       <c r="I26" s="3">
-        <v>179400</v>
+        <v>173500</v>
       </c>
       <c r="J26" s="3">
-        <v>140700</v>
+        <v>136100</v>
       </c>
       <c r="K26" s="3">
         <v>141700</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>103700</v>
+        <v>100200</v>
       </c>
       <c r="E27" s="3">
-        <v>170300</v>
+        <v>164700</v>
       </c>
       <c r="F27" s="3">
-        <v>166900</v>
+        <v>161400</v>
       </c>
       <c r="G27" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H27" s="3">
-        <v>155700</v>
+        <v>150600</v>
       </c>
       <c r="I27" s="3">
-        <v>154600</v>
+        <v>149500</v>
       </c>
       <c r="J27" s="3">
-        <v>121800</v>
+        <v>117800</v>
       </c>
       <c r="K27" s="3">
         <v>120800</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="F32" s="3">
-        <v>-55600</v>
+        <v>-53700</v>
       </c>
       <c r="G32" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H32" s="3">
-        <v>-22000</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3">
-        <v>-12900</v>
+        <v>-12500</v>
       </c>
       <c r="J32" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K32" s="3">
         <v>-20600</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>103700</v>
+        <v>100200</v>
       </c>
       <c r="E33" s="3">
-        <v>170300</v>
+        <v>164700</v>
       </c>
       <c r="F33" s="3">
-        <v>166900</v>
+        <v>161400</v>
       </c>
       <c r="G33" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H33" s="3">
-        <v>155700</v>
+        <v>150600</v>
       </c>
       <c r="I33" s="3">
-        <v>154600</v>
+        <v>149500</v>
       </c>
       <c r="J33" s="3">
-        <v>121800</v>
+        <v>117800</v>
       </c>
       <c r="K33" s="3">
         <v>120800</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>103700</v>
+        <v>100200</v>
       </c>
       <c r="E35" s="3">
-        <v>170300</v>
+        <v>164700</v>
       </c>
       <c r="F35" s="3">
-        <v>166900</v>
+        <v>161400</v>
       </c>
       <c r="G35" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H35" s="3">
-        <v>155700</v>
+        <v>150600</v>
       </c>
       <c r="I35" s="3">
-        <v>154600</v>
+        <v>149500</v>
       </c>
       <c r="J35" s="3">
-        <v>121800</v>
+        <v>117800</v>
       </c>
       <c r="K35" s="3">
         <v>120800</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>517800</v>
+        <v>500700</v>
       </c>
       <c r="E41" s="3">
-        <v>426100</v>
+        <v>412100</v>
       </c>
       <c r="F41" s="3">
-        <v>350700</v>
+        <v>339100</v>
       </c>
       <c r="G41" s="3">
-        <v>269800</v>
+        <v>260900</v>
       </c>
       <c r="H41" s="3">
-        <v>326100</v>
+        <v>315300</v>
       </c>
       <c r="I41" s="3">
-        <v>271900</v>
+        <v>262900</v>
       </c>
       <c r="J41" s="3">
-        <v>317200</v>
+        <v>306700</v>
       </c>
       <c r="K41" s="3">
         <v>326400</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="E42" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="F42" s="3">
-        <v>86500</v>
+        <v>83700</v>
       </c>
       <c r="G42" s="3">
-        <v>109300</v>
+        <v>105700</v>
       </c>
       <c r="H42" s="3">
-        <v>45500</v>
+        <v>44000</v>
       </c>
       <c r="I42" s="3">
-        <v>45500</v>
+        <v>44000</v>
       </c>
       <c r="J42" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="K42" s="3">
         <v>96100</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>667400</v>
+        <v>645400</v>
       </c>
       <c r="E43" s="3">
-        <v>758200</v>
+        <v>733200</v>
       </c>
       <c r="F43" s="3">
-        <v>697700</v>
+        <v>674700</v>
       </c>
       <c r="G43" s="3">
-        <v>710500</v>
+        <v>687100</v>
       </c>
       <c r="H43" s="3">
-        <v>682900</v>
+        <v>660400</v>
       </c>
       <c r="I43" s="3">
-        <v>710400</v>
+        <v>687000</v>
       </c>
       <c r="J43" s="3">
-        <v>740600</v>
+        <v>716200</v>
       </c>
       <c r="K43" s="3">
         <v>742100</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>248000</v>
+        <v>239800</v>
       </c>
       <c r="E44" s="3">
-        <v>262700</v>
+        <v>254000</v>
       </c>
       <c r="F44" s="3">
-        <v>257400</v>
+        <v>248900</v>
       </c>
       <c r="G44" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="H44" s="3">
-        <v>235700</v>
+        <v>227900</v>
       </c>
       <c r="I44" s="3">
-        <v>258800</v>
+        <v>250200</v>
       </c>
       <c r="J44" s="3">
-        <v>209100</v>
+        <v>202200</v>
       </c>
       <c r="K44" s="3">
         <v>185500</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="E45" s="3">
-        <v>54200</v>
+        <v>52400</v>
       </c>
       <c r="F45" s="3">
-        <v>78300</v>
+        <v>75700</v>
       </c>
       <c r="G45" s="3">
-        <v>73100</v>
+        <v>70700</v>
       </c>
       <c r="H45" s="3">
-        <v>77800</v>
+        <v>75200</v>
       </c>
       <c r="I45" s="3">
-        <v>91000</v>
+        <v>88000</v>
       </c>
       <c r="J45" s="3">
-        <v>50400</v>
+        <v>48800</v>
       </c>
       <c r="K45" s="3">
         <v>57100</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1585200</v>
+        <v>1533000</v>
       </c>
       <c r="E46" s="3">
-        <v>1592300</v>
+        <v>1539900</v>
       </c>
       <c r="F46" s="3">
-        <v>1443000</v>
+        <v>1395500</v>
       </c>
       <c r="G46" s="3">
-        <v>1424200</v>
+        <v>1377300</v>
       </c>
       <c r="H46" s="3">
-        <v>1368000</v>
+        <v>1322900</v>
       </c>
       <c r="I46" s="3">
-        <v>1353000</v>
+        <v>1308400</v>
       </c>
       <c r="J46" s="3">
-        <v>1408300</v>
+        <v>1362000</v>
       </c>
       <c r="K46" s="3">
         <v>1407200</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>266100</v>
+        <v>257300</v>
       </c>
       <c r="E47" s="3">
-        <v>261800</v>
+        <v>253200</v>
       </c>
       <c r="F47" s="3">
-        <v>283800</v>
+        <v>274500</v>
       </c>
       <c r="G47" s="3">
-        <v>324500</v>
+        <v>313800</v>
       </c>
       <c r="H47" s="3">
-        <v>259000</v>
+        <v>250500</v>
       </c>
       <c r="I47" s="3">
-        <v>527200</v>
+        <v>509900</v>
       </c>
       <c r="J47" s="3">
-        <v>248100</v>
+        <v>240000</v>
       </c>
       <c r="K47" s="3">
         <v>233200</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1929500</v>
+        <v>1866000</v>
       </c>
       <c r="E48" s="3">
-        <v>1889900</v>
+        <v>1827700</v>
       </c>
       <c r="F48" s="3">
-        <v>1811600</v>
+        <v>1751900</v>
       </c>
       <c r="G48" s="3">
-        <v>1774100</v>
+        <v>1715700</v>
       </c>
       <c r="H48" s="3">
-        <v>1670600</v>
+        <v>1615600</v>
       </c>
       <c r="I48" s="3">
-        <v>1563300</v>
+        <v>1511800</v>
       </c>
       <c r="J48" s="3">
-        <v>1398800</v>
+        <v>1352800</v>
       </c>
       <c r="K48" s="3">
         <v>1305300</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>123100</v>
+        <v>119000</v>
       </c>
       <c r="E49" s="3">
-        <v>90400</v>
+        <v>87400</v>
       </c>
       <c r="F49" s="3">
-        <v>57300</v>
+        <v>55400</v>
       </c>
       <c r="G49" s="3">
-        <v>76200</v>
+        <v>73600</v>
       </c>
       <c r="H49" s="3">
-        <v>51700</v>
+        <v>50000</v>
       </c>
       <c r="I49" s="3">
-        <v>80500</v>
+        <v>77800</v>
       </c>
       <c r="J49" s="3">
-        <v>30900</v>
+        <v>29800</v>
       </c>
       <c r="K49" s="3">
         <v>25600</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>211200</v>
+        <v>204300</v>
       </c>
       <c r="E52" s="3">
-        <v>213200</v>
+        <v>206100</v>
       </c>
       <c r="F52" s="3">
-        <v>365900</v>
+        <v>353900</v>
       </c>
       <c r="G52" s="3">
-        <v>220000</v>
+        <v>212800</v>
       </c>
       <c r="H52" s="3">
-        <v>166400</v>
+        <v>161000</v>
       </c>
       <c r="I52" s="3">
-        <v>312000</v>
+        <v>301700</v>
       </c>
       <c r="J52" s="3">
-        <v>166000</v>
+        <v>160600</v>
       </c>
       <c r="K52" s="3">
         <v>244700</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4115200</v>
+        <v>3979700</v>
       </c>
       <c r="E54" s="3">
-        <v>4047700</v>
+        <v>3914400</v>
       </c>
       <c r="F54" s="3">
-        <v>3823800</v>
+        <v>3697900</v>
       </c>
       <c r="G54" s="3">
-        <v>3819000</v>
+        <v>3693200</v>
       </c>
       <c r="H54" s="3">
-        <v>3515700</v>
+        <v>3399900</v>
       </c>
       <c r="I54" s="3">
-        <v>3398200</v>
+        <v>3286300</v>
       </c>
       <c r="J54" s="3">
-        <v>3252200</v>
+        <v>3145100</v>
       </c>
       <c r="K54" s="3">
         <v>3216000</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>381100</v>
+        <v>368500</v>
       </c>
       <c r="E57" s="3">
-        <v>485600</v>
+        <v>469600</v>
       </c>
       <c r="F57" s="3">
-        <v>405600</v>
+        <v>392200</v>
       </c>
       <c r="G57" s="3">
-        <v>437400</v>
+        <v>423000</v>
       </c>
       <c r="H57" s="3">
-        <v>428600</v>
+        <v>414500</v>
       </c>
       <c r="I57" s="3">
-        <v>411700</v>
+        <v>398100</v>
       </c>
       <c r="J57" s="3">
-        <v>489900</v>
+        <v>473800</v>
       </c>
       <c r="K57" s="3">
         <v>488100</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>128000</v>
+        <v>123800</v>
       </c>
       <c r="E58" s="3">
-        <v>66700</v>
+        <v>64500</v>
       </c>
       <c r="F58" s="3">
-        <v>268700</v>
+        <v>171800</v>
       </c>
       <c r="G58" s="3">
-        <v>73200</v>
+        <v>70800</v>
       </c>
       <c r="H58" s="3">
-        <v>75600</v>
+        <v>73100</v>
       </c>
       <c r="I58" s="3">
-        <v>178400</v>
+        <v>172500</v>
       </c>
       <c r="J58" s="3">
-        <v>83900</v>
+        <v>81200</v>
       </c>
       <c r="K58" s="3">
         <v>90700</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>277800</v>
+        <v>268600</v>
       </c>
       <c r="E59" s="3">
-        <v>349700</v>
+        <v>338200</v>
       </c>
       <c r="F59" s="3">
-        <v>362800</v>
+        <v>350900</v>
       </c>
       <c r="G59" s="3">
-        <v>315700</v>
+        <v>305300</v>
       </c>
       <c r="H59" s="3">
-        <v>427200</v>
+        <v>413100</v>
       </c>
       <c r="I59" s="3">
-        <v>674100</v>
+        <v>651900</v>
       </c>
       <c r="J59" s="3">
-        <v>392700</v>
+        <v>379800</v>
       </c>
       <c r="K59" s="3">
         <v>342800</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>786900</v>
+        <v>760900</v>
       </c>
       <c r="E60" s="3">
-        <v>901900</v>
+        <v>872200</v>
       </c>
       <c r="F60" s="3">
-        <v>919100</v>
+        <v>888800</v>
       </c>
       <c r="G60" s="3">
-        <v>826200</v>
+        <v>799000</v>
       </c>
       <c r="H60" s="3">
-        <v>931500</v>
+        <v>900800</v>
       </c>
       <c r="I60" s="3">
-        <v>864300</v>
+        <v>835800</v>
       </c>
       <c r="J60" s="3">
-        <v>966500</v>
+        <v>934700</v>
       </c>
       <c r="K60" s="3">
         <v>921600</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>619000</v>
+        <v>598600</v>
       </c>
       <c r="E61" s="3">
-        <v>521500</v>
+        <v>504300</v>
       </c>
       <c r="F61" s="3">
-        <v>368700</v>
+        <v>356500</v>
       </c>
       <c r="G61" s="3">
-        <v>459700</v>
+        <v>444600</v>
       </c>
       <c r="H61" s="3">
-        <v>239400</v>
+        <v>231500</v>
       </c>
       <c r="I61" s="3">
-        <v>148900</v>
+        <v>144000</v>
       </c>
       <c r="J61" s="3">
-        <v>181200</v>
+        <v>175300</v>
       </c>
       <c r="K61" s="3">
         <v>158000</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>109600</v>
+        <v>106000</v>
       </c>
       <c r="E62" s="3">
-        <v>103000</v>
+        <v>99600</v>
       </c>
       <c r="F62" s="3">
-        <v>111900</v>
+        <v>108200</v>
       </c>
       <c r="G62" s="3">
-        <v>133200</v>
+        <v>128800</v>
       </c>
       <c r="H62" s="3">
-        <v>105000</v>
+        <v>101500</v>
       </c>
       <c r="I62" s="3">
-        <v>228100</v>
+        <v>220600</v>
       </c>
       <c r="J62" s="3">
-        <v>96600</v>
+        <v>93400</v>
       </c>
       <c r="K62" s="3">
         <v>115600</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1933100</v>
+        <v>1869400</v>
       </c>
       <c r="E66" s="3">
-        <v>1901800</v>
+        <v>1839100</v>
       </c>
       <c r="F66" s="3">
-        <v>1761900</v>
+        <v>1703900</v>
       </c>
       <c r="G66" s="3">
-        <v>1756100</v>
+        <v>1698300</v>
       </c>
       <c r="H66" s="3">
-        <v>1578700</v>
+        <v>1526700</v>
       </c>
       <c r="I66" s="3">
-        <v>1458300</v>
+        <v>1410300</v>
       </c>
       <c r="J66" s="3">
-        <v>1475300</v>
+        <v>1426700</v>
       </c>
       <c r="K66" s="3">
         <v>1445800</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1835600</v>
+        <v>1775100</v>
       </c>
       <c r="E72" s="3">
-        <v>1790600</v>
+        <v>1731600</v>
       </c>
       <c r="F72" s="3">
-        <v>1671100</v>
+        <v>1616000</v>
       </c>
       <c r="G72" s="3">
-        <v>1554000</v>
+        <v>1502800</v>
       </c>
       <c r="H72" s="3">
-        <v>1519200</v>
+        <v>1469200</v>
       </c>
       <c r="I72" s="3">
-        <v>1406800</v>
+        <v>1360400</v>
       </c>
       <c r="J72" s="3">
-        <v>1298100</v>
+        <v>1255300</v>
       </c>
       <c r="K72" s="3">
         <v>1273200</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2182100</v>
+        <v>2110300</v>
       </c>
       <c r="E76" s="3">
-        <v>2145900</v>
+        <v>2075200</v>
       </c>
       <c r="F76" s="3">
-        <v>2061900</v>
+        <v>1994000</v>
       </c>
       <c r="G76" s="3">
-        <v>2062900</v>
+        <v>1994900</v>
       </c>
       <c r="H76" s="3">
-        <v>1937000</v>
+        <v>1873200</v>
       </c>
       <c r="I76" s="3">
-        <v>1939900</v>
+        <v>1876000</v>
       </c>
       <c r="J76" s="3">
-        <v>1776900</v>
+        <v>1718400</v>
       </c>
       <c r="K76" s="3">
         <v>1770200</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>103700</v>
+        <v>100200</v>
       </c>
       <c r="E81" s="3">
-        <v>170300</v>
+        <v>164700</v>
       </c>
       <c r="F81" s="3">
-        <v>166900</v>
+        <v>161400</v>
       </c>
       <c r="G81" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H81" s="3">
-        <v>155700</v>
+        <v>150600</v>
       </c>
       <c r="I81" s="3">
-        <v>154600</v>
+        <v>149500</v>
       </c>
       <c r="J81" s="3">
-        <v>121800</v>
+        <v>117800</v>
       </c>
       <c r="K81" s="3">
         <v>120800</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>184900</v>
+        <v>178800</v>
       </c>
       <c r="E83" s="3">
-        <v>172100</v>
+        <v>166400</v>
       </c>
       <c r="F83" s="3">
-        <v>170600</v>
+        <v>165000</v>
       </c>
       <c r="G83" s="3">
-        <v>156700</v>
+        <v>151500</v>
       </c>
       <c r="H83" s="3">
-        <v>168300</v>
+        <v>162800</v>
       </c>
       <c r="I83" s="3">
-        <v>176000</v>
+        <v>170200</v>
       </c>
       <c r="J83" s="3">
-        <v>147100</v>
+        <v>142200</v>
       </c>
       <c r="K83" s="3">
         <v>140500</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>318400</v>
+        <v>308000</v>
       </c>
       <c r="E89" s="3">
-        <v>400000</v>
+        <v>386900</v>
       </c>
       <c r="F89" s="3">
-        <v>384800</v>
+        <v>372200</v>
       </c>
       <c r="G89" s="3">
-        <v>248100</v>
+        <v>239900</v>
       </c>
       <c r="H89" s="3">
-        <v>412300</v>
+        <v>398700</v>
       </c>
       <c r="I89" s="3">
-        <v>256000</v>
+        <v>247600</v>
       </c>
       <c r="J89" s="3">
-        <v>313300</v>
+        <v>303000</v>
       </c>
       <c r="K89" s="3">
         <v>263000</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-188600</v>
+        <v>-182400</v>
       </c>
       <c r="E91" s="3">
-        <v>-227300</v>
+        <v>-219800</v>
       </c>
       <c r="F91" s="3">
-        <v>-266200</v>
+        <v>-257400</v>
       </c>
       <c r="G91" s="3">
-        <v>-232300</v>
+        <v>-224600</v>
       </c>
       <c r="H91" s="3">
-        <v>-283800</v>
+        <v>-274400</v>
       </c>
       <c r="I91" s="3">
-        <v>-273600</v>
+        <v>-264600</v>
       </c>
       <c r="J91" s="3">
-        <v>-257300</v>
+        <v>-248800</v>
       </c>
       <c r="K91" s="3">
         <v>-244600</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-237200</v>
+        <v>-229400</v>
       </c>
       <c r="E94" s="3">
-        <v>-270700</v>
+        <v>-261800</v>
       </c>
       <c r="F94" s="3">
-        <v>-184000</v>
+        <v>-178000</v>
       </c>
       <c r="G94" s="3">
-        <v>-286200</v>
+        <v>-276800</v>
       </c>
       <c r="H94" s="3">
-        <v>-291900</v>
+        <v>-282300</v>
       </c>
       <c r="I94" s="3">
-        <v>-284100</v>
+        <v>-274700</v>
       </c>
       <c r="J94" s="3">
-        <v>-281000</v>
+        <v>-271800</v>
       </c>
       <c r="K94" s="3">
         <v>-210400</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-58600</v>
+        <v>-56700</v>
       </c>
       <c r="E96" s="3">
-        <v>-50800</v>
+        <v>-49100</v>
       </c>
       <c r="F96" s="3">
-        <v>-50200</v>
+        <v>-48600</v>
       </c>
       <c r="G96" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="H96" s="3">
-        <v>-43300</v>
+        <v>-41800</v>
       </c>
       <c r="I96" s="3">
-        <v>-33200</v>
+        <v>-32100</v>
       </c>
       <c r="J96" s="3">
-        <v>-30700</v>
+        <v>-29700</v>
       </c>
       <c r="K96" s="3">
         <v>-30900</v>
@@ -3675,22 +3675,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-41900</v>
+        <v>-40500</v>
       </c>
       <c r="F100" s="3">
-        <v>-139300</v>
+        <v>-134700</v>
       </c>
       <c r="G100" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="H100" s="3">
-        <v>-52900</v>
+        <v>-51100</v>
       </c>
       <c r="I100" s="3">
-        <v>-64700</v>
+        <v>-62600</v>
       </c>
       <c r="J100" s="3">
-        <v>-28700</v>
+        <v>-27700</v>
       </c>
       <c r="K100" s="3">
         <v>-22200</v>
@@ -3711,22 +3711,22 @@
         <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="H101" s="3">
-        <v>-13300</v>
+        <v>-12800</v>
       </c>
       <c r="I101" s="3">
         <v>2100</v>
       </c>
       <c r="J101" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K101" s="3">
         <v>3900</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>82000</v>
+        <v>79300</v>
       </c>
       <c r="E102" s="3">
-        <v>80200</v>
+        <v>77600</v>
       </c>
       <c r="F102" s="3">
-        <v>59700</v>
+        <v>57800</v>
       </c>
       <c r="G102" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H102" s="3">
-        <v>54200</v>
+        <v>52400</v>
       </c>
       <c r="I102" s="3">
-        <v>-90600</v>
+        <v>-87600</v>
       </c>
       <c r="J102" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K102" s="3">
         <v>34400</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,165 +662,177 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43434</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43069</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42704</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42338</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41973</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41608</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41243</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40877</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4679000</v>
+        <v>3472000</v>
       </c>
       <c r="E8" s="3">
-        <v>4807800</v>
+        <v>4530300</v>
       </c>
       <c r="F8" s="3">
-        <v>5052800</v>
+        <v>4655000</v>
       </c>
       <c r="G8" s="3">
-        <v>4948500</v>
+        <v>4892200</v>
       </c>
       <c r="H8" s="3">
-        <v>4865800</v>
+        <v>4791200</v>
       </c>
       <c r="I8" s="3">
-        <v>4843500</v>
+        <v>4711200</v>
       </c>
       <c r="J8" s="3">
+        <v>4689600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4875500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5098600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4565200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4314700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3575000</v>
+        <v>2412300</v>
       </c>
       <c r="E9" s="3">
-        <v>3636200</v>
+        <v>3461400</v>
       </c>
       <c r="F9" s="3">
-        <v>3879700</v>
+        <v>3520700</v>
       </c>
       <c r="G9" s="3">
-        <v>3812700</v>
+        <v>3756400</v>
       </c>
       <c r="H9" s="3">
-        <v>3778200</v>
+        <v>3691600</v>
       </c>
       <c r="I9" s="3">
-        <v>3810200</v>
+        <v>3658100</v>
       </c>
       <c r="J9" s="3">
+        <v>3689100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3691800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3865900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3434600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3276100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1104000</v>
+        <v>1059700</v>
       </c>
       <c r="E10" s="3">
-        <v>1171600</v>
+        <v>1068900</v>
       </c>
       <c r="F10" s="3">
-        <v>1173000</v>
+        <v>1134300</v>
       </c>
       <c r="G10" s="3">
         <v>1135700</v>
       </c>
       <c r="H10" s="3">
-        <v>1087700</v>
+        <v>1099600</v>
       </c>
       <c r="I10" s="3">
-        <v>1033300</v>
+        <v>1053100</v>
       </c>
       <c r="J10" s="3">
+        <v>1000400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1183700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1232600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1130600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1038600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,44 +847,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34900</v>
+        <v>34400</v>
       </c>
       <c r="E12" s="3">
-        <v>36600</v>
+        <v>33800</v>
       </c>
       <c r="F12" s="3">
-        <v>36500</v>
+        <v>35500</v>
       </c>
       <c r="G12" s="3">
+        <v>35300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>34600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>34400</v>
+      </c>
+      <c r="J12" s="3">
         <v>35800</v>
       </c>
-      <c r="H12" s="3">
-        <v>35500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>37000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,81 +922,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>39200</v>
+        <v>16200</v>
       </c>
       <c r="E14" s="3">
-        <v>17100</v>
+        <v>34000</v>
       </c>
       <c r="F14" s="3">
-        <v>46200</v>
+        <v>16500</v>
       </c>
       <c r="G14" s="3">
-        <v>26400</v>
+        <v>44700</v>
       </c>
       <c r="H14" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="I14" s="3">
-        <v>-13500</v>
+        <v>13900</v>
       </c>
       <c r="J14" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>25500</v>
+        <v>19400</v>
       </c>
       <c r="E15" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="F15" s="3">
-        <v>25700</v>
+        <v>24700</v>
       </c>
       <c r="G15" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="H15" s="3">
-        <v>24500</v>
+        <v>23600</v>
       </c>
       <c r="I15" s="3">
-        <v>23000</v>
+        <v>23700</v>
       </c>
       <c r="J15" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K15" s="3">
         <v>18600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,80 +1017,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4468900</v>
+        <v>3249700</v>
       </c>
       <c r="E17" s="3">
-        <v>4542500</v>
+        <v>4322900</v>
       </c>
       <c r="F17" s="3">
-        <v>4807600</v>
+        <v>4398200</v>
       </c>
       <c r="G17" s="3">
-        <v>4699400</v>
+        <v>4654800</v>
       </c>
       <c r="H17" s="3">
-        <v>4617500</v>
+        <v>4550100</v>
       </c>
       <c r="I17" s="3">
-        <v>4601500</v>
+        <v>4470700</v>
       </c>
       <c r="J17" s="3">
+        <v>4455200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4671100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4901300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4364600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4168600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>210200</v>
+        <v>222400</v>
       </c>
       <c r="E18" s="3">
-        <v>265300</v>
+        <v>207400</v>
       </c>
       <c r="F18" s="3">
-        <v>245200</v>
+        <v>256800</v>
       </c>
       <c r="G18" s="3">
-        <v>249000</v>
+        <v>237400</v>
       </c>
       <c r="H18" s="3">
-        <v>248300</v>
+        <v>241100</v>
       </c>
       <c r="I18" s="3">
-        <v>242000</v>
+        <v>240400</v>
       </c>
       <c r="J18" s="3">
+        <v>234300</v>
+      </c>
+      <c r="K18" s="3">
         <v>204400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>146100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1080,188 +1112,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-6100</v>
+        <v>25800</v>
       </c>
       <c r="E20" s="3">
-        <v>23500</v>
+        <v>-5900</v>
       </c>
       <c r="F20" s="3">
-        <v>53700</v>
+        <v>22800</v>
       </c>
       <c r="G20" s="3">
-        <v>25500</v>
+        <v>52000</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
+        <v>24700</v>
       </c>
       <c r="I20" s="3">
-        <v>12500</v>
+        <v>20600</v>
       </c>
       <c r="J20" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K20" s="3">
         <v>14700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>383200</v>
+        <v>382300</v>
       </c>
       <c r="E21" s="3">
-        <v>455600</v>
+        <v>376700</v>
       </c>
       <c r="F21" s="3">
-        <v>464300</v>
+        <v>442700</v>
       </c>
       <c r="G21" s="3">
-        <v>426400</v>
+        <v>451000</v>
       </c>
       <c r="H21" s="3">
-        <v>432700</v>
+        <v>414200</v>
       </c>
       <c r="I21" s="3">
-        <v>425100</v>
+        <v>420500</v>
       </c>
       <c r="J21" s="3">
+        <v>413200</v>
+      </c>
+      <c r="K21" s="3">
         <v>361700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>358000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>341000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>278700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>201100</v>
+        <v>246200</v>
       </c>
       <c r="E23" s="3">
-        <v>286200</v>
+        <v>198700</v>
       </c>
       <c r="F23" s="3">
-        <v>295900</v>
+        <v>277100</v>
       </c>
       <c r="G23" s="3">
-        <v>271200</v>
+        <v>286500</v>
       </c>
       <c r="H23" s="3">
-        <v>266900</v>
+        <v>262600</v>
       </c>
       <c r="I23" s="3">
-        <v>251800</v>
+        <v>258400</v>
       </c>
       <c r="J23" s="3">
+        <v>243800</v>
+      </c>
+      <c r="K23" s="3">
         <v>216500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>211100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>156300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>77700</v>
+        <v>73300</v>
       </c>
       <c r="E24" s="3">
-        <v>93100</v>
+        <v>75300</v>
       </c>
       <c r="F24" s="3">
-        <v>103300</v>
+        <v>90200</v>
       </c>
       <c r="G24" s="3">
-        <v>81300</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="3">
-        <v>90300</v>
+        <v>78700</v>
       </c>
       <c r="I24" s="3">
-        <v>78200</v>
+        <v>87500</v>
       </c>
       <c r="J24" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K24" s="3">
         <v>80400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,81 +1343,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>123300</v>
+        <v>172900</v>
       </c>
       <c r="E26" s="3">
-        <v>193100</v>
+        <v>123400</v>
       </c>
       <c r="F26" s="3">
-        <v>192600</v>
+        <v>186900</v>
       </c>
       <c r="G26" s="3">
-        <v>189900</v>
+        <v>186500</v>
       </c>
       <c r="H26" s="3">
-        <v>176500</v>
+        <v>183900</v>
       </c>
       <c r="I26" s="3">
-        <v>173500</v>
+        <v>170900</v>
       </c>
       <c r="J26" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K26" s="3">
         <v>136100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>141700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>130500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>92200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100200</v>
+        <v>153700</v>
       </c>
       <c r="E27" s="3">
-        <v>164700</v>
+        <v>98900</v>
       </c>
       <c r="F27" s="3">
-        <v>161400</v>
+        <v>159500</v>
       </c>
       <c r="G27" s="3">
-        <v>159500</v>
+        <v>156300</v>
       </c>
       <c r="H27" s="3">
-        <v>150600</v>
+        <v>154400</v>
       </c>
       <c r="I27" s="3">
-        <v>149500</v>
+        <v>145800</v>
       </c>
       <c r="J27" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K27" s="3">
         <v>117800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1403,9 +1460,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1439,9 +1499,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,9 +1538,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1511,81 +1577,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>6100</v>
+        <v>-25800</v>
       </c>
       <c r="E32" s="3">
-        <v>-23500</v>
+        <v>5900</v>
       </c>
       <c r="F32" s="3">
-        <v>-53700</v>
+        <v>-22800</v>
       </c>
       <c r="G32" s="3">
-        <v>-25500</v>
+        <v>-52000</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
+        <v>-24700</v>
       </c>
       <c r="I32" s="3">
-        <v>-12500</v>
+        <v>-20600</v>
       </c>
       <c r="J32" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100200</v>
+        <v>153700</v>
       </c>
       <c r="E33" s="3">
-        <v>164700</v>
+        <v>98900</v>
       </c>
       <c r="F33" s="3">
-        <v>161400</v>
+        <v>159500</v>
       </c>
       <c r="G33" s="3">
-        <v>159500</v>
+        <v>156300</v>
       </c>
       <c r="H33" s="3">
-        <v>150600</v>
+        <v>154400</v>
       </c>
       <c r="I33" s="3">
-        <v>149500</v>
+        <v>145800</v>
       </c>
       <c r="J33" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K33" s="3">
         <v>117800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1619,86 +1694,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100200</v>
+        <v>153700</v>
       </c>
       <c r="E35" s="3">
-        <v>164700</v>
+        <v>98900</v>
       </c>
       <c r="F35" s="3">
-        <v>161400</v>
+        <v>159500</v>
       </c>
       <c r="G35" s="3">
-        <v>159500</v>
+        <v>156300</v>
       </c>
       <c r="H35" s="3">
-        <v>150600</v>
+        <v>154400</v>
       </c>
       <c r="I35" s="3">
-        <v>149500</v>
+        <v>145800</v>
       </c>
       <c r="J35" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K35" s="3">
         <v>117800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43434</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43069</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42704</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42338</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41973</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41608</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41243</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40877</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1713,8 +1797,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,332 +1814,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>500700</v>
+        <v>497700</v>
       </c>
       <c r="E41" s="3">
-        <v>412100</v>
+        <v>484800</v>
       </c>
       <c r="F41" s="3">
-        <v>339100</v>
+        <v>399000</v>
       </c>
       <c r="G41" s="3">
-        <v>260900</v>
+        <v>328300</v>
       </c>
       <c r="H41" s="3">
-        <v>315300</v>
+        <v>252600</v>
       </c>
       <c r="I41" s="3">
-        <v>262900</v>
+        <v>305300</v>
       </c>
       <c r="J41" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K41" s="3">
         <v>306700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>326400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>301900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>173400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>85300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>81000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>102400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K42" s="3">
         <v>88100</v>
       </c>
-      <c r="E42" s="3">
-        <v>88100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>83700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>44000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>44000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>88100</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>90400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>44300</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>645400</v>
+        <v>484000</v>
       </c>
       <c r="E43" s="3">
-        <v>733200</v>
+        <v>624900</v>
       </c>
       <c r="F43" s="3">
-        <v>674700</v>
+        <v>709900</v>
       </c>
       <c r="G43" s="3">
-        <v>687100</v>
+        <v>653300</v>
       </c>
       <c r="H43" s="3">
-        <v>660400</v>
+        <v>665300</v>
       </c>
       <c r="I43" s="3">
-        <v>687000</v>
+        <v>639400</v>
       </c>
       <c r="J43" s="3">
+        <v>665100</v>
+      </c>
+      <c r="K43" s="3">
         <v>716200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>742100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>601400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>573100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>239800</v>
+        <v>256500</v>
       </c>
       <c r="E44" s="3">
-        <v>254000</v>
+        <v>232200</v>
       </c>
       <c r="F44" s="3">
-        <v>248900</v>
+        <v>246000</v>
       </c>
       <c r="G44" s="3">
-        <v>252900</v>
+        <v>241000</v>
       </c>
       <c r="H44" s="3">
-        <v>227900</v>
+        <v>244800</v>
       </c>
       <c r="I44" s="3">
-        <v>250200</v>
+        <v>220700</v>
       </c>
       <c r="J44" s="3">
+        <v>242300</v>
+      </c>
+      <c r="K44" s="3">
         <v>202200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>185500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>149700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>59000</v>
+        <v>19700</v>
       </c>
       <c r="E45" s="3">
-        <v>52400</v>
+        <v>57100</v>
       </c>
       <c r="F45" s="3">
-        <v>75700</v>
+        <v>50800</v>
       </c>
       <c r="G45" s="3">
-        <v>70700</v>
+        <v>73300</v>
       </c>
       <c r="H45" s="3">
-        <v>75200</v>
+        <v>68400</v>
       </c>
       <c r="I45" s="3">
-        <v>88000</v>
+        <v>72800</v>
       </c>
       <c r="J45" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K45" s="3">
         <v>48800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1533000</v>
+        <v>1343100</v>
       </c>
       <c r="E46" s="3">
-        <v>1539900</v>
+        <v>1484300</v>
       </c>
       <c r="F46" s="3">
-        <v>1395500</v>
+        <v>1491000</v>
       </c>
       <c r="G46" s="3">
-        <v>1377300</v>
+        <v>1351200</v>
       </c>
       <c r="H46" s="3">
-        <v>1322900</v>
+        <v>1333500</v>
       </c>
       <c r="I46" s="3">
-        <v>1308400</v>
+        <v>1280900</v>
       </c>
       <c r="J46" s="3">
+        <v>1266900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1362000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1407200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1202500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>985500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>257300</v>
+        <v>382400</v>
       </c>
       <c r="E47" s="3">
-        <v>253200</v>
+        <v>249200</v>
       </c>
       <c r="F47" s="3">
-        <v>274500</v>
+        <v>245200</v>
       </c>
       <c r="G47" s="3">
-        <v>313800</v>
+        <v>265800</v>
       </c>
       <c r="H47" s="3">
-        <v>250500</v>
+        <v>303800</v>
       </c>
       <c r="I47" s="3">
-        <v>509900</v>
+        <v>242500</v>
       </c>
       <c r="J47" s="3">
+        <v>493700</v>
+      </c>
+      <c r="K47" s="3">
         <v>240000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>233200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>188100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>182200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1866000</v>
+        <v>1249900</v>
       </c>
       <c r="E48" s="3">
-        <v>1827700</v>
+        <v>1815200</v>
       </c>
       <c r="F48" s="3">
-        <v>1751900</v>
+        <v>1769600</v>
       </c>
       <c r="G48" s="3">
-        <v>1715700</v>
+        <v>1696200</v>
       </c>
       <c r="H48" s="3">
-        <v>1615600</v>
+        <v>1661200</v>
       </c>
       <c r="I48" s="3">
-        <v>1511800</v>
+        <v>1564200</v>
       </c>
       <c r="J48" s="3">
+        <v>1463700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1352800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1305300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1126200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1029500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>119000</v>
+        <v>113500</v>
       </c>
       <c r="E49" s="3">
-        <v>87400</v>
+        <v>129200</v>
       </c>
       <c r="F49" s="3">
-        <v>55400</v>
+        <v>84600</v>
       </c>
       <c r="G49" s="3">
-        <v>73600</v>
+        <v>53700</v>
       </c>
       <c r="H49" s="3">
-        <v>50000</v>
+        <v>71300</v>
       </c>
       <c r="I49" s="3">
-        <v>77800</v>
+        <v>48400</v>
       </c>
       <c r="J49" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K49" s="3">
         <v>29800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,9 +2201,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2124,45 +2240,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>204300</v>
+        <v>161100</v>
       </c>
       <c r="E52" s="3">
-        <v>206100</v>
+        <v>197100</v>
       </c>
       <c r="F52" s="3">
-        <v>353900</v>
+        <v>199600</v>
       </c>
       <c r="G52" s="3">
-        <v>212800</v>
+        <v>342700</v>
       </c>
       <c r="H52" s="3">
-        <v>161000</v>
+        <v>206000</v>
       </c>
       <c r="I52" s="3">
-        <v>301700</v>
+        <v>155800</v>
       </c>
       <c r="J52" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K52" s="3">
         <v>160600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>244700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>228500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2196,45 +2318,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3979700</v>
+        <v>3250000</v>
       </c>
       <c r="E54" s="3">
-        <v>3914400</v>
+        <v>3875000</v>
       </c>
       <c r="F54" s="3">
-        <v>3697900</v>
+        <v>3790000</v>
       </c>
       <c r="G54" s="3">
-        <v>3693200</v>
+        <v>3580300</v>
       </c>
       <c r="H54" s="3">
-        <v>3399900</v>
+        <v>3575800</v>
       </c>
       <c r="I54" s="3">
-        <v>3286300</v>
+        <v>3291800</v>
       </c>
       <c r="J54" s="3">
+        <v>3181800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3145100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3216000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2770900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2446200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2249,8 +2377,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2265,224 +2394,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>368500</v>
+        <v>239000</v>
       </c>
       <c r="E57" s="3">
-        <v>469600</v>
+        <v>356800</v>
       </c>
       <c r="F57" s="3">
-        <v>392200</v>
+        <v>454600</v>
       </c>
       <c r="G57" s="3">
-        <v>423000</v>
+        <v>379700</v>
       </c>
       <c r="H57" s="3">
-        <v>414500</v>
+        <v>409500</v>
       </c>
       <c r="I57" s="3">
-        <v>398100</v>
+        <v>401300</v>
       </c>
       <c r="J57" s="3">
+        <v>385500</v>
+      </c>
+      <c r="K57" s="3">
         <v>473800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>488100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>377100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>348200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>123800</v>
+        <v>103400</v>
       </c>
       <c r="E58" s="3">
-        <v>64500</v>
+        <v>119900</v>
       </c>
       <c r="F58" s="3">
-        <v>171800</v>
+        <v>62500</v>
       </c>
       <c r="G58" s="3">
+        <v>166300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>68600</v>
+      </c>
+      <c r="I58" s="3">
         <v>70800</v>
       </c>
-      <c r="H58" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>172500</v>
-      </c>
       <c r="J58" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K58" s="3">
         <v>81200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>268600</v>
+        <v>265000</v>
       </c>
       <c r="E59" s="3">
-        <v>338200</v>
+        <v>260100</v>
       </c>
       <c r="F59" s="3">
-        <v>350900</v>
+        <v>327400</v>
       </c>
       <c r="G59" s="3">
-        <v>305300</v>
+        <v>339700</v>
       </c>
       <c r="H59" s="3">
-        <v>413100</v>
+        <v>295600</v>
       </c>
       <c r="I59" s="3">
-        <v>651900</v>
+        <v>400000</v>
       </c>
       <c r="J59" s="3">
+        <v>631200</v>
+      </c>
+      <c r="K59" s="3">
         <v>379800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>342800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>316300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>261800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>760900</v>
+        <v>607300</v>
       </c>
       <c r="E60" s="3">
-        <v>872200</v>
+        <v>736800</v>
       </c>
       <c r="F60" s="3">
-        <v>888800</v>
+        <v>844500</v>
       </c>
       <c r="G60" s="3">
-        <v>799000</v>
+        <v>860600</v>
       </c>
       <c r="H60" s="3">
-        <v>900800</v>
+        <v>773600</v>
       </c>
       <c r="I60" s="3">
-        <v>835800</v>
+        <v>872100</v>
       </c>
       <c r="J60" s="3">
+        <v>809200</v>
+      </c>
+      <c r="K60" s="3">
         <v>934700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>921600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>776400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>674300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>598600</v>
+        <v>257100</v>
       </c>
       <c r="E61" s="3">
-        <v>504300</v>
+        <v>579600</v>
       </c>
       <c r="F61" s="3">
-        <v>356500</v>
+        <v>488300</v>
       </c>
       <c r="G61" s="3">
-        <v>444600</v>
+        <v>345200</v>
       </c>
       <c r="H61" s="3">
-        <v>231500</v>
+        <v>430400</v>
       </c>
       <c r="I61" s="3">
-        <v>144000</v>
+        <v>224200</v>
       </c>
       <c r="J61" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K61" s="3">
         <v>175300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>158000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>122100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>106000</v>
+        <v>88400</v>
       </c>
       <c r="E62" s="3">
-        <v>99600</v>
+        <v>107500</v>
       </c>
       <c r="F62" s="3">
-        <v>108200</v>
+        <v>96400</v>
       </c>
       <c r="G62" s="3">
-        <v>128800</v>
+        <v>104700</v>
       </c>
       <c r="H62" s="3">
-        <v>101500</v>
+        <v>124700</v>
       </c>
       <c r="I62" s="3">
-        <v>220600</v>
+        <v>98300</v>
       </c>
       <c r="J62" s="3">
+        <v>213600</v>
+      </c>
+      <c r="K62" s="3">
         <v>93400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>115600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>118100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2516,9 +2664,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2552,9 +2703,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,45 +2742,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1869400</v>
+        <v>1154600</v>
       </c>
       <c r="E66" s="3">
-        <v>1839100</v>
+        <v>1830000</v>
       </c>
       <c r="F66" s="3">
-        <v>1703900</v>
+        <v>1780700</v>
       </c>
       <c r="G66" s="3">
-        <v>1698300</v>
+        <v>1649700</v>
       </c>
       <c r="H66" s="3">
-        <v>1526700</v>
+        <v>1644300</v>
       </c>
       <c r="I66" s="3">
-        <v>1410300</v>
+        <v>1478200</v>
       </c>
       <c r="J66" s="3">
+        <v>1365500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1426700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1445800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1225600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1026900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2641,8 +2801,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2676,9 +2837,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2712,9 +2876,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2748,9 +2915,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2784,45 +2954,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1775100</v>
+        <v>1654900</v>
       </c>
       <c r="E72" s="3">
-        <v>1731600</v>
+        <v>1720500</v>
       </c>
       <c r="F72" s="3">
-        <v>1616000</v>
+        <v>1676600</v>
       </c>
       <c r="G72" s="3">
-        <v>1502800</v>
+        <v>1564700</v>
       </c>
       <c r="H72" s="3">
-        <v>1469200</v>
+        <v>1455100</v>
       </c>
       <c r="I72" s="3">
-        <v>1360400</v>
+        <v>1422500</v>
       </c>
       <c r="J72" s="3">
+        <v>1317200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1255300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1273200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1113200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1007800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2856,9 +3032,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2892,9 +3071,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2928,45 +3110,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2110300</v>
+        <v>2095300</v>
       </c>
       <c r="E76" s="3">
-        <v>2075200</v>
+        <v>2045000</v>
       </c>
       <c r="F76" s="3">
-        <v>1994000</v>
+        <v>2009300</v>
       </c>
       <c r="G76" s="3">
-        <v>1994900</v>
+        <v>1930600</v>
       </c>
       <c r="H76" s="3">
-        <v>1873200</v>
+        <v>1931500</v>
       </c>
       <c r="I76" s="3">
-        <v>1876000</v>
+        <v>1813700</v>
       </c>
       <c r="J76" s="3">
+        <v>1816400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1718400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1770200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1545300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1419300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3000,86 +3188,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43434</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43069</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42704</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42338</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41973</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41608</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41243</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40877</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100200</v>
+        <v>153700</v>
       </c>
       <c r="E81" s="3">
-        <v>164700</v>
+        <v>98900</v>
       </c>
       <c r="F81" s="3">
-        <v>161400</v>
+        <v>159500</v>
       </c>
       <c r="G81" s="3">
-        <v>159500</v>
+        <v>156300</v>
       </c>
       <c r="H81" s="3">
-        <v>150600</v>
+        <v>154400</v>
       </c>
       <c r="I81" s="3">
-        <v>149500</v>
+        <v>145800</v>
       </c>
       <c r="J81" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K81" s="3">
         <v>117800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3094,44 +3291,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>178800</v>
+        <v>132500</v>
       </c>
       <c r="E83" s="3">
-        <v>166400</v>
+        <v>173100</v>
       </c>
       <c r="F83" s="3">
-        <v>165000</v>
+        <v>161200</v>
       </c>
       <c r="G83" s="3">
-        <v>151500</v>
+        <v>159800</v>
       </c>
       <c r="H83" s="3">
-        <v>162800</v>
+        <v>146700</v>
       </c>
       <c r="I83" s="3">
-        <v>170200</v>
+        <v>157600</v>
       </c>
       <c r="J83" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K83" s="3">
         <v>142200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>140500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>127700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>121000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3165,9 +3366,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3201,9 +3405,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3237,9 +3444,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3273,9 +3483,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3309,45 +3522,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>308000</v>
+        <v>329100</v>
       </c>
       <c r="E89" s="3">
-        <v>386900</v>
+        <v>298200</v>
       </c>
       <c r="F89" s="3">
-        <v>372200</v>
+        <v>374600</v>
       </c>
       <c r="G89" s="3">
-        <v>239900</v>
+        <v>360300</v>
       </c>
       <c r="H89" s="3">
-        <v>398700</v>
+        <v>232300</v>
       </c>
       <c r="I89" s="3">
-        <v>247600</v>
+        <v>386100</v>
       </c>
       <c r="J89" s="3">
+        <v>239700</v>
+      </c>
+      <c r="K89" s="3">
         <v>303000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>263000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>207600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3362,44 +3581,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-182400</v>
+        <v>-66000</v>
       </c>
       <c r="E91" s="3">
-        <v>-219800</v>
+        <v>-176600</v>
       </c>
       <c r="F91" s="3">
-        <v>-257400</v>
+        <v>-212800</v>
       </c>
       <c r="G91" s="3">
-        <v>-224600</v>
+        <v>-249200</v>
       </c>
       <c r="H91" s="3">
-        <v>-274400</v>
+        <v>-217500</v>
       </c>
       <c r="I91" s="3">
-        <v>-264600</v>
+        <v>-265700</v>
       </c>
       <c r="J91" s="3">
+        <v>-256200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-248800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-244600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-115500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3433,9 +3656,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3469,45 +3695,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-229400</v>
+        <v>-173000</v>
       </c>
       <c r="E94" s="3">
-        <v>-261800</v>
+        <v>-222100</v>
       </c>
       <c r="F94" s="3">
-        <v>-178000</v>
+        <v>-253500</v>
       </c>
       <c r="G94" s="3">
-        <v>-276800</v>
+        <v>-172300</v>
       </c>
       <c r="H94" s="3">
-        <v>-282300</v>
+        <v>-268000</v>
       </c>
       <c r="I94" s="3">
-        <v>-274700</v>
+        <v>-273400</v>
       </c>
       <c r="J94" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-271800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-210400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-220900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-107900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3522,44 +3754,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-56700</v>
+        <v>-48300</v>
       </c>
       <c r="E96" s="3">
-        <v>-49100</v>
+        <v>-54900</v>
       </c>
       <c r="F96" s="3">
-        <v>-48600</v>
+        <v>-47600</v>
       </c>
       <c r="G96" s="3">
-        <v>-49700</v>
+        <v>-47000</v>
       </c>
       <c r="H96" s="3">
-        <v>-41800</v>
+        <v>-48100</v>
       </c>
       <c r="I96" s="3">
-        <v>-32100</v>
+        <v>-40500</v>
       </c>
       <c r="J96" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-29700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3593,9 +3829,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3629,9 +3868,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3665,115 +3907,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-159500</v>
       </c>
       <c r="E100" s="3">
-        <v>-40500</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-134700</v>
+        <v>-39300</v>
       </c>
       <c r="G100" s="3">
-        <v>35300</v>
+        <v>-130400</v>
       </c>
       <c r="H100" s="3">
-        <v>-51100</v>
+        <v>34200</v>
       </c>
       <c r="I100" s="3">
-        <v>-62600</v>
+        <v>-49500</v>
       </c>
       <c r="J100" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>63500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-173700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-6900</v>
-      </c>
       <c r="F101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
-        <v>7000</v>
-      </c>
       <c r="H101" s="3">
-        <v>-12800</v>
+        <v>6800</v>
       </c>
       <c r="I101" s="3">
-        <v>2100</v>
+        <v>-12400</v>
       </c>
       <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>79300</v>
+        <v>7900</v>
       </c>
       <c r="E102" s="3">
-        <v>77600</v>
+        <v>76800</v>
       </c>
       <c r="F102" s="3">
-        <v>57800</v>
+        <v>75100</v>
       </c>
       <c r="G102" s="3">
-        <v>5500</v>
+        <v>55900</v>
       </c>
       <c r="H102" s="3">
-        <v>52400</v>
+        <v>5300</v>
       </c>
       <c r="I102" s="3">
-        <v>-87600</v>
+        <v>50700</v>
       </c>
       <c r="J102" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="K102" s="3">
         <v>7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>143500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-76500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3472000</v>
+        <v>3170800</v>
       </c>
       <c r="E8" s="3">
-        <v>4530300</v>
+        <v>4137300</v>
       </c>
       <c r="F8" s="3">
-        <v>4655000</v>
+        <v>4251200</v>
       </c>
       <c r="G8" s="3">
-        <v>4892200</v>
+        <v>4467800</v>
       </c>
       <c r="H8" s="3">
-        <v>4791200</v>
+        <v>4375500</v>
       </c>
       <c r="I8" s="3">
-        <v>4711200</v>
+        <v>4302500</v>
       </c>
       <c r="J8" s="3">
-        <v>4689600</v>
+        <v>4282700</v>
       </c>
       <c r="K8" s="3">
         <v>4875500</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2412300</v>
+        <v>2203100</v>
       </c>
       <c r="E9" s="3">
-        <v>3461400</v>
+        <v>3161100</v>
       </c>
       <c r="F9" s="3">
-        <v>3520700</v>
+        <v>3215300</v>
       </c>
       <c r="G9" s="3">
-        <v>3756400</v>
+        <v>3430500</v>
       </c>
       <c r="H9" s="3">
-        <v>3691600</v>
+        <v>3371300</v>
       </c>
       <c r="I9" s="3">
-        <v>3658100</v>
+        <v>3340700</v>
       </c>
       <c r="J9" s="3">
-        <v>3689100</v>
+        <v>3369100</v>
       </c>
       <c r="K9" s="3">
         <v>3691800</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1059700</v>
+        <v>967800</v>
       </c>
       <c r="E10" s="3">
-        <v>1068900</v>
+        <v>976200</v>
       </c>
       <c r="F10" s="3">
-        <v>1134300</v>
+        <v>1035900</v>
       </c>
       <c r="G10" s="3">
-        <v>1135700</v>
+        <v>1037200</v>
       </c>
       <c r="H10" s="3">
-        <v>1099600</v>
+        <v>1004200</v>
       </c>
       <c r="I10" s="3">
-        <v>1053100</v>
+        <v>961700</v>
       </c>
       <c r="J10" s="3">
-        <v>1000400</v>
+        <v>913700</v>
       </c>
       <c r="K10" s="3">
         <v>1183700</v>
@@ -854,25 +854,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34400</v>
+        <v>31400</v>
       </c>
       <c r="E12" s="3">
-        <v>33800</v>
+        <v>30900</v>
       </c>
       <c r="F12" s="3">
-        <v>35500</v>
+        <v>32400</v>
       </c>
       <c r="G12" s="3">
-        <v>35300</v>
+        <v>32300</v>
       </c>
       <c r="H12" s="3">
-        <v>34600</v>
+        <v>31600</v>
       </c>
       <c r="I12" s="3">
-        <v>34400</v>
+        <v>31400</v>
       </c>
       <c r="J12" s="3">
-        <v>35800</v>
+        <v>32700</v>
       </c>
       <c r="K12" s="3">
         <v>34200</v>
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16200</v>
+        <v>14800</v>
       </c>
       <c r="E14" s="3">
-        <v>34000</v>
+        <v>31100</v>
       </c>
       <c r="F14" s="3">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G14" s="3">
-        <v>44700</v>
+        <v>40800</v>
       </c>
       <c r="H14" s="3">
-        <v>25500</v>
+        <v>23300</v>
       </c>
       <c r="I14" s="3">
-        <v>13900</v>
+        <v>12700</v>
       </c>
       <c r="J14" s="3">
-        <v>-13100</v>
+        <v>-11900</v>
       </c>
       <c r="K14" s="3">
         <v>10000</v>
@@ -971,25 +971,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>19400</v>
+        <v>17700</v>
       </c>
       <c r="E15" s="3">
-        <v>24700</v>
+        <v>22500</v>
       </c>
       <c r="F15" s="3">
-        <v>24700</v>
+        <v>22600</v>
       </c>
       <c r="G15" s="3">
-        <v>24800</v>
+        <v>22700</v>
       </c>
       <c r="H15" s="3">
-        <v>23600</v>
+        <v>21500</v>
       </c>
       <c r="I15" s="3">
-        <v>23700</v>
+        <v>21600</v>
       </c>
       <c r="J15" s="3">
-        <v>22300</v>
+        <v>20300</v>
       </c>
       <c r="K15" s="3">
         <v>18600</v>
@@ -1024,25 +1024,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3249700</v>
+        <v>2967700</v>
       </c>
       <c r="E17" s="3">
-        <v>4322900</v>
+        <v>3947800</v>
       </c>
       <c r="F17" s="3">
-        <v>4398200</v>
+        <v>4016600</v>
       </c>
       <c r="G17" s="3">
-        <v>4654800</v>
+        <v>4251000</v>
       </c>
       <c r="H17" s="3">
-        <v>4550100</v>
+        <v>4155400</v>
       </c>
       <c r="I17" s="3">
-        <v>4470700</v>
+        <v>4082900</v>
       </c>
       <c r="J17" s="3">
-        <v>4455200</v>
+        <v>4068700</v>
       </c>
       <c r="K17" s="3">
         <v>4671100</v>
@@ -1063,25 +1063,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>222400</v>
+        <v>203100</v>
       </c>
       <c r="E18" s="3">
-        <v>207400</v>
+        <v>189400</v>
       </c>
       <c r="F18" s="3">
-        <v>256800</v>
+        <v>234600</v>
       </c>
       <c r="G18" s="3">
-        <v>237400</v>
+        <v>216800</v>
       </c>
       <c r="H18" s="3">
-        <v>241100</v>
+        <v>220200</v>
       </c>
       <c r="I18" s="3">
-        <v>240400</v>
+        <v>219600</v>
       </c>
       <c r="J18" s="3">
-        <v>234300</v>
+        <v>214000</v>
       </c>
       <c r="K18" s="3">
         <v>204400</v>
@@ -1119,25 +1119,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>25800</v>
+        <v>23600</v>
       </c>
       <c r="E20" s="3">
-        <v>-5900</v>
+        <v>-5300</v>
       </c>
       <c r="F20" s="3">
-        <v>22800</v>
+        <v>20800</v>
       </c>
       <c r="G20" s="3">
-        <v>52000</v>
+        <v>47500</v>
       </c>
       <c r="H20" s="3">
-        <v>24700</v>
+        <v>22500</v>
       </c>
       <c r="I20" s="3">
-        <v>20600</v>
+        <v>18800</v>
       </c>
       <c r="J20" s="3">
-        <v>12100</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="3">
         <v>14700</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>382300</v>
+        <v>346200</v>
       </c>
       <c r="E21" s="3">
-        <v>376700</v>
+        <v>340100</v>
       </c>
       <c r="F21" s="3">
-        <v>442700</v>
+        <v>400700</v>
       </c>
       <c r="G21" s="3">
-        <v>451000</v>
+        <v>408300</v>
       </c>
       <c r="H21" s="3">
-        <v>414200</v>
+        <v>375000</v>
       </c>
       <c r="I21" s="3">
-        <v>420500</v>
+        <v>380500</v>
       </c>
       <c r="J21" s="3">
-        <v>413200</v>
+        <v>373600</v>
       </c>
       <c r="K21" s="3">
         <v>361700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3200</v>
-      </c>
       <c r="I22" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1236,25 +1236,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>246200</v>
+        <v>224800</v>
       </c>
       <c r="E23" s="3">
-        <v>198700</v>
+        <v>181500</v>
       </c>
       <c r="F23" s="3">
-        <v>277100</v>
+        <v>253100</v>
       </c>
       <c r="G23" s="3">
-        <v>286500</v>
+        <v>261600</v>
       </c>
       <c r="H23" s="3">
-        <v>262600</v>
+        <v>239800</v>
       </c>
       <c r="I23" s="3">
-        <v>258400</v>
+        <v>236000</v>
       </c>
       <c r="J23" s="3">
-        <v>243800</v>
+        <v>222600</v>
       </c>
       <c r="K23" s="3">
         <v>216500</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>73300</v>
+        <v>66900</v>
       </c>
       <c r="E24" s="3">
-        <v>75300</v>
+        <v>68700</v>
       </c>
       <c r="F24" s="3">
-        <v>90200</v>
+        <v>82400</v>
       </c>
       <c r="G24" s="3">
-        <v>100000</v>
+        <v>91300</v>
       </c>
       <c r="H24" s="3">
-        <v>78700</v>
+        <v>71800</v>
       </c>
       <c r="I24" s="3">
-        <v>87500</v>
+        <v>79900</v>
       </c>
       <c r="J24" s="3">
-        <v>75700</v>
+        <v>69200</v>
       </c>
       <c r="K24" s="3">
         <v>80400</v>
@@ -1353,25 +1353,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>172900</v>
+        <v>157900</v>
       </c>
       <c r="E26" s="3">
-        <v>123400</v>
+        <v>112700</v>
       </c>
       <c r="F26" s="3">
-        <v>186900</v>
+        <v>170700</v>
       </c>
       <c r="G26" s="3">
-        <v>186500</v>
+        <v>170300</v>
       </c>
       <c r="H26" s="3">
-        <v>183900</v>
+        <v>168000</v>
       </c>
       <c r="I26" s="3">
-        <v>170900</v>
+        <v>156100</v>
       </c>
       <c r="J26" s="3">
-        <v>168000</v>
+        <v>153400</v>
       </c>
       <c r="K26" s="3">
         <v>136100</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>153700</v>
+        <v>140300</v>
       </c>
       <c r="E27" s="3">
-        <v>98900</v>
+        <v>90300</v>
       </c>
       <c r="F27" s="3">
-        <v>159500</v>
+        <v>145700</v>
       </c>
       <c r="G27" s="3">
-        <v>156300</v>
+        <v>142700</v>
       </c>
       <c r="H27" s="3">
-        <v>154400</v>
+        <v>141000</v>
       </c>
       <c r="I27" s="3">
-        <v>145800</v>
+        <v>133200</v>
       </c>
       <c r="J27" s="3">
-        <v>144800</v>
+        <v>132200</v>
       </c>
       <c r="K27" s="3">
         <v>117800</v>
@@ -1587,25 +1587,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-25800</v>
+        <v>-23600</v>
       </c>
       <c r="E32" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G32" s="3">
-        <v>-52000</v>
+        <v>-47500</v>
       </c>
       <c r="H32" s="3">
-        <v>-24700</v>
+        <v>-22500</v>
       </c>
       <c r="I32" s="3">
-        <v>-20600</v>
+        <v>-18800</v>
       </c>
       <c r="J32" s="3">
-        <v>-12100</v>
+        <v>-11000</v>
       </c>
       <c r="K32" s="3">
         <v>-14700</v>
@@ -1626,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>153700</v>
+        <v>140300</v>
       </c>
       <c r="E33" s="3">
-        <v>98900</v>
+        <v>90300</v>
       </c>
       <c r="F33" s="3">
-        <v>159500</v>
+        <v>145700</v>
       </c>
       <c r="G33" s="3">
-        <v>156300</v>
+        <v>142700</v>
       </c>
       <c r="H33" s="3">
-        <v>154400</v>
+        <v>141000</v>
       </c>
       <c r="I33" s="3">
-        <v>145800</v>
+        <v>133200</v>
       </c>
       <c r="J33" s="3">
-        <v>144800</v>
+        <v>132200</v>
       </c>
       <c r="K33" s="3">
         <v>117800</v>
@@ -1704,25 +1704,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>153700</v>
+        <v>140300</v>
       </c>
       <c r="E35" s="3">
-        <v>98900</v>
+        <v>90300</v>
       </c>
       <c r="F35" s="3">
-        <v>159500</v>
+        <v>145700</v>
       </c>
       <c r="G35" s="3">
-        <v>156300</v>
+        <v>142700</v>
       </c>
       <c r="H35" s="3">
-        <v>154400</v>
+        <v>141000</v>
       </c>
       <c r="I35" s="3">
-        <v>145800</v>
+        <v>133200</v>
       </c>
       <c r="J35" s="3">
-        <v>144800</v>
+        <v>132200</v>
       </c>
       <c r="K35" s="3">
         <v>117800</v>
@@ -1821,25 +1821,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>497700</v>
+        <v>454500</v>
       </c>
       <c r="E41" s="3">
-        <v>484800</v>
+        <v>442700</v>
       </c>
       <c r="F41" s="3">
-        <v>399000</v>
+        <v>364400</v>
       </c>
       <c r="G41" s="3">
-        <v>328300</v>
+        <v>299900</v>
       </c>
       <c r="H41" s="3">
-        <v>252600</v>
+        <v>230700</v>
       </c>
       <c r="I41" s="3">
-        <v>305300</v>
+        <v>278800</v>
       </c>
       <c r="J41" s="3">
-        <v>254600</v>
+        <v>232500</v>
       </c>
       <c r="K41" s="3">
         <v>306700</v>
@@ -1860,25 +1860,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>85300</v>
+        <v>77900</v>
       </c>
       <c r="E42" s="3">
-        <v>85300</v>
+        <v>77900</v>
       </c>
       <c r="F42" s="3">
-        <v>85300</v>
+        <v>77900</v>
       </c>
       <c r="G42" s="3">
-        <v>81000</v>
+        <v>74000</v>
       </c>
       <c r="H42" s="3">
-        <v>102400</v>
+        <v>93500</v>
       </c>
       <c r="I42" s="3">
-        <v>42600</v>
+        <v>39000</v>
       </c>
       <c r="J42" s="3">
-        <v>42600</v>
+        <v>39000</v>
       </c>
       <c r="K42" s="3">
         <v>88100</v>
@@ -1899,25 +1899,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>484000</v>
+        <v>442000</v>
       </c>
       <c r="E43" s="3">
-        <v>624900</v>
+        <v>570700</v>
       </c>
       <c r="F43" s="3">
-        <v>709900</v>
+        <v>648300</v>
       </c>
       <c r="G43" s="3">
-        <v>653300</v>
+        <v>596600</v>
       </c>
       <c r="H43" s="3">
-        <v>665300</v>
+        <v>607500</v>
       </c>
       <c r="I43" s="3">
-        <v>639400</v>
+        <v>583900</v>
       </c>
       <c r="J43" s="3">
-        <v>665100</v>
+        <v>607400</v>
       </c>
       <c r="K43" s="3">
         <v>716200</v>
@@ -1938,25 +1938,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>256500</v>
+        <v>234200</v>
       </c>
       <c r="E44" s="3">
-        <v>232200</v>
+        <v>212100</v>
       </c>
       <c r="F44" s="3">
-        <v>246000</v>
+        <v>224600</v>
       </c>
       <c r="G44" s="3">
-        <v>241000</v>
+        <v>220100</v>
       </c>
       <c r="H44" s="3">
-        <v>244800</v>
+        <v>223600</v>
       </c>
       <c r="I44" s="3">
-        <v>220700</v>
+        <v>201500</v>
       </c>
       <c r="J44" s="3">
-        <v>242300</v>
+        <v>221300</v>
       </c>
       <c r="K44" s="3">
         <v>202200</v>
@@ -1977,25 +1977,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>19700</v>
+        <v>18000</v>
       </c>
       <c r="E45" s="3">
-        <v>57100</v>
+        <v>52200</v>
       </c>
       <c r="F45" s="3">
-        <v>50800</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="3">
-        <v>73300</v>
+        <v>66900</v>
       </c>
       <c r="H45" s="3">
-        <v>68400</v>
+        <v>62500</v>
       </c>
       <c r="I45" s="3">
-        <v>72800</v>
+        <v>66500</v>
       </c>
       <c r="J45" s="3">
-        <v>85200</v>
+        <v>77900</v>
       </c>
       <c r="K45" s="3">
         <v>48800</v>
@@ -2016,25 +2016,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1343100</v>
+        <v>1226500</v>
       </c>
       <c r="E46" s="3">
-        <v>1484300</v>
+        <v>1355600</v>
       </c>
       <c r="F46" s="3">
-        <v>1491000</v>
+        <v>1361600</v>
       </c>
       <c r="G46" s="3">
-        <v>1351200</v>
+        <v>1234000</v>
       </c>
       <c r="H46" s="3">
-        <v>1333500</v>
+        <v>1217800</v>
       </c>
       <c r="I46" s="3">
-        <v>1280900</v>
+        <v>1169700</v>
       </c>
       <c r="J46" s="3">
-        <v>1266900</v>
+        <v>1157000</v>
       </c>
       <c r="K46" s="3">
         <v>1362000</v>
@@ -2055,25 +2055,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>382400</v>
+        <v>349200</v>
       </c>
       <c r="E47" s="3">
-        <v>249200</v>
+        <v>227600</v>
       </c>
       <c r="F47" s="3">
-        <v>245200</v>
+        <v>223900</v>
       </c>
       <c r="G47" s="3">
-        <v>265800</v>
+        <v>242700</v>
       </c>
       <c r="H47" s="3">
-        <v>303800</v>
+        <v>277500</v>
       </c>
       <c r="I47" s="3">
-        <v>242500</v>
+        <v>221500</v>
       </c>
       <c r="J47" s="3">
-        <v>493700</v>
+        <v>450800</v>
       </c>
       <c r="K47" s="3">
         <v>240000</v>
@@ -2094,25 +2094,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1249900</v>
+        <v>1141500</v>
       </c>
       <c r="E48" s="3">
-        <v>1815200</v>
+        <v>1657700</v>
       </c>
       <c r="F48" s="3">
-        <v>1769600</v>
+        <v>1616100</v>
       </c>
       <c r="G48" s="3">
-        <v>1696200</v>
+        <v>1549100</v>
       </c>
       <c r="H48" s="3">
-        <v>1661200</v>
+        <v>1517100</v>
       </c>
       <c r="I48" s="3">
-        <v>1564200</v>
+        <v>1428500</v>
       </c>
       <c r="J48" s="3">
-        <v>1463700</v>
+        <v>1336800</v>
       </c>
       <c r="K48" s="3">
         <v>1352800</v>
@@ -2133,25 +2133,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>113500</v>
+        <v>103600</v>
       </c>
       <c r="E49" s="3">
-        <v>129200</v>
+        <v>118000</v>
       </c>
       <c r="F49" s="3">
-        <v>84600</v>
+        <v>77300</v>
       </c>
       <c r="G49" s="3">
-        <v>53700</v>
+        <v>49000</v>
       </c>
       <c r="H49" s="3">
-        <v>71300</v>
+        <v>65100</v>
       </c>
       <c r="I49" s="3">
-        <v>48400</v>
+        <v>44200</v>
       </c>
       <c r="J49" s="3">
-        <v>75400</v>
+        <v>68800</v>
       </c>
       <c r="K49" s="3">
         <v>29800</v>
@@ -2250,25 +2250,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>161100</v>
+        <v>147100</v>
       </c>
       <c r="E52" s="3">
-        <v>197100</v>
+        <v>180000</v>
       </c>
       <c r="F52" s="3">
-        <v>199600</v>
+        <v>182300</v>
       </c>
       <c r="G52" s="3">
-        <v>342700</v>
+        <v>312900</v>
       </c>
       <c r="H52" s="3">
-        <v>206000</v>
+        <v>188100</v>
       </c>
       <c r="I52" s="3">
-        <v>155800</v>
+        <v>142300</v>
       </c>
       <c r="J52" s="3">
-        <v>292100</v>
+        <v>266800</v>
       </c>
       <c r="K52" s="3">
         <v>160600</v>
@@ -2328,25 +2328,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3250000</v>
+        <v>2968000</v>
       </c>
       <c r="E54" s="3">
-        <v>3875000</v>
+        <v>3538800</v>
       </c>
       <c r="F54" s="3">
-        <v>3790000</v>
+        <v>3461200</v>
       </c>
       <c r="G54" s="3">
-        <v>3580300</v>
+        <v>3269700</v>
       </c>
       <c r="H54" s="3">
-        <v>3575800</v>
+        <v>3265600</v>
       </c>
       <c r="I54" s="3">
-        <v>3291800</v>
+        <v>3006300</v>
       </c>
       <c r="J54" s="3">
-        <v>3181800</v>
+        <v>2905800</v>
       </c>
       <c r="K54" s="3">
         <v>3145100</v>
@@ -2401,25 +2401,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>239000</v>
+        <v>218200</v>
       </c>
       <c r="E57" s="3">
-        <v>356800</v>
+        <v>325800</v>
       </c>
       <c r="F57" s="3">
-        <v>454600</v>
+        <v>415200</v>
       </c>
       <c r="G57" s="3">
-        <v>379700</v>
+        <v>346800</v>
       </c>
       <c r="H57" s="3">
-        <v>409500</v>
+        <v>374000</v>
       </c>
       <c r="I57" s="3">
-        <v>401300</v>
+        <v>366500</v>
       </c>
       <c r="J57" s="3">
-        <v>385500</v>
+        <v>352000</v>
       </c>
       <c r="K57" s="3">
         <v>473800</v>
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>103400</v>
+        <v>94400</v>
       </c>
       <c r="E58" s="3">
-        <v>119900</v>
+        <v>109500</v>
       </c>
       <c r="F58" s="3">
-        <v>62500</v>
+        <v>57000</v>
       </c>
       <c r="G58" s="3">
-        <v>166300</v>
+        <v>151900</v>
       </c>
       <c r="H58" s="3">
-        <v>68600</v>
+        <v>62600</v>
       </c>
       <c r="I58" s="3">
-        <v>70800</v>
+        <v>64700</v>
       </c>
       <c r="J58" s="3">
-        <v>167000</v>
+        <v>152600</v>
       </c>
       <c r="K58" s="3">
         <v>81200</v>
@@ -2479,25 +2479,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>265000</v>
+        <v>242000</v>
       </c>
       <c r="E59" s="3">
-        <v>260100</v>
+        <v>237500</v>
       </c>
       <c r="F59" s="3">
-        <v>327400</v>
+        <v>299000</v>
       </c>
       <c r="G59" s="3">
-        <v>339700</v>
+        <v>310200</v>
       </c>
       <c r="H59" s="3">
-        <v>295600</v>
+        <v>269900</v>
       </c>
       <c r="I59" s="3">
-        <v>400000</v>
+        <v>365300</v>
       </c>
       <c r="J59" s="3">
-        <v>631200</v>
+        <v>576400</v>
       </c>
       <c r="K59" s="3">
         <v>379800</v>
@@ -2518,25 +2518,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>607300</v>
+        <v>554600</v>
       </c>
       <c r="E60" s="3">
-        <v>736800</v>
+        <v>672800</v>
       </c>
       <c r="F60" s="3">
-        <v>844500</v>
+        <v>771300</v>
       </c>
       <c r="G60" s="3">
-        <v>860600</v>
+        <v>785900</v>
       </c>
       <c r="H60" s="3">
-        <v>773600</v>
+        <v>706500</v>
       </c>
       <c r="I60" s="3">
-        <v>872100</v>
+        <v>796500</v>
       </c>
       <c r="J60" s="3">
-        <v>809200</v>
+        <v>739000</v>
       </c>
       <c r="K60" s="3">
         <v>934700</v>
@@ -2557,25 +2557,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>257100</v>
+        <v>234800</v>
       </c>
       <c r="E61" s="3">
-        <v>579600</v>
+        <v>529300</v>
       </c>
       <c r="F61" s="3">
-        <v>488300</v>
+        <v>446000</v>
       </c>
       <c r="G61" s="3">
-        <v>345200</v>
+        <v>315200</v>
       </c>
       <c r="H61" s="3">
-        <v>430400</v>
+        <v>393100</v>
       </c>
       <c r="I61" s="3">
-        <v>224200</v>
+        <v>204700</v>
       </c>
       <c r="J61" s="3">
-        <v>139400</v>
+        <v>127300</v>
       </c>
       <c r="K61" s="3">
         <v>175300</v>
@@ -2596,25 +2596,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>88400</v>
+        <v>80800</v>
       </c>
       <c r="E62" s="3">
-        <v>107500</v>
+        <v>98200</v>
       </c>
       <c r="F62" s="3">
-        <v>96400</v>
+        <v>88100</v>
       </c>
       <c r="G62" s="3">
-        <v>104700</v>
+        <v>95700</v>
       </c>
       <c r="H62" s="3">
-        <v>124700</v>
+        <v>113900</v>
       </c>
       <c r="I62" s="3">
-        <v>98300</v>
+        <v>89800</v>
       </c>
       <c r="J62" s="3">
-        <v>213600</v>
+        <v>195100</v>
       </c>
       <c r="K62" s="3">
         <v>93400</v>
@@ -2752,25 +2752,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1154600</v>
+        <v>1054500</v>
       </c>
       <c r="E66" s="3">
-        <v>1830000</v>
+        <v>1671200</v>
       </c>
       <c r="F66" s="3">
-        <v>1780700</v>
+        <v>1626200</v>
       </c>
       <c r="G66" s="3">
-        <v>1649700</v>
+        <v>1506600</v>
       </c>
       <c r="H66" s="3">
-        <v>1644300</v>
+        <v>1501700</v>
       </c>
       <c r="I66" s="3">
-        <v>1478200</v>
+        <v>1350000</v>
       </c>
       <c r="J66" s="3">
-        <v>1365500</v>
+        <v>1247000</v>
       </c>
       <c r="K66" s="3">
         <v>1426700</v>
@@ -2964,25 +2964,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1654900</v>
+        <v>1511400</v>
       </c>
       <c r="E72" s="3">
-        <v>1720500</v>
+        <v>1571300</v>
       </c>
       <c r="F72" s="3">
-        <v>1676600</v>
+        <v>1531100</v>
       </c>
       <c r="G72" s="3">
-        <v>1564700</v>
+        <v>1428900</v>
       </c>
       <c r="H72" s="3">
-        <v>1455100</v>
+        <v>1328800</v>
       </c>
       <c r="I72" s="3">
-        <v>1422500</v>
+        <v>1299100</v>
       </c>
       <c r="J72" s="3">
-        <v>1317200</v>
+        <v>1202900</v>
       </c>
       <c r="K72" s="3">
         <v>1255300</v>
@@ -3120,25 +3120,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2095300</v>
+        <v>1913500</v>
       </c>
       <c r="E76" s="3">
-        <v>2045000</v>
+        <v>1867600</v>
       </c>
       <c r="F76" s="3">
-        <v>2009300</v>
+        <v>1835000</v>
       </c>
       <c r="G76" s="3">
-        <v>1930600</v>
+        <v>1763100</v>
       </c>
       <c r="H76" s="3">
-        <v>1931500</v>
+        <v>1764000</v>
       </c>
       <c r="I76" s="3">
-        <v>1813700</v>
+        <v>1656300</v>
       </c>
       <c r="J76" s="3">
-        <v>1816400</v>
+        <v>1658800</v>
       </c>
       <c r="K76" s="3">
         <v>1718400</v>
@@ -3242,25 +3242,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>153700</v>
+        <v>140300</v>
       </c>
       <c r="E81" s="3">
-        <v>98900</v>
+        <v>90300</v>
       </c>
       <c r="F81" s="3">
-        <v>159500</v>
+        <v>145700</v>
       </c>
       <c r="G81" s="3">
-        <v>156300</v>
+        <v>142700</v>
       </c>
       <c r="H81" s="3">
-        <v>154400</v>
+        <v>141000</v>
       </c>
       <c r="I81" s="3">
-        <v>145800</v>
+        <v>133200</v>
       </c>
       <c r="J81" s="3">
-        <v>144800</v>
+        <v>132200</v>
       </c>
       <c r="K81" s="3">
         <v>117800</v>
@@ -3298,25 +3298,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>132500</v>
+        <v>121000</v>
       </c>
       <c r="E83" s="3">
-        <v>173100</v>
+        <v>158100</v>
       </c>
       <c r="F83" s="3">
-        <v>161200</v>
+        <v>147200</v>
       </c>
       <c r="G83" s="3">
-        <v>159800</v>
+        <v>145900</v>
       </c>
       <c r="H83" s="3">
-        <v>146700</v>
+        <v>134000</v>
       </c>
       <c r="I83" s="3">
-        <v>157600</v>
+        <v>143900</v>
       </c>
       <c r="J83" s="3">
-        <v>164800</v>
+        <v>150500</v>
       </c>
       <c r="K83" s="3">
         <v>142200</v>
@@ -3532,25 +3532,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>272300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>342100</v>
+      </c>
+      <c r="G89" s="3">
         <v>329100</v>
       </c>
-      <c r="E89" s="3">
-        <v>298200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>374600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>360300</v>
-      </c>
       <c r="H89" s="3">
-        <v>232300</v>
+        <v>212200</v>
       </c>
       <c r="I89" s="3">
-        <v>386100</v>
+        <v>352600</v>
       </c>
       <c r="J89" s="3">
-        <v>239700</v>
+        <v>218900</v>
       </c>
       <c r="K89" s="3">
         <v>303000</v>
@@ -3588,25 +3588,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-66000</v>
+        <v>-60300</v>
       </c>
       <c r="E91" s="3">
-        <v>-176600</v>
+        <v>-161300</v>
       </c>
       <c r="F91" s="3">
-        <v>-212800</v>
+        <v>-194400</v>
       </c>
       <c r="G91" s="3">
-        <v>-249200</v>
+        <v>-227600</v>
       </c>
       <c r="H91" s="3">
-        <v>-217500</v>
+        <v>-198600</v>
       </c>
       <c r="I91" s="3">
-        <v>-265700</v>
+        <v>-242600</v>
       </c>
       <c r="J91" s="3">
-        <v>-256200</v>
+        <v>-233900</v>
       </c>
       <c r="K91" s="3">
         <v>-248800</v>
@@ -3705,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-173000</v>
+        <v>-158000</v>
       </c>
       <c r="E94" s="3">
-        <v>-222100</v>
+        <v>-202800</v>
       </c>
       <c r="F94" s="3">
-        <v>-253500</v>
+        <v>-231500</v>
       </c>
       <c r="G94" s="3">
-        <v>-172300</v>
+        <v>-157400</v>
       </c>
       <c r="H94" s="3">
-        <v>-268000</v>
+        <v>-244800</v>
       </c>
       <c r="I94" s="3">
-        <v>-273400</v>
+        <v>-249600</v>
       </c>
       <c r="J94" s="3">
-        <v>-266000</v>
+        <v>-242900</v>
       </c>
       <c r="K94" s="3">
         <v>-271800</v>
@@ -3761,25 +3761,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-48300</v>
+        <v>-44100</v>
       </c>
       <c r="E96" s="3">
-        <v>-54900</v>
+        <v>-50100</v>
       </c>
       <c r="F96" s="3">
-        <v>-47600</v>
+        <v>-43500</v>
       </c>
       <c r="G96" s="3">
-        <v>-47000</v>
+        <v>-43000</v>
       </c>
       <c r="H96" s="3">
-        <v>-48100</v>
+        <v>-43900</v>
       </c>
       <c r="I96" s="3">
-        <v>-40500</v>
+        <v>-37000</v>
       </c>
       <c r="J96" s="3">
-        <v>-31100</v>
+        <v>-28400</v>
       </c>
       <c r="K96" s="3">
         <v>-29700</v>
@@ -3917,25 +3917,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-159500</v>
+        <v>-145700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-39300</v>
+        <v>-35800</v>
       </c>
       <c r="G100" s="3">
-        <v>-130400</v>
+        <v>-119100</v>
       </c>
       <c r="H100" s="3">
-        <v>34200</v>
+        <v>31200</v>
       </c>
       <c r="I100" s="3">
-        <v>-49500</v>
+        <v>-45200</v>
       </c>
       <c r="J100" s="3">
-        <v>-60600</v>
+        <v>-55300</v>
       </c>
       <c r="K100" s="3">
         <v>-27700</v>
@@ -3956,25 +3956,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="H101" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="I101" s="3">
-        <v>-12400</v>
+        <v>-11400</v>
       </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K101" s="3">
         <v>3800</v>
@@ -3995,25 +3995,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="E102" s="3">
-        <v>76800</v>
+        <v>70100</v>
       </c>
       <c r="F102" s="3">
-        <v>75100</v>
+        <v>68600</v>
       </c>
       <c r="G102" s="3">
-        <v>55900</v>
+        <v>51100</v>
       </c>
       <c r="H102" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="I102" s="3">
-        <v>50700</v>
+        <v>46300</v>
       </c>
       <c r="J102" s="3">
-        <v>-84900</v>
+        <v>-77500</v>
       </c>
       <c r="K102" s="3">
         <v>7300</v>

--- a/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KWPCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3170800</v>
+        <v>2983600</v>
       </c>
       <c r="E8" s="3">
-        <v>4137300</v>
+        <v>3893000</v>
       </c>
       <c r="F8" s="3">
-        <v>4251200</v>
+        <v>4000100</v>
       </c>
       <c r="G8" s="3">
-        <v>4467800</v>
+        <v>4203900</v>
       </c>
       <c r="H8" s="3">
-        <v>4375500</v>
+        <v>4117200</v>
       </c>
       <c r="I8" s="3">
-        <v>4302500</v>
+        <v>4048400</v>
       </c>
       <c r="J8" s="3">
-        <v>4282700</v>
+        <v>4029800</v>
       </c>
       <c r="K8" s="3">
         <v>4875500</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2203100</v>
+        <v>2073000</v>
       </c>
       <c r="E9" s="3">
-        <v>3161100</v>
+        <v>2974400</v>
       </c>
       <c r="F9" s="3">
-        <v>3215300</v>
+        <v>3025400</v>
       </c>
       <c r="G9" s="3">
-        <v>3430500</v>
+        <v>3228000</v>
       </c>
       <c r="H9" s="3">
-        <v>3371300</v>
+        <v>3172200</v>
       </c>
       <c r="I9" s="3">
-        <v>3340700</v>
+        <v>3143500</v>
       </c>
       <c r="J9" s="3">
-        <v>3369100</v>
+        <v>3170100</v>
       </c>
       <c r="K9" s="3">
         <v>3691800</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>967800</v>
+        <v>910600</v>
       </c>
       <c r="E10" s="3">
-        <v>976200</v>
+        <v>918500</v>
       </c>
       <c r="F10" s="3">
-        <v>1035900</v>
+        <v>974800</v>
       </c>
       <c r="G10" s="3">
-        <v>1037200</v>
+        <v>976000</v>
       </c>
       <c r="H10" s="3">
-        <v>1004200</v>
+        <v>944900</v>
       </c>
       <c r="I10" s="3">
-        <v>961700</v>
+        <v>904900</v>
       </c>
       <c r="J10" s="3">
-        <v>913700</v>
+        <v>859700</v>
       </c>
       <c r="K10" s="3">
         <v>1183700</v>
@@ -854,25 +854,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31400</v>
+        <v>29600</v>
       </c>
       <c r="E12" s="3">
-        <v>30900</v>
+        <v>29000</v>
       </c>
       <c r="F12" s="3">
-        <v>32400</v>
+        <v>30500</v>
       </c>
       <c r="G12" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="H12" s="3">
-        <v>31600</v>
+        <v>29700</v>
       </c>
       <c r="I12" s="3">
-        <v>31400</v>
+        <v>29500</v>
       </c>
       <c r="J12" s="3">
-        <v>32700</v>
+        <v>30800</v>
       </c>
       <c r="K12" s="3">
         <v>34200</v>
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="E14" s="3">
-        <v>31100</v>
+        <v>29200</v>
       </c>
       <c r="F14" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="G14" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="H14" s="3">
-        <v>23300</v>
+        <v>22000</v>
       </c>
       <c r="I14" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="J14" s="3">
-        <v>-11900</v>
+        <v>-11200</v>
       </c>
       <c r="K14" s="3">
         <v>10000</v>
@@ -971,25 +971,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="E15" s="3">
-        <v>22500</v>
+        <v>21200</v>
       </c>
       <c r="F15" s="3">
-        <v>22600</v>
+        <v>21200</v>
       </c>
       <c r="G15" s="3">
-        <v>22700</v>
+        <v>21400</v>
       </c>
       <c r="H15" s="3">
-        <v>21500</v>
+        <v>20300</v>
       </c>
       <c r="I15" s="3">
-        <v>21600</v>
+        <v>20400</v>
       </c>
       <c r="J15" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="K15" s="3">
         <v>18600</v>
@@ -1024,25 +1024,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2967700</v>
+        <v>2792500</v>
       </c>
       <c r="E17" s="3">
-        <v>3947800</v>
+        <v>3714700</v>
       </c>
       <c r="F17" s="3">
-        <v>4016600</v>
+        <v>3779400</v>
       </c>
       <c r="G17" s="3">
-        <v>4251000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" s="3">
-        <v>4155400</v>
+        <v>3910000</v>
       </c>
       <c r="I17" s="3">
-        <v>4082900</v>
+        <v>3841800</v>
       </c>
       <c r="J17" s="3">
-        <v>4068700</v>
+        <v>3828500</v>
       </c>
       <c r="K17" s="3">
         <v>4671100</v>
@@ -1063,25 +1063,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>203100</v>
+        <v>191100</v>
       </c>
       <c r="E18" s="3">
-        <v>189400</v>
+        <v>178300</v>
       </c>
       <c r="F18" s="3">
-        <v>234600</v>
+        <v>220700</v>
       </c>
       <c r="G18" s="3">
-        <v>216800</v>
+        <v>204000</v>
       </c>
       <c r="H18" s="3">
-        <v>220200</v>
+        <v>207200</v>
       </c>
       <c r="I18" s="3">
-        <v>219600</v>
+        <v>206600</v>
       </c>
       <c r="J18" s="3">
-        <v>214000</v>
+        <v>201400</v>
       </c>
       <c r="K18" s="3">
         <v>204400</v>
@@ -1119,25 +1119,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="F20" s="3">
-        <v>20800</v>
+        <v>19600</v>
       </c>
       <c r="G20" s="3">
-        <v>47500</v>
+        <v>44700</v>
       </c>
       <c r="H20" s="3">
-        <v>22500</v>
+        <v>21200</v>
       </c>
       <c r="I20" s="3">
-        <v>18800</v>
+        <v>17700</v>
       </c>
       <c r="J20" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="K20" s="3">
         <v>14700</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>346200</v>
+        <v>326600</v>
       </c>
       <c r="E21" s="3">
-        <v>340100</v>
+        <v>321200</v>
       </c>
       <c r="F21" s="3">
-        <v>400700</v>
+        <v>378000</v>
       </c>
       <c r="G21" s="3">
-        <v>408300</v>
+        <v>385200</v>
       </c>
       <c r="H21" s="3">
-        <v>375000</v>
+        <v>353800</v>
       </c>
       <c r="I21" s="3">
-        <v>380500</v>
+        <v>359000</v>
       </c>
       <c r="J21" s="3">
-        <v>373600</v>
+        <v>352600</v>
       </c>
       <c r="K21" s="3">
         <v>361700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2400</v>
-      </c>
       <c r="J22" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1236,25 +1236,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>224800</v>
+        <v>211500</v>
       </c>
       <c r="E23" s="3">
-        <v>181500</v>
+        <v>170800</v>
       </c>
       <c r="F23" s="3">
-        <v>253100</v>
+        <v>238100</v>
       </c>
       <c r="G23" s="3">
-        <v>261600</v>
+        <v>246200</v>
       </c>
       <c r="H23" s="3">
-        <v>239800</v>
+        <v>225600</v>
       </c>
       <c r="I23" s="3">
-        <v>236000</v>
+        <v>222000</v>
       </c>
       <c r="J23" s="3">
-        <v>222600</v>
+        <v>209500</v>
       </c>
       <c r="K23" s="3">
         <v>216500</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>66900</v>
+        <v>63000</v>
       </c>
       <c r="E24" s="3">
-        <v>68700</v>
+        <v>64700</v>
       </c>
       <c r="F24" s="3">
-        <v>82400</v>
+        <v>77500</v>
       </c>
       <c r="G24" s="3">
-        <v>91300</v>
+        <v>85900</v>
       </c>
       <c r="H24" s="3">
-        <v>71800</v>
+        <v>67600</v>
       </c>
       <c r="I24" s="3">
-        <v>79900</v>
+        <v>75200</v>
       </c>
       <c r="J24" s="3">
-        <v>69200</v>
+        <v>65100</v>
       </c>
       <c r="K24" s="3">
         <v>80400</v>
@@ -1353,25 +1353,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>157900</v>
+        <v>148600</v>
       </c>
       <c r="E26" s="3">
-        <v>112700</v>
+        <v>106100</v>
       </c>
       <c r="F26" s="3">
-        <v>170700</v>
+        <v>160600</v>
       </c>
       <c r="G26" s="3">
-        <v>170300</v>
+        <v>160300</v>
       </c>
       <c r="H26" s="3">
-        <v>168000</v>
+        <v>158000</v>
       </c>
       <c r="I26" s="3">
-        <v>156100</v>
+        <v>146900</v>
       </c>
       <c r="J26" s="3">
-        <v>153400</v>
+        <v>144400</v>
       </c>
       <c r="K26" s="3">
         <v>136100</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>140300</v>
+        <v>132000</v>
       </c>
       <c r="E27" s="3">
-        <v>90300</v>
+        <v>85000</v>
       </c>
       <c r="F27" s="3">
-        <v>145700</v>
+        <v>137100</v>
       </c>
       <c r="G27" s="3">
-        <v>142700</v>
+        <v>134300</v>
       </c>
       <c r="H27" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I27" s="3">
-        <v>133200</v>
+        <v>125300</v>
       </c>
       <c r="J27" s="3">
-        <v>132200</v>
+        <v>124400</v>
       </c>
       <c r="K27" s="3">
         <v>117800</v>
@@ -1587,25 +1587,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-23600</v>
+        <v>-22200</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-20800</v>
+        <v>-19600</v>
       </c>
       <c r="G32" s="3">
-        <v>-47500</v>
+        <v>-44700</v>
       </c>
       <c r="H32" s="3">
-        <v>-22500</v>
+        <v>-21200</v>
       </c>
       <c r="I32" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="K32" s="3">
         <v>-14700</v>
@@ -1626,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>140300</v>
+        <v>132000</v>
       </c>
       <c r="E33" s="3">
-        <v>90300</v>
+        <v>85000</v>
       </c>
       <c r="F33" s="3">
-        <v>145700</v>
+        <v>137100</v>
       </c>
       <c r="G33" s="3">
-        <v>142700</v>
+        <v>134300</v>
       </c>
       <c r="H33" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I33" s="3">
-        <v>133200</v>
+        <v>125300</v>
       </c>
       <c r="J33" s="3">
-        <v>132200</v>
+        <v>124400</v>
       </c>
       <c r="K33" s="3">
         <v>117800</v>
@@ -1704,25 +1704,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>140300</v>
+        <v>132000</v>
       </c>
       <c r="E35" s="3">
-        <v>90300</v>
+        <v>85000</v>
       </c>
       <c r="F35" s="3">
-        <v>145700</v>
+        <v>137100</v>
       </c>
       <c r="G35" s="3">
-        <v>142700</v>
+        <v>134300</v>
       </c>
       <c r="H35" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I35" s="3">
-        <v>133200</v>
+        <v>125300</v>
       </c>
       <c r="J35" s="3">
-        <v>132200</v>
+        <v>124400</v>
       </c>
       <c r="K35" s="3">
         <v>117800</v>
@@ -1821,25 +1821,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>454500</v>
+        <v>427700</v>
       </c>
       <c r="E41" s="3">
-        <v>442700</v>
+        <v>416600</v>
       </c>
       <c r="F41" s="3">
-        <v>364400</v>
+        <v>342900</v>
       </c>
       <c r="G41" s="3">
-        <v>299900</v>
+        <v>282200</v>
       </c>
       <c r="H41" s="3">
-        <v>230700</v>
+        <v>217100</v>
       </c>
       <c r="I41" s="3">
-        <v>278800</v>
+        <v>262400</v>
       </c>
       <c r="J41" s="3">
-        <v>232500</v>
+        <v>218800</v>
       </c>
       <c r="K41" s="3">
         <v>306700</v>
@@ -1860,25 +1860,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="E42" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="F42" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="G42" s="3">
-        <v>74000</v>
+        <v>69600</v>
       </c>
       <c r="H42" s="3">
-        <v>93500</v>
+        <v>88000</v>
       </c>
       <c r="I42" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="J42" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="K42" s="3">
         <v>88100</v>
@@ -1899,25 +1899,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>442000</v>
+        <v>415900</v>
       </c>
       <c r="E43" s="3">
-        <v>570700</v>
+        <v>537000</v>
       </c>
       <c r="F43" s="3">
-        <v>648300</v>
+        <v>610000</v>
       </c>
       <c r="G43" s="3">
-        <v>596600</v>
+        <v>561400</v>
       </c>
       <c r="H43" s="3">
-        <v>607500</v>
+        <v>571700</v>
       </c>
       <c r="I43" s="3">
-        <v>583900</v>
+        <v>549500</v>
       </c>
       <c r="J43" s="3">
-        <v>607400</v>
+        <v>571600</v>
       </c>
       <c r="K43" s="3">
         <v>716200</v>
@@ -1938,25 +1938,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>234200</v>
+        <v>220400</v>
       </c>
       <c r="E44" s="3">
-        <v>212100</v>
+        <v>199500</v>
       </c>
       <c r="F44" s="3">
-        <v>224600</v>
+        <v>211400</v>
       </c>
       <c r="G44" s="3">
-        <v>220100</v>
+        <v>207100</v>
       </c>
       <c r="H44" s="3">
-        <v>223600</v>
+        <v>210400</v>
       </c>
       <c r="I44" s="3">
-        <v>201500</v>
+        <v>189600</v>
       </c>
       <c r="J44" s="3">
-        <v>221300</v>
+        <v>208200</v>
       </c>
       <c r="K44" s="3">
         <v>202200</v>
@@ -1977,25 +1977,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>18000</v>
+        <v>16900</v>
       </c>
       <c r="E45" s="3">
-        <v>52200</v>
+        <v>49100</v>
       </c>
       <c r="F45" s="3">
-        <v>46400</v>
+        <v>43600</v>
       </c>
       <c r="G45" s="3">
-        <v>66900</v>
+        <v>63000</v>
       </c>
       <c r="H45" s="3">
-        <v>62500</v>
+        <v>58800</v>
       </c>
       <c r="I45" s="3">
-        <v>66500</v>
+        <v>62600</v>
       </c>
       <c r="J45" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="K45" s="3">
         <v>48800</v>
@@ -2016,25 +2016,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1226500</v>
+        <v>1154100</v>
       </c>
       <c r="E46" s="3">
-        <v>1355600</v>
+        <v>1275500</v>
       </c>
       <c r="F46" s="3">
-        <v>1361600</v>
+        <v>1281200</v>
       </c>
       <c r="G46" s="3">
-        <v>1234000</v>
+        <v>1161100</v>
       </c>
       <c r="H46" s="3">
-        <v>1217800</v>
+        <v>1145900</v>
       </c>
       <c r="I46" s="3">
-        <v>1169700</v>
+        <v>1100700</v>
       </c>
       <c r="J46" s="3">
-        <v>1157000</v>
+        <v>1088600</v>
       </c>
       <c r="K46" s="3">
         <v>1362000</v>
@@ -2055,25 +2055,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>349200</v>
+        <v>328600</v>
       </c>
       <c r="E47" s="3">
-        <v>227600</v>
+        <v>214100</v>
       </c>
       <c r="F47" s="3">
-        <v>223900</v>
+        <v>210700</v>
       </c>
       <c r="G47" s="3">
-        <v>242700</v>
+        <v>228400</v>
       </c>
       <c r="H47" s="3">
-        <v>277500</v>
+        <v>261100</v>
       </c>
       <c r="I47" s="3">
-        <v>221500</v>
+        <v>208400</v>
       </c>
       <c r="J47" s="3">
-        <v>450800</v>
+        <v>424200</v>
       </c>
       <c r="K47" s="3">
         <v>240000</v>
@@ -2094,25 +2094,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1141500</v>
+        <v>1074100</v>
       </c>
       <c r="E48" s="3">
-        <v>1657700</v>
+        <v>1559800</v>
       </c>
       <c r="F48" s="3">
-        <v>1616100</v>
+        <v>1520700</v>
       </c>
       <c r="G48" s="3">
-        <v>1549100</v>
+        <v>1457600</v>
       </c>
       <c r="H48" s="3">
-        <v>1517100</v>
+        <v>1427500</v>
       </c>
       <c r="I48" s="3">
-        <v>1428500</v>
+        <v>1344200</v>
       </c>
       <c r="J48" s="3">
-        <v>1336800</v>
+        <v>1257800</v>
       </c>
       <c r="K48" s="3">
         <v>1352800</v>
@@ -2133,25 +2133,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>103600</v>
+        <v>97500</v>
       </c>
       <c r="E49" s="3">
-        <v>118000</v>
+        <v>111000</v>
       </c>
       <c r="F49" s="3">
-        <v>77300</v>
+        <v>72700</v>
       </c>
       <c r="G49" s="3">
-        <v>49000</v>
+        <v>46100</v>
       </c>
       <c r="H49" s="3">
-        <v>65100</v>
+        <v>61300</v>
       </c>
       <c r="I49" s="3">
-        <v>44200</v>
+        <v>41600</v>
       </c>
       <c r="J49" s="3">
-        <v>68800</v>
+        <v>64800</v>
       </c>
       <c r="K49" s="3">
         <v>29800</v>
@@ -2250,25 +2250,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>147100</v>
+        <v>138400</v>
       </c>
       <c r="E52" s="3">
-        <v>180000</v>
+        <v>169400</v>
       </c>
       <c r="F52" s="3">
-        <v>182300</v>
+        <v>171500</v>
       </c>
       <c r="G52" s="3">
-        <v>312900</v>
+        <v>294400</v>
       </c>
       <c r="H52" s="3">
-        <v>188100</v>
+        <v>177000</v>
       </c>
       <c r="I52" s="3">
-        <v>142300</v>
+        <v>133900</v>
       </c>
       <c r="J52" s="3">
-        <v>266800</v>
+        <v>251000</v>
       </c>
       <c r="K52" s="3">
         <v>160600</v>
@@ -2328,25 +2328,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2968000</v>
+        <v>2792800</v>
       </c>
       <c r="E54" s="3">
-        <v>3538800</v>
+        <v>3329800</v>
       </c>
       <c r="F54" s="3">
-        <v>3461200</v>
+        <v>3256800</v>
       </c>
       <c r="G54" s="3">
-        <v>3269700</v>
+        <v>3076700</v>
       </c>
       <c r="H54" s="3">
-        <v>3265600</v>
+        <v>3072800</v>
       </c>
       <c r="I54" s="3">
-        <v>3006300</v>
+        <v>2828700</v>
       </c>
       <c r="J54" s="3">
-        <v>2905800</v>
+        <v>2734200</v>
       </c>
       <c r="K54" s="3">
         <v>3145100</v>
@@ -2401,25 +2401,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>218200</v>
+        <v>205300</v>
       </c>
       <c r="E57" s="3">
-        <v>325800</v>
+        <v>306600</v>
       </c>
       <c r="F57" s="3">
-        <v>415200</v>
+        <v>390700</v>
       </c>
       <c r="G57" s="3">
-        <v>346800</v>
+        <v>326300</v>
       </c>
       <c r="H57" s="3">
-        <v>374000</v>
+        <v>351900</v>
       </c>
       <c r="I57" s="3">
-        <v>366500</v>
+        <v>344900</v>
       </c>
       <c r="J57" s="3">
-        <v>352000</v>
+        <v>331300</v>
       </c>
       <c r="K57" s="3">
         <v>473800</v>
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>94400</v>
+        <v>88800</v>
       </c>
       <c r="E58" s="3">
-        <v>109500</v>
+        <v>103000</v>
       </c>
       <c r="F58" s="3">
-        <v>57000</v>
+        <v>53700</v>
       </c>
       <c r="G58" s="3">
-        <v>151900</v>
+        <v>142900</v>
       </c>
       <c r="H58" s="3">
-        <v>62600</v>
+        <v>58900</v>
       </c>
       <c r="I58" s="3">
-        <v>64700</v>
+        <v>60800</v>
       </c>
       <c r="J58" s="3">
-        <v>152600</v>
+        <v>143500</v>
       </c>
       <c r="K58" s="3">
         <v>81200</v>
@@ -2479,25 +2479,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>242000</v>
+        <v>227700</v>
       </c>
       <c r="E59" s="3">
-        <v>237500</v>
+        <v>223500</v>
       </c>
       <c r="F59" s="3">
-        <v>299000</v>
+        <v>281400</v>
       </c>
       <c r="G59" s="3">
-        <v>310200</v>
+        <v>291900</v>
       </c>
       <c r="H59" s="3">
-        <v>269900</v>
+        <v>254000</v>
       </c>
       <c r="I59" s="3">
-        <v>365300</v>
+        <v>343700</v>
       </c>
       <c r="J59" s="3">
-        <v>576400</v>
+        <v>542400</v>
       </c>
       <c r="K59" s="3">
         <v>379800</v>
@@ -2518,25 +2518,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>554600</v>
+        <v>521900</v>
       </c>
       <c r="E60" s="3">
-        <v>672800</v>
+        <v>633100</v>
       </c>
       <c r="F60" s="3">
-        <v>771300</v>
+        <v>725700</v>
       </c>
       <c r="G60" s="3">
-        <v>785900</v>
+        <v>739500</v>
       </c>
       <c r="H60" s="3">
-        <v>706500</v>
+        <v>664800</v>
       </c>
       <c r="I60" s="3">
-        <v>796500</v>
+        <v>749500</v>
       </c>
       <c r="J60" s="3">
-        <v>739000</v>
+        <v>695400</v>
       </c>
       <c r="K60" s="3">
         <v>934700</v>
@@ -2557,25 +2557,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>234800</v>
+        <v>220900</v>
       </c>
       <c r="E61" s="3">
-        <v>529300</v>
+        <v>498000</v>
       </c>
       <c r="F61" s="3">
-        <v>446000</v>
+        <v>419600</v>
       </c>
       <c r="G61" s="3">
-        <v>315200</v>
+        <v>296600</v>
       </c>
       <c r="H61" s="3">
-        <v>393100</v>
+        <v>369900</v>
       </c>
       <c r="I61" s="3">
-        <v>204700</v>
+        <v>192600</v>
       </c>
       <c r="J61" s="3">
-        <v>127300</v>
+        <v>119800</v>
       </c>
       <c r="K61" s="3">
         <v>175300</v>
@@ -2596,25 +2596,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>80800</v>
+        <v>76000</v>
       </c>
       <c r="E62" s="3">
-        <v>98200</v>
+        <v>92400</v>
       </c>
       <c r="F62" s="3">
-        <v>88100</v>
+        <v>82900</v>
       </c>
       <c r="G62" s="3">
-        <v>95700</v>
+        <v>90000</v>
       </c>
       <c r="H62" s="3">
-        <v>113900</v>
+        <v>107100</v>
       </c>
       <c r="I62" s="3">
-        <v>89800</v>
+        <v>84500</v>
       </c>
       <c r="J62" s="3">
-        <v>195100</v>
+        <v>183600</v>
       </c>
       <c r="K62" s="3">
         <v>93400</v>
@@ -2752,25 +2752,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1054500</v>
+        <v>992200</v>
       </c>
       <c r="E66" s="3">
-        <v>1671200</v>
+        <v>1572500</v>
       </c>
       <c r="F66" s="3">
-        <v>1626200</v>
+        <v>1530200</v>
       </c>
       <c r="G66" s="3">
-        <v>1506600</v>
+        <v>1417700</v>
       </c>
       <c r="H66" s="3">
-        <v>1501700</v>
+        <v>1413000</v>
       </c>
       <c r="I66" s="3">
-        <v>1350000</v>
+        <v>1270200</v>
       </c>
       <c r="J66" s="3">
-        <v>1247000</v>
+        <v>1173400</v>
       </c>
       <c r="K66" s="3">
         <v>1426700</v>
@@ -2964,25 +2964,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1511400</v>
+        <v>1422100</v>
       </c>
       <c r="E72" s="3">
-        <v>1571300</v>
+        <v>1478500</v>
       </c>
       <c r="F72" s="3">
-        <v>1531100</v>
+        <v>1440700</v>
       </c>
       <c r="G72" s="3">
-        <v>1428900</v>
+        <v>1344500</v>
       </c>
       <c r="H72" s="3">
-        <v>1328800</v>
+        <v>1250400</v>
       </c>
       <c r="I72" s="3">
-        <v>1299100</v>
+        <v>1222400</v>
       </c>
       <c r="J72" s="3">
-        <v>1202900</v>
+        <v>1131900</v>
       </c>
       <c r="K72" s="3">
         <v>1255300</v>
@@ -3120,25 +3120,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1913500</v>
+        <v>1800500</v>
       </c>
       <c r="E76" s="3">
-        <v>1867600</v>
+        <v>1757300</v>
       </c>
       <c r="F76" s="3">
-        <v>1835000</v>
+        <v>1726600</v>
       </c>
       <c r="G76" s="3">
-        <v>1763100</v>
+        <v>1659000</v>
       </c>
       <c r="H76" s="3">
-        <v>1764000</v>
+        <v>1659800</v>
       </c>
       <c r="I76" s="3">
-        <v>1656300</v>
+        <v>1558500</v>
       </c>
       <c r="J76" s="3">
-        <v>1658800</v>
+        <v>1560800</v>
       </c>
       <c r="K76" s="3">
         <v>1718400</v>
@@ -3242,25 +3242,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>140300</v>
+        <v>132000</v>
       </c>
       <c r="E81" s="3">
-        <v>90300</v>
+        <v>85000</v>
       </c>
       <c r="F81" s="3">
-        <v>145700</v>
+        <v>137100</v>
       </c>
       <c r="G81" s="3">
-        <v>142700</v>
+        <v>134300</v>
       </c>
       <c r="H81" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I81" s="3">
-        <v>133200</v>
+        <v>125300</v>
       </c>
       <c r="J81" s="3">
-        <v>132200</v>
+        <v>124400</v>
       </c>
       <c r="K81" s="3">
         <v>117800</v>
@@ -3298,25 +3298,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>121000</v>
+        <v>113900</v>
       </c>
       <c r="E83" s="3">
-        <v>158100</v>
+        <v>148700</v>
       </c>
       <c r="F83" s="3">
-        <v>147200</v>
+        <v>138500</v>
       </c>
       <c r="G83" s="3">
-        <v>145900</v>
+        <v>137300</v>
       </c>
       <c r="H83" s="3">
-        <v>134000</v>
+        <v>126100</v>
       </c>
       <c r="I83" s="3">
-        <v>143900</v>
+        <v>135400</v>
       </c>
       <c r="J83" s="3">
-        <v>150500</v>
+        <v>141600</v>
       </c>
       <c r="K83" s="3">
         <v>142200</v>
@@ -3532,25 +3532,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>300600</v>
+        <v>282800</v>
       </c>
       <c r="E89" s="3">
-        <v>272300</v>
+        <v>256200</v>
       </c>
       <c r="F89" s="3">
-        <v>342100</v>
+        <v>321900</v>
       </c>
       <c r="G89" s="3">
-        <v>329100</v>
+        <v>309600</v>
       </c>
       <c r="H89" s="3">
-        <v>212200</v>
+        <v>199600</v>
       </c>
       <c r="I89" s="3">
-        <v>352600</v>
+        <v>331700</v>
       </c>
       <c r="J89" s="3">
-        <v>218900</v>
+        <v>206000</v>
       </c>
       <c r="K89" s="3">
         <v>303000</v>
@@ -3588,25 +3588,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-60300</v>
+        <v>-56800</v>
       </c>
       <c r="E91" s="3">
-        <v>-161300</v>
+        <v>-151800</v>
       </c>
       <c r="F91" s="3">
-        <v>-194400</v>
+        <v>-182900</v>
       </c>
       <c r="G91" s="3">
-        <v>-227600</v>
+        <v>-214200</v>
       </c>
       <c r="H91" s="3">
-        <v>-198600</v>
+        <v>-186900</v>
       </c>
       <c r="I91" s="3">
-        <v>-242600</v>
+        <v>-228300</v>
       </c>
       <c r="J91" s="3">
-        <v>-233900</v>
+        <v>-220100</v>
       </c>
       <c r="K91" s="3">
         <v>-248800</v>
@@ -3705,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-158000</v>
+        <v>-148600</v>
       </c>
       <c r="E94" s="3">
-        <v>-202800</v>
+        <v>-190900</v>
       </c>
       <c r="F94" s="3">
-        <v>-231500</v>
+        <v>-217800</v>
       </c>
       <c r="G94" s="3">
-        <v>-157400</v>
+        <v>-148100</v>
       </c>
       <c r="H94" s="3">
-        <v>-244800</v>
+        <v>-230300</v>
       </c>
       <c r="I94" s="3">
-        <v>-249600</v>
+        <v>-234900</v>
       </c>
       <c r="J94" s="3">
-        <v>-242900</v>
+        <v>-228600</v>
       </c>
       <c r="K94" s="3">
         <v>-271800</v>
@@ -3761,25 +3761,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-44100</v>
+        <v>-41500</v>
       </c>
       <c r="E96" s="3">
-        <v>-50100</v>
+        <v>-47200</v>
       </c>
       <c r="F96" s="3">
-        <v>-43500</v>
+        <v>-40900</v>
       </c>
       <c r="G96" s="3">
-        <v>-43000</v>
+        <v>-40400</v>
       </c>
       <c r="H96" s="3">
-        <v>-43900</v>
+        <v>-41300</v>
       </c>
       <c r="I96" s="3">
-        <v>-37000</v>
+        <v>-34800</v>
       </c>
       <c r="J96" s="3">
-        <v>-28400</v>
+        <v>-26700</v>
       </c>
       <c r="K96" s="3">
         <v>-29700</v>
@@ -3917,25 +3917,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-145700</v>
+        <v>-137100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-35800</v>
+        <v>-33700</v>
       </c>
       <c r="G100" s="3">
-        <v>-119100</v>
+        <v>-112100</v>
       </c>
       <c r="H100" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="I100" s="3">
-        <v>-45200</v>
+        <v>-42600</v>
       </c>
       <c r="J100" s="3">
-        <v>-55300</v>
+        <v>-52100</v>
       </c>
       <c r="K100" s="3">
         <v>-27700</v>
@@ -3956,25 +3956,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="G101" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-11400</v>
+        <v>-10700</v>
       </c>
       <c r="J101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K101" s="3">
         <v>3800</v>
@@ -3995,25 +3995,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="E102" s="3">
-        <v>70100</v>
+        <v>66000</v>
       </c>
       <c r="F102" s="3">
-        <v>68600</v>
+        <v>64500</v>
       </c>
       <c r="G102" s="3">
-        <v>51100</v>
+        <v>48100</v>
       </c>
       <c r="H102" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="I102" s="3">
-        <v>46300</v>
+        <v>43600</v>
       </c>
       <c r="J102" s="3">
-        <v>-77500</v>
+        <v>-72900</v>
       </c>
       <c r="K102" s="3">
         <v>7300</v>
